--- a/KINCrawl/result.xlsx
+++ b/KINCrawl/result.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="195">
   <si>
     <t>번호</t>
   </si>
@@ -30,124 +30,574 @@
     <t>url</t>
   </si>
   <si>
+    <t>갱년기 증상일까요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>머리 윗부분 쐬하는 증상과 얼굴이 가끔 상기되는데요,제가 갱년기라서 그럴까요? 48세이고 생리양도 줄었습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 생리간격이 들쑥날쑥하면서 생리양도 주는 등의 생리증상과 함께 열이 오르는 증상이 같이 온다는 것으로 미뤄볼때 갱년기 증상일 가능성이 높습니다. 초기에는 주로 우리 몸의 온도와 땀을 주관하는 부분의 이상 증상과 같이 옵니다. 호르몬 검사 후 적절한 호르몬 보충등을 해 보시면 증상 완화는 비교적 빠르게 옵니다. 우선적으로 가까운 산부인과에서 현재의 호르몬 상태와 호르몬보충 요법을 부작용 없이 받을 수 있는 상태인지 정밀 검사 후 선생님과 상담해 보시길 바랍니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=441856833&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=32&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 여성입니다. 갱년기가 시작된건 정확히는 모르겠으나 작년부터인거 같고 증상이 심하고 특히 질이 건조하고 화끈거립니다. 요즘 기분도 오락가락하는데 질까지 건조해서 예민합니다. 갱년기 치료가 효과가 있을지 궁금합니다. 타로/별자리</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기, 곤지름치료하는 산부인과 전문의 여의사입니다. 산부인과를 오셔서 제대로 갱년기 치료를 받으셨으면 좋겠습니다. 최근 평균수명 연장으로 평균 폐경나이 만50세이니까 100세시대면 거의 반백년을 폐경으로 지내야 하죠. 급격하게 바뀌는 신체의 변화로 많은 분들이 당혹스러워하시기도 하고 성생활에도 많은 영향을 끼치게 되는 데요. 산부인과 전문의에게 갱년기에 대한 제대로 된 진찰을 받음으로서 원인이 무엇인지, 어떻게 개선할지 카운셀링 받는 것이 가장좋은 방법입니다. 폐경은 난포기능의 소실로 인한 월경의 영구적인 중지를 의미하며 자연폐경과 유도폐경으로 구분되는 데 일반적으로 겪는 자연폐경은 특별한 병리적, 생리적 원인없이 자연발생적으로 지난 1년동안 무월경 상태가 지속된 경우 폐경이 되었음을 알게 되는 겁니다. 유도폐경은 양측 난소제거수술로 인한 수술적 폐경이나 화학요법이나 방사선치료에 의한 난소기능의 상실로 인한 것입니다. 요즘들어 증가추세로 걱정이 많아진 조기폐경은 조기난소부전이라고 하는 데 40세이전에 폐경이 초래된 경우로 전체여성의 1% 즉 100명중 1명꼴로 발생하는데 원인은 독성, 염색체이상, 또한 자가면역질환을 들 수 있지만 원인불명의 경우도 있습니다. 다른 폐경증상이 나타나기전에 이미 약 40세 전후로 하여 난소기능은 쇠퇴가 시작되어 폐경으로 접근해가는 데 이 시기를 폐경 이행기 또는 갱년기라고 하며 호르몬 변화가 가장 극적으로 일어나는 시기입니다. 그로인해 다양한 월경주기의 변화가 생기가 시작해서 월경의 중단으로 끝맺음 됩니다. 일반적으로 51세에 폐경이 온다고 하며 2003년 논문에는 한국여성의 평균폐경연령은 49.7세입니다. 흡연여성과 자궁절제술의 경우 폐경이 앞당겨집니다. 안면홍조, 위축성질염, 급뇨, 빈뇨, 요도염 등의 배뇨장애가 발생할 수 있고, 우울감, 흥분, 감정기복, 불안, 신경과민 등의 심리적 변화도 나타나서 제2의 사춘기라고도 하고 골밀도가 급격히 낮아지면서 골다공증이 발생해 일상생활 중 허리나 무릎, 손목관절 등에 통증이 생기고 작은 충격에도 골절이 일어나기 쉬워집니다. 에스트로겐 부족으로 인해 가슴, 목, 얼굴 부위가 붉어지면서 화끈거리는 증상이 나타나고, 심리적인 불안함과 초조함을 동반한 두통과 우울증, 수면장애가 생기기 숴워집니다. 폐경이 되면 감정을 조절하는 세로토닌 호르몬 분비가 남성에 비해 줄어들어 복잡한 감정들을 잘 조절하지 못해서 폐경 이후 오히려 남자들이 조용해지고 여자들이 목소리가 커지는 상황이 발생하기도 합니다. 이 시기에 도움이 되는 영양제는 성요한초, 대두(이소플라본), 붉은 토끼풀(이소플라본), 홉, 달맞이꽃 종자유, 피크노제놀 등이 있습니다. 영양제는 치료제가 아니기 때문에 드라마틱한 효과를 기대하기는 어렵습니다. 또한 복용하면서 1년에 한번은 산부인과진료를 받아 자궁내막이 두꺼워졌는지 초음파로 확인해야합니다. 영양제복용과 함께 생활습관 개선도 이루어져야하는데 금연, 규칙적인 운동, 뜨거운음료, 매운음식, 술, 카페인을 피해주세요. 갱년기 질건조증 증상으로 건조함, 타는 듯한 느낌, 가려움증, 질 불편감, 소변볼 때의 작열감이나 통증, 성교통, 성관계시 점성 출혈 등이 있습니다. 이 질 건조증을 산부인과에서 해결 안하시고 과학적으로 증명되지 않은 잘 모르는 건강기능식품들만 드시거나 해서 질 위축이 심해지면 나중에 산부인과 검진을 받을 때 시행하는 초음파 기계나 질경 자체가 안들어가는 경우도 발생할 수 있습니다. 에스트로겐이 부족하게 되면 비뇨생식기계 장기들인 소음순, 대음순, 질입구, 클리토리스, 질, 요도, 방광까지 구조와 기능에 좋지 않은 영향을 미치게 됩니다. 또한 폐경이 되고 저에스트로겐으로 인해 갱년기 증상이나 골밀도감소, 피부탄력감소, 급격한 노화, 질건조 등이 발생하게 되면 바로 산부인과에 오셔서 호르몬 보조요법을 시작하셔야 합니다. 노화가 급격하게 이루지는 것도 막아줍니다. 갱년기 증상의 원인은 난소의 노화로 체내에 흐르는 여성호르몬 감소 및 정신적, 신체적 기능이 저하가 되는 데요. 난소의 기능은 난자 생성하는 생식기능 및 여성호르몬인 에스트로겐과 프로게스테론을 분비합니다. 월경이 종료하는 완경 후 약 1년까지의 기간이 갱년이입니다. 심한경우에는 70대까지도 갱년기증상을 호소하기도 하는 데요. 완경을 기점으로 골밀도가 저하되어 골다공증이 발생하기도 하고 자궁에 생기는 혹덩어리인 자궁근종이나 선근종이 발생하기도 합니다. 갱년기를 맞이하게 되면 여성은 더이상 여성호르몬인 에스트로겐이 나오지 않게 되면서 여러 문제가 발생하게 되는 데요. 그중 하나가 복부비만입니다. 이 복부비만은 당뇨나 고혈압, 심혈관 질환 등을 증가시키는 위험요소이기도 하죠. 폐경여성에게서의 갱년기증상은 충분한 비타민 D의 보충이 질 건강을 지키는 데 도움이 됩니다. 비타민 D는 질상피세포의 분화와 성장을 개선시키고, 질내 산성도 또한 향상시키며, 질 건조증을 감소시킵니다. 질건조증으로 인한 위축성 질염이 반복되고 성관계시 통증을 호소하는 폐경여성들이 호르몬치료에 거부감을 갖고 있기도 한 데 비타민 D를 충분하게 보충하시는 것도 도움이 됩니다. . 갱년기 여성에게서 위축성질염이 자주 나타나는 데 질 점막이 얇아지고 혈관분포가 줄어들면서 발생합니다. 보통 질 내 건조증으로 인한 통증을 호소하며 얇아진 점막을 통해 세균들이 더 잘 침투하게 되거나 약한 자극에도 출혈이 일어나게 되는 데 폐경여성에게서 일어나는 부정출혈의 가장 많은 원인을 차지하는 것이 위축성 질염입니다. 질유산균은 장건강 뿐만 아니라 질속에 있는 미생물들의 균형과 산성도를 조절해서 항균, 항염, 항바이러스의 기능을 돕습니다. 즉 외부로부터 들어오는 독소나 병원균의 과증식 억제를 도와주며 산성도 유지를 통해 질내 염증을 막아주어 질 건강에 도움이 될 수 있습니다. 질유산균 복용시 질 분비물과 가려움증이 상당부분 감소됩니다. 갱년기증상이 시작되면 산부인과에 진료받아보세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=437979572&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=33&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 맞는지 궁금해요 타로/별자리</t>
+  </si>
+  <si>
+    <t>저는 올해43세에 아이가 둘인 엄마인데요. 전에도 비슷한 증상을 느꼈는데 요즘들어 식은땀 나듯이 옷이 다 젖을정도로 적셔있고, 불면증도 더 심해지고 아무것도 하기싫은것처럼 무기력해짐을 느낍니다. 그리고, 몸상태도 예전같지도 않고요. 제가 느끼는 증상이 갱년기가 맞는건지 궁금합니다. ㅠ 혹시, 갑상선하고도 연관이 있는건지 궁금합니다. 참 상체 위주로 더웠다 추웠다그래요</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한의사협회·네이버 지식iN 상담의사 한세열 입니다. 네. 주신 증상들은 갱년기에 초래될 수 있는 흔히 나타나는 증상과 일치합니다. 그리고 나이가 40세 이후에는 조금 빨리 갱년기가 올 수도 있는 것으로 되어 있기도 합니다. 정 걱정이 되시고 불편하시면 참지 마시고 가까운 병원을 찾아 선생님께 도움을 청해 보셔도 좋을 듯하네요. 안녕히 계세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=429705231&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=15&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 증상관련 타로/별자리</t>
+  </si>
+  <si>
+    <t>49세 여성입니다. 생리가. 3개월이상 하지않고, 여러가지 갱년기 증상이 있어서 산부인과에서 피검사를 받았습니다. 참고로 3년전에 오른쪽 난소를 제거했고, 엊그제 산부인과 초음파검사에서 왼쪽 난소도 거의 보이지 않는다고 했습니다. 피검사결과 [Web발신] 안녕하세요.센트라스산부인과입니다 검사 결과가 나왔습니다.갱년기호르몬78증가되어있습니다 내원하셔서 결과 상담받으세요. 이렇게 문자가 왔는데, 무슨 내용인지 몰라 질문드립니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 문자내용 중 갱년기호르몬이라는 용어가 공식용어는 아니어서 정확한 답변은 어려울듯 합니다. 하지만, 일반적으로 갱년기 증상에 대한 산부인과 피검사라는 것을 고려해 볼때 FSH, 난포자극호르몬을 일컫는 것은 아닌가 추측해 봅니다. 갱년기가 되면 안명홍조, 감정기복의 심화, 불면증등을 비롯하여 삶의 질에 많은 영향을 미치는 증상들이 발생할 수 있으며, 이러한 초기증상외에도 비뇨생식기 위축증 및 골다골증, 치매 등 질병과의 연관성도 높아 적극적으로 조절하시는 것 또한 필요합니다. 결과 상담 잘 받으시길 바랍니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=431238113&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=23&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기증상 타로/별자리</t>
+  </si>
+  <si>
+    <t>겪고있는 증상들이 갱년기증상 같아서 산부인과를 가보려구 하는데요 근데 며칠전에 내과서 피검사를 했는데 여성호르몬수치는 정상으로 나왔거든요 궁금한건 여성호르몬 수치가 정상이여도 갱년기가 올수 있는 건가요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 이형근 입니다. 생리가 완전히 없어지는 폐경이 나타난 이후의 약 1년까지를 폐경이행기 또는 갱년기라고 부르며 이 기간은 약 4~7년 정도입니다. 갱년기는 여성의 생애 주기상 여성호르몬의 분비가 저하되는 시기로 폐경(완경)으로 이행하는 시기입니다. 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애 등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질 건조감, 성교통, 질 감염 등의 증상이 나타날 수 있습니다. 여성호르몬 수치가 정상이라고 나오셨다면 갱년기 증상이 잘 나타나지 않을 텐데 이상 증상이 많이 발견되신다면 산부인과에 내원하셔서 검진을 받아보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=403626193&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=52&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 여성호르몬제 타로/별자리</t>
+  </si>
+  <si>
+    <t>갱년기로 인해 여성호르몬제를 복용하고 있는데요 약 종류를 바꾸는 과정에서 많이 힘든데 적응기간이라 힘든건지, 약이 안맞아서 힘든건지 모르겠네요ㅠㅠ 약을 바꿔서 먹은지는 4일정도 되었어요 소중한 답변 부탁드려요…!</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #갱년기 #갱년기호르몬제 여러 종류의 갱년기 호르몬제마다 효과가 다른고 부작용이 미미하게 다를 수 있습니다. 새로운 약에 적응하는 시간은 최소한 1-2주 가량 고려해 보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=444731652&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=4&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 질이완증 불감증 해결 방법은? 타로/별자리</t>
+  </si>
+  <si>
+    <t>50대 초반 여성이며 갑자기 생리가 줄어들어 병원가서 문의했더니 폐경이 진행되고 있다고 하네요 없던 갱년기 증세들도 많이 나타나고 성교통에 불감증도 심해지고 있습니다. 최근에는 부부관계에 균열이 생기기도 했네요.. 어디에다 하소연 할때도 없고 심적으로 힘들어 이렇게 지식인에 질문을 올려봅니다 질이완증 질건조증이라는게 질염처럼 만성이 되는 건지? 개선방법은 없는지? 궁금합니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 김화정 입니다. 저는 여성성형에 있어 수천 건의 수술집도 경험이 있고, 현재 서울 5호선 마곡역 발산역 NC백화점 인근에서 진료를 하고 있는 산부인과 전문의 입니다. 질 건조증에 대한 고민이시군요. 질건조증은 갱년기 장애의 한 증상일 수도 있습니다. 혹시 폐경되신 것이라면 호르몬 치료를 고려해보시기 바랍니다. 아닉 폐경이 아닌 상태라면, 성감저하가 가장 큰 원인이 될 수 있습니다. 여성성감은 파트너와의 교감이 가장 중요합니다. 대화가 가장 중요하고, 충분한 무드가 필요합니다. 그리고 외음부 자체의 이완증이나 애액분비샘에 대한 부분도 진찰을 받아보시기 바랍니다. 질 성형수술이 도움을 드릴 수 있는 부분도 있는데요. 아래는 관련 수술에 대한 자세한 안내를 드리겠습니다. 질 성형수술은 의학적으로 이미 검증이 된 시술부터 아직 검증이 필요한 시술 그리고 효과와 안전성이 입증된 바가 없는 시술까지 다양합니다. 그중 의학적으로 인정이 되는 시술은 질 축소수술 하나뿐 입니다. 질 레이저치료나 질 임플란트 수술은 의학적인 검증이 좀더 필요하고, 질 필러 시술은 효과와 안전성이 입증된 바 없습니다. 아래에는 의학적으로도 보건당국에서도 안전성을 인정한 질 축소성형(이쁜이수술)에 대한 자세한 안내드리겠습니다. 이쁜이수술에 대한 자세한 안내를 드리겠습니다. 이쁜이수술은 두가지 목적으로 보통 문의를 많이 하십니다. 첫째는 질강으로 좁혀주고, 타이트하게 해서 긴장감을 높여주고, 남녀 모두의 성감대에 마찰감을 증대시켜주어 성감 향상을 목적입니다. 둘째, 질강의 확대로 성관계시 혹은 특정 자세에서 질에서 바람빠지는 소리가 나는 경우(일명 '질음'이라합니다.) 혹은 질벽이 약하고 느슨하여 방광과 직장 등 주변조직이 질쪽으로 밀려서 요실금 수술을 받아야하는 정도는 아니지만 경도의 요실금 증세가 있을때 개선을 위한 목적입니다. 대부분 자연분만을 하신 분들은 이 두가지 문제를 다가지고 계신 경우가 많은데, 꼭 자연분만 하신 분들만의 수술은 아닙니다. 질의 손상여부와 상관없이 파트너(남편) 분과 성적 긴장감을 높이기를 원해서 이쁜이수술을 받기를 원하는 분들이 최근에는 더 많은 추세입니다. 이러한 이쁜이 수술을 받고자하는 상담을 해오다 보니, 저희 만의 독특한 진단기준과 방법을 세웠습니다. 그리고 현재 많은 병의원들이 비슷한 기준으로 고객분께 상담 드리는 경우를 종종 보게 됩니다. 수술 후 효과는 다음과 같은 몇가지 변수에 의해서 좌우될 수 있습니다. 1) 질강의 모양 2) 질 근육의 수축력 3) 질 점막주름의 상태 4) 질점막의 무른 정도와 5) 질 주변 지방조직의 분포와 양 각각에 대한 정확한 상태를 진단하는 것이 이쁜이수술 진찰의 시작입니다. 이에 따라 수술의 방법과 목적, 수술 후 효과에 대한 예측을 하고, 정확한 상담을 한 후 수술을 결정할 수 있는 근거를 제시해드립니다. 이쁜이수술은 수술방법에 따라 다음과 같이 분류를 합니다. 1) 질 축소수술 질강의 점막을 박리하여, 질벽을 두텁게 해주면서 질강을 좁혀주는 수술 2) 골반 근육 복원술 분만 손상으로 질강 주변의 근육이 손상된 경우, 질을 효과적으로 수축할 수 있도록 근육을 질강에 가깝게 당겨서 복원해주는 수술 3) 질 점막돌기 복원술 질점막의 돌기는 20대에 가장 발달이 되고, 시간이 흐르면서 밋밋하게 변하게 됩니다. 질 점막에 돌기를 복원하여, 성기의 마찰력을 상승시켜주는 수술입니다.(일명 '지렁이 수술','엠보싱수술'이라 합니다.) 4) 임플란트 질성형 질 주변에 고탄성의 실리콘 재질의 보형물을 넣어 수축력과 무른 질점막을 보완하는 방법입니다. 하지만 수술적으로 모든 문제를 해결하지는 못합니다. 질이 선천적으로 무르거나 근육수축 자체를 못하는 분들은 수술적인 방법으로 효과를 완벽히 볼 수 없습니다. 이러한 경우는 근육 강화를 위한 운동요법과 교육이 필요할 수 있습니다. 이러한 고객의 질의 상태와 문제점을 제대로 알고 시술할 수 있는 의사에게 시술을 받으셔야 이쁜이수술은 성감향상과 골반재건의 의미가 있으며, 효과는 최대가 될 수 있습니다. 수술 시 마취는 세가지 마취를 병행하는데요. 일단, 내시경할때 하는 수면마취로 주무시게 해드리고, 수술 부위 국소마취 그리고, 회음신경을 차단하는 마취까지 해드립니다. 이에 따라 수술 중이나 수술직후 통증은 거의 없습니다. 수술 후 5~6시간 지나면, 마취가 일부 풀리면서 경미한 통증이 있을 수 있으나, 처방해드린 약을 복용하시면 불편이 거의 없습니다. 따라서 수술 후 바로 일상생활이 가능하고, 심지어 수술 다음날 산에 오르기도 합니다. 다만 질 근육이 약해서 근육재건술을 받으시는 경우라면, 약간의 통증이 있을 수 있으며, 이 불편은 먹는 진통제로 좋아질 수 있습니다. 이쁜이수술로 인한 부작용은 위험한 것이 없습니다. 수술에 대한 일반적인 부작용들 출혈, 염증, 마취문재 이외에는 단기적으로는 문제가 발생하지않으며, 수술 후 장기적으로 간혹 너무 좁거나 넓게 되는 경우가 부작용이라면 부작용입니다. 하지만, 대부분 이런 문제가 생기지않도록 처음부터 파트너분의 사이즈를 알고 시술을 해드리기때문에 재수술 가능성의 거의 없습니다. 이쁜이수술 시 앞에서 안내된 모든 수술을 하실 필요는 없습니다. 이들 중 필요한 수술만 받으시면 되고,정확한 것은 진찰을 받아보시면 알 수 있는데요. 직접 방문주시면, 좀더 환자분께 맞는 자세한 진찰과 상담 드리겠습니다. 환자 분의 상태에 맞게 풍부한 경험을 바탕으로 가장 알맞는 수술을 해드릴 것을 약속해드릴 수 있으며, 높은 만족도를 자부합니다. 이쁜이수술에 레이저를 사용하는지 여부에 대한 문의가 많은데요. 저희 산부인과는 레이저와 함께 레이저에 의한 피부 열손상을 막기위한 콜드나이프 절개술을 병행하여 한단계 앞선 기법으로 수술을 하고 있습니다. 콜드나이프란 레이저에 의한 열에 대비되는 개념으로 질 점막 절개단계에서 사용되는 예리한 의료용 메스를 말합니다. 레이저는 피부 아래층의 지혈과 예리한 박피를 위해 사용되는데, 이러한 수술 기법은 질점막에 화상흉터 남기지않고, 디자인대로 정밀한 교정이 가능하게 해줍니다. 다음으로 이쁜이수술과 함께 많이 시술받으시는 양귀비수술(지스팟수술)에 대해서도 간략하게 안내드리겠습니다. 지스팟은 클리토리스(음핵)과 자궁의 에피센터 이후 제3의 성감대로 불리며, 가장 최근에 발견된 부분으로... 질 입구에서 11시 방향으로 3~4cm 지점에 존재하는 성감대 부분을 말합니다. 이것은 전체 인구의 60%정도만이 확인이 되어 존재 자체에 대해서도 아직까지 미스터리한 측면이 있습니다. 지스팟 성형은 이곳에 보형물을 넣어 도드라지게 하여 성감대를 자극해주는 기법을 말하는데, 지스팟을 가지고 있다면, 수술 후 성감이 증진되는 효과를 만끽할 수 있지만, 반대로 지스팟이 발달하지 않는 경우 수술 후 효과를 전혀 볼 수 없을 수 있습니다. 따라서 정확한 진찰과 수술판단이 중요하고, 효과적으로 지스팟을 노출시켜 줄 수 있는 보형물을 삽입하는 것이 수술의 성공을 좌우한다고 할 수 있습니다. 저희의 경우 자가 진피 혹은 실리콘 볼을 삽입하여 효과를 주는데요. 이는 금속 구슬이나 탄소 성분의 보형물에 비해 이탈확률이 적고, 안전한 재질로 밝혀져 있습니다. 지스팟수술 비용은 병의원 따라 천차만별이지만, 보통 30~150만원 정도입니다. 저희는 이쁜이수술과 같이 하는 경우 30만원 정도입니다. 직접 방문주시면, 좀 더 환자분께 맞는 자세한 진찰과 상담 드리겠습니다. 이쁜이수술은 여성성형 중에서 가장 난이도가 높은 수술입니다. 집도의사의 수술에 대한 정확한 이해와 충분한 경험이 없이는 성공하기 어렵습니다. 반드시 제대로 하는 병의원에서 능력이 있는 의사에게 수술을 받으셔야 성공하실 수 있습니다. 반드시 몇 군데 여성성형산부인과에서 상담을 받고 난 뒤에 옥석을 가려서 수술을 결정하시기 바랍니다. 기회가 되신다면 제가 근무하는 산부인과에서도 레이저 이쁜이수술에 대한 상담을 받아보세요. 서울 수도권 특히 강서지역에 사신다면 더 가깝습니다. 이쁜이수술만 중점으로 하시고 수천 건의 수술을 경험한 베테랑 의사에게 직접 수술상담을 받으시고 나서, 수술을 결정하실 수 있습니다. 수술 성공하시길 바라구요. 항상 행복하세요.^^</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=449959361&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=7&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 증상에 여성 호르몬제 복용 타로/별자리</t>
+  </si>
+  <si>
+    <t>저의 어머니가 갱년기 증상이 좀 나타나셨는데 ( 몸이 추웠다 더웠다 하고 땀이 나며, 손이 저리고 이러한 것들 이외에도 여러 증상들 ) 병원에서 호르몬제를 처방받아서 먹어야 할까요?? 호르몬제가 몸에 안 좋다는 얘기도 많이 들어서요 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 박평식 입니다. ---폐경 시 어떤 처방을 받게 되나요? : 크게 봐서는 약물 치료와 비약물 치료로 나눠지는데요. 여기서 약물이란 보통 호르몬 약을 말하구요. 주로 얼굴 쪽에 하루에도 몇 번씩 갑자기 붉어지는, 안면홍조 같은 증상은 여성호르몬 복용 며칠만에 드라마틱하게 개선됩니다. 만약 개선되지 않는다면 호르몬 약을 바꿔 본다든지, 그래도 홍조가 지속될 시에는 갑상선호르몬 이상 등 다른 질환 여부를 확인해야 겠지요. 그런데 지속적인 여성호르몬 투여는 유방과 자궁내막을 자극하여 유방암이나 자궁내막암의 발병 우려가 있습니다. 그래서 자궁이 있는 폐경 여성 분들에겐 여성호르몬에 황체호르몬이 추가된 약이나 다른 성분의 호르몬약을 처방하지요. --- 호르몬약 복용 금기증 및 주의사항은? : 호르몬대체요법을 모든 폐경 여성 분들이 다 할 수 있는 건 아니구요. 기존에 뇌혈관이나 심혈관에 질환이 있으신 분들, 유방암이나 자궁내막암, 또는 중증의 간,담낭질환이 있다든지, 심부 하지정맥류 같은 활동성 혈전증 환자, 또한 이미 치매환자 분들은 복용을 할 수 없습니다. 약의 부작용 등, 더 자세한 것은 직접 산부인과병원에 방문하셔서 진찰 후 상담을 받아 보세요. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=446922935&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=12&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>인천갱년기검사항목 타로/별자리</t>
+  </si>
+  <si>
+    <t>여성갱년기검사항목으로는 무엇을 받아야하며 꼭 산부인과에서 검사받고 약처방을 받아야하나요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한의사협회·네이버 지식iN 상담의사 전준연 입니다. 갱년기란 페경전의 과도기로서 새리가 불규칙해지고 홍조증 땀 가슴두근거림 수면장애 등의 증상이 나타나기 시작하는 시기입니다 여성호르몬의 감소로 인하여 생기는 증상이므로 여성호르몬을 복용하면 됩니다 여성호르몬치료는 장기 복용이므로 유방과 자궁이나 난소에 여성호르몬에 영향을 받은 혹이 없어야 합니다 또한 간기능이 정상이어야 하며 콜레스테롤이 정상이어야 합니다 그래서 자궁경부암검사 자궁초음파검사 유방암검사 간기능검사 콜레스테롤,중성지방검사를 해서 합격을 해야 합니다</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=435372771&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=9&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기로 고생하고 있는 위축성질염 타로/별자리</t>
+  </si>
+  <si>
+    <t>갱년기로 고생하고 있는 50대 여성입니다...요즘은 뭘해도 의욕이 없네요...힘도 빠지고...질분비물도 안나와서 아프네요..친구가 위축성질염 아니냐고 하는데 산부인과 가봐야 할지 여쭤봅니다...</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기치료하는 산부인과 전문의 여의사입니다. 관계 시 애액 분비가 잘 안되고 건조해서 아프다면 위축성 질염 가능성이 높습니다. 산부인과 방문하셔서 호르몬 치료에 대해서 상담 받고 고려를 하시길 추천드립니다. 산부인과 병의원 방문하는 것을 두려워하실 필요 전혀 없으십니다. 오셔서 갱년기 증상에 대해서도 상담받아보세요. 항상 건강하시고 행복하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=424316624&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=44&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 치료 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요 저희 엄마께서 흡연자 이신데, 3달 전에 산부인과에서 검사따로 하지 않고, 엔젤릭 정 호르몬 약만 처방 받고 2달간 드셨습니다. 흡연자는 호르몬제 먹으면 안된다는 걸 알고 바로 중단했어요. 중단 후 잠은 워낙 불규칙 하시고, 자고 일어나시면 땀이 너무 나서 베개가 축축할 정도로 된다고 하셔요. 호르몬제도 못 드시면 어떤걸 해야 갱년기 증상을 완화할 수 있을까요? 산부인과에 가서 검사를 받아야하나요? 보통 흡연 갱년기를 가지고 있는 사람에게 어떤 약을 혹은 어떤 치료를 처방해주시나요? 갱년기 영양제는 호르몬제처럼 효과를 볼 수 있나요?아님 그냥 보조 영양 역할인가요..?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 흡연자 자체가 호르몬 치료의 금기가 아닙니다. 흡연자도 호르몬 요법을 하실 수 있습니다. 잘못알고 계신 겁니다. 안젤릭 드세요!!!!!! 상담 위해서 병원 방문해 주세요~@!!!! 산부인과 전문의에게 갱년기에 대한 제대로 된 진찰을 받음으로서 원인이 무엇인지, 어떻게 개선할지 카운셀링 받는 것이 가장좋은 방법입니다. 최근 평균수명 연장으로 평균 폐경나이 만50세이니까 100세시대면 거의 반백년을 폐경으로 지내야 하죠. 급격하게 바뀌는 신체의 변화로 많은 분들이 당혹스러워하시기도 하고 성생활에도 많은 영향을 끼치게 되는 데요. 안면홍조, 위축성질염, 급뇨, 빈뇨, 요도염 등의 배뇨장애가 발생할 수 있고, 우울감, 흥분, 감정기복, 불안, 신경과민 등의 심리적 변화도 나타나서 제2의 사춘기라고도 하고 골밀도가 급격히 낮아지면서 골다공증이 발생해 일상생활 중 허리나 무릎, 손목관절 등에 통증이 생기고 작은 충격에도 골절이 일어나기 쉬워집니다. 에스트로겐 부족으로 인해 가슴, 목, 얼굴 부위가 붉어지면서 화끈거리는 증상이 나타나고, 심리적인 불안함과 초조함을 동반한 두통과 우울증, 수면장애가 생기기 숴워집니다. 폐경이 되면 감정을 조절하는 세로토닌 호르몬 분비가 남성에 비해 줄어들어 복잡한 감정들을 잘 조절하지 못해서 폐경 이후 오히려 남자들이 조용해지고 여자들이 목소리가 커지는 상황이 발생하기도 합니다. 이 시기에 도움이 되는 영양제는 성요한초, 대두(이소플라본), 붉은 토끼풀(이소플라본), 홉, 달맞이꽃 종자유, 피크노제놀 등이 있습니다. 영양제는 치료제가 아니기 때문에 드라마틱한 효과를 기대하기는 어렵습니다. 또한 복용하면서 1년에 한번은 산부인과진료를 받아 자궁내막이 두꺼워졌는지 초음파로 확인해야합니다. 영양제복용과 함께 생활습관 개선도 이루어져야하는데 금연, 규칙적인 운동, 뜨거운음료, 매운음식, 술, 카페인을 피해주세요. 갱년기 질건조증 증상으로 건조함, 타는 듯한 느낌, 가려움증, 질 불편감, 소변볼 때의 작열감이나 통증, 성교통, 성관계시 점성 출혈 등이 있습니다. 이 질 건조증을 산부인과병원에서 해결 안하시고 과학적으로 증명되지 않은 잘 모르는 건강기능식품들만 드시거나 해서 질 위축이 심해지면 나중에 산부인과 검진을 받을 때 시행하는 초음파 기계나 질경 자체가 안들어가는 경우도 발생할 수 있습니다. 에스트로겐이 부족하게 되면 비뇨생식기계 장기들인 소음순, 대음순, 질입구, 클리토리스, 질, 요도, 방광까지 구조와 기능에 좋지 않은 영향을 미치게 됩니다. 또한 폐경이 되고 저에스트로겐으로 인해 갱년기 증상이나 골밀도감소, 피부탄력감소, 급격한 노화, 질건조 등이 발생하게 되면 바로 산부인과에 오셔서 호르몬 보조요법을 시작하셔야 합니다. 노화가 급격하게 이루지는 것도 막아줍니다. 폐경은 난포기능의 소실로 인한 월경의 영구적인 중지를 의미하며 자연폐경과 유도폐경으로 구분되는 데 일반적으로 겪는 자연폐경은 특별한 병리적, 생리적 원인없이 자연발생적으로 지난 1년동안 무월경 상태가 지속된 경우 폐경이 되었음을 알게 되는 겁니다. 유도폐경은 양측 난소제거수술로 인한 수술적 폐경이나 화학요법이나 방사선치료에 의한 난소기능의 상실로 인한 것입니다. 요즘들어 증가추세로 걱정이 많아진 조기폐경은 조기난소부전이라고 하는 데 40세이전에 폐경이 초래된 경우로 전체여성의 1% 즉 100명중 1명꼴로 발생하는데 원인은 독성, 염색체이상, 또한 자가면역질환을 들 수 있지만 원인불명의 경우도 있습니다. 다른 폐경증상이 나타나기전에 이미 약 40세 전후로 하여 난소기능은 쇠퇴가 시작되어 폐경으로 접근해가는 데 이 시기를 폐경 이행기 또는 갱년기라고 하며 호르몬 변화가 가장 극적으로 일어나는 시기입니다. 그로인해 다양한 월경주기의 변화가 생기가 시작해서 월경의 중단으로 끝맺음 됩니다. 일반적으로 51세에 폐경이 온다고 하며 2003년 논문에는 한국여성의 평균폐경연령은 49.7세입니다. 흡연여성과 자궁절제술의 경우 폐경이 앞당겨집니다. 갱년기 증상의 원인은 난소의 노화로 체내에 흐르는 여성호르몬 감소 및 정신적, 신체적 기능이 저하가 되는 데요. 난소의 기능은 난자 생성하는 생식기능 및 여성호르몬인 에스트로겐과 프로게스테론을 분비합니다. 월경이 종료하는 완경 후 약 1년까지의 기간이 갱년기입니다. 심한경우에는 70대까지도 갱년기증상을 호소하기도 하는 데요. 완경을 기점으로 골밀도가 저하되어 골다공증이 발생하기도 하고 자궁에 생기는 혹덩어리인 자궁근종이나 선근종이 발생하기도 합니다. 갱년기를 맞이하게 되면 여성은 더이상 여성호르몬인 에스트로겐이 나오지 않게 되면서 여러 문제가 발생하게 되는 데요. 그중 하나가 복부비만입니다. 이 복부비만은 당뇨나 고혈압, 심혈관 질환 등을 증가시키는 위험요소이기도 하죠. 폐경여성에게서의 갱년기증상은 충분한 비타민 D의 보충이 질 건강을 지키는 데 도움이 됩니다. 비타민 D는 질상피세포의 분화와 성장을 개선시키고, 질내 산성도 또한 향상시키며, 질 건조증을 감소시킵니다. 질건조증으로 인한 위축성 질염이 반복되고 성관계시 통증을 호소하는 폐경여성들이 호르몬치료에 거부감을 갖고 있기도 한 데 비타민 D를 충분하게 보충하시는 것도 도움이 됩니다. . 갱년기 여성에게서 위축성질염이 자주 나타나는 데 질 점막이 얇아지고 혈관분포가 줄어들면서 발생합니다. 보통 질 내 건조증으로 인한 통증을 호소하며 얇아진 점막을 통해 세균들이 더 잘 침투하게 되거나 약한 자극에도 출혈이 일어나게 되는 데 폐경여성에게서 일어나는 부정출혈의 가장 많은 원인을 차지하는 것이 위축성 질염입니다. 질유산균은 장건강 뿐만 아니라 질속에 있는 미생물들의 균형과 산성도를 조절해서 항균, 항염, 항바이러스의 기능을 돕습니다. 즉 외부로부터 들어오는 독소나 병원균의 과증식 억제를 도와주며 산성도 유지를 통해 질내 염증을 막아주어 질 건강에 도움이 될 수 있습니다. 질유산균 복용시 질 분비물과 가려움증이 상당부분 감소됩니다. 갱년기증상이 시작되면 산부인과에 진료받아보세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=445464255&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=1&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>올해54세된 여성 갱년기약에대해 타로/별자리</t>
+  </si>
+  <si>
+    <t>올해54세된 여성입니다 작년에 건강검진 피검사에서는 여성호르몬 수치가 떨어져서 갱년기 홀몬제를 처방받았다가 복용을 차일피일 미루어둔 리비알을 복용할까하는데 궁금한건 왜 요일이 적혀있는건가요?혹시 약복용을 잊어버릴까봐 적어놓은건지 아니면 요일별로 약효가 다른건지 궁금해서 질문드립니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #갱년기 #폐경기 #호르몬제 모두 동일한 약제입니다. 복용한 것을 까먹을까봐 요일이 적혀 있는 것입니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=421710179&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=37&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>한국나이로 50세이고 아직 생리는 규칙적입니다. 양은 크게 차이는 없는데 갑자기 며칠전부터 몸에 열이 많이 납니다. 다른 증상은 없는데 이게 갱년기 시작일까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 갱년기 증상의 시작은 얼굴홍조, 손발등의 말단으로 열이 오르거나 땀이 나는 등의 체온조절중추의 이상증상으로 나타나기 시작합니다. 이와 동시에 수면장애가 발생하기도 하고 생리주기가 불규칙해지거나 생리양이 줄어드는 등의 증상도 동반될 수 있습니다. 이에 비해 전신 감염 등으로 인한 열이 오르는 경우는 갑작스럽게 더웠다 추웠다 하지 않고 체온계를 이용한 심부열까지 고온으로 측정되므로 갱년기의 증상과 감별을 해 보시길 바랍니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=445859235&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=2&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 유방 타로/별자리</t>
+  </si>
+  <si>
+    <t>3주전부터 왼쪽 유방 안쪽, 겨드랑이에서 유두방향으로, 문득문득 한번씩 뜨거운 열기? 화끈함 같은 것이 느껴집니다 뭔가 흐르는 것처럼 만져지는 멍울도 없고, 겉으로는 아무 외상 같은 것도 없습니다 통증도 없고.... 나이가 50세입니다 왜 그런건지....갱년기 증상인건지....고견 부탁드립니다~</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #유방통 #유방암 유방암 검진을 받으신 지는 얼마나 되셨나요 ? 멍울 같은 것은 이미 만져지만 매우 커져 있는 것입니다. 갱년기에 유방통증이 있을 수도 있으며, 증상 완화를 위해서 약을 처방받으실 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=444173784&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=29&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
     <t>갱년기가 찾아온것 같아 산부인과가서 검사를 해보고 싶습니다. 산부인과에서는 주로 여성갱년기검사라고 하면 어떤 검사를 진행하나요? 저는 요새 얼굴이 뜨겁고 홍조가 심하고 관절도 아프고 질도 건조합니다. 갱년기 치료 가능한 산부인과도 알고 싶습니다. 타로/별자리</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기, 곤지름치료하는 산부인과 전문의 여의사입니다. 얼른 치료하셔야 해요. 갱년기 치료는 곧 안티에이징 치료입니다. 즉, 항노화 치료라는 거죠. 검사는 주로 피검사, 산부인과 골반초음파, 자궁경부암 검사, 유방 검사들이 시행됩니다. 또한 치료는 호르몬 치료 및 태반 주사 치료 등이 들어가게 됩니다. 오셔서 더 자세하게 이야기 들어보세요. 최근 평균수명 연장으로 평균 폐경나이 만50세이니까 100세시대면 거의 반백년을 폐경으로 지내야 하죠. 급격하게 바뀌는 신체의 변화로 많은 분들이 당혹스러워하시기도 하고 성생활에도 많은 영향을 끼치게 되는 데요. 산부인과 전문의에게 갱년기에 대한 제대로 된 진찰을 받음으로서 원인이 무엇인지, 어떻게 개선할지 카운셀링 받는 것이 가장좋은 방법입니다. 폐경은 난포기능의 소실로 인한 월경의 영구적인 중지를 의미하며 자연폐경과 유도폐경으로 구분되는 데 일반적으로 겪는 자연폐경은 특별한 병리적, 생리적 원인없이 자연발생적으로 지난 1년동안 무월경 상태가 지속된 경우 폐경이 되었음을 알게 되는 겁니다. 유도폐경은 양측 난소제거수술로 인한 수술적 폐경이나 화학요법이나 방사선치료에 의한 난소기능의 상실로 인한 것입니다. 요즘들어 증가추세로 걱정이 많아진 조기폐경은 조기난소부전이라고 하는 데 40세이전에 폐경이 초래된 경우로 전체여성의 1% 즉 100명중 1명꼴로 발생하는데 원인은 독성, 염색체이상, 또한 자가면역질환을 들 수 있지만 원인불명의 경우도 있습니다. 다른 폐경증상이 나타나기전에 이미 약 40세 전후로 하여 난소기능은 쇠퇴가 시작되어 폐경으로 접근해가는 데 이 시기를 폐경 이행기 또는 갱년기라고 하며 호르몬 변화가 가장 극적으로 일어나는 시기입니다. 그로인해 다양한 월경주기의 변화가 생기가 시작해서 월경의 중단으로 끝맺음 됩니다. 일반적으로 51세에 폐경이 온다고 하며 2003년 논문에는 한국여성의 평균폐경연령은 49.7세입니다. 흡연여성과 자궁절제술의 경우 폐경이 앞당겨집니다. 안면홍조, 위축성질염, 급뇨, 빈뇨, 요도염 등의 배뇨장애가 발생할 수 있고, 우울감, 흥분, 감정기복, 불안, 신경과민 등의 심리적 변화도 나타나서 제2의 사춘기라고도 하고 골밀도가 급격히 낮아지면서 골다공증이 발생해 일상생활 중 허리나 무릎, 손목관절 등에 통증이 생기고 작은 충격에도 골절이 일어나기 쉬워집니다. 에스트로겐 부족으로 인해 가슴, 목, 얼굴 부위가 붉어지면서 화끈거리는 증상이 나타나고, 심리적인 불안함과 초조함을 동반한 두통과 우울증, 수면장애가 생기기 숴워집니다. 폐경이 되면 감정을 조절하는 세로토닌 호르몬 분비가 남성에 비해 줄어들어 복잡한 감정들을 잘 조절하지 못해서 폐경 이후 오히려 남자들이 조용해지고 여자들이 목소리가 커지는 상황이 발생하기도 합니다. 이 시기에 도움이 되는 영양제는 성요한초, 대두(이소플라본), 붉은 토끼풀(이소플라본), 홉, 달맞이꽃 종자유, 피크노제놀 등이 있습니다. 영양제는 치료제가 아니기 때문에 드라마틱한 효과를 기대하기는 어렵습니다. 또한 복용하면서 1년에 한번은 산부인과진료를 받아 자궁내막이 두꺼워졌는지 초음파로 확인해야합니다. 영양제복용과 함께 생활습관 개선도 이루어져야하는데 금연, 규칙적인 운동, 뜨거운음료, 매운음식, 술, 카페인을 피해주세요. 갱년기 질건조증 증상으로 건조함, 타는 듯한 느낌, 가려움증, 질 불편감, 소변볼 때의 작열감이나 통증, 성교통, 성관계시 점성 출혈 등이 있습니다. 이 질 건조증을 산부인과에서 해결 안하시고 과학적으로 증명되지 않은 잘 모르는 건강기능식품들만 드시거나 해서 질 위축이 심해지면 나중에 산부인과 검진을 받을 때 시행하는 초음파 기계나 질경 자체가 안들어가는 경우도 발생할 수 있습니다. 에스트로겐이 부족하게 되면 비뇨생식기계 장기들인 소음순, 대음순, 질입구, 클리토리스, 질, 요도, 방광까지 구조와 기능에 좋지 않은 영향을 미치게 됩니다. 또한 폐경이 되고 저에스트로겐으로 인해 갱년기 증상이나 골밀도감소, 피부탄력감소, 급격한 노화, 질건조 등이 발생하게 되면 바로 산부인과에 오셔서 호르몬 보조요법을 시작하셔야 합니다. 노화가 급격하게 이루지는 것도 막아줍니다. 갱년기 증상의 원인은 난소의 노화로 체내에 흐르는 여성호르몬 감소 및 정신적, 신체적 기능이 저하가 되는 데요. 난소의 기능은 난자 생성하는 생식기능 및 여성호르몬인 에스트로겐과 프로게스테론을 분비합니다. 월경이 종료하는 완경 후 약 1년까지의 기간이 갱년이입니다. 심한경우에는 70대까지도 갱년기증상을 호소하기도 하는 데요. 완경을 기점으로 골밀도가 저하되어 골다공증이 발생하기도 하고 자궁에 생기는 혹덩어리인 자궁근종이나 선근종이 발생하기도 합니다. 갱년기를 맞이하게 되면 여성은 더이상 여성호르몬인 에스트로겐이 나오지 않게 되면서 여러 문제가 발생하게 되는 데요. 그중 하나가 복부비만입니다. 이 복부비만은 당뇨나 고혈압, 심혈관 질환 등을 증가시키는 위험요소이기도 하죠. 폐경여성에게서의 갱년기증상은 충분한 비타민 D의 보충이 질 건강을 지키는 데 도움이 됩니다. 비타민 D는 질상피세포의 분화와 성장을 개선시키고, 질내 산성도 또한 향상시키며, 질 건조증을 감소시킵니다. 질건조증으로 인한 위축성 질염이 반복되고 성관계시 통증을 호소하는 폐경여성들이 호르몬치료에 거부감을 갖고 있기도 한 데 비타민 D를 충분하게 보충하시는 것도 도움이 됩니다. . 갱년기 여성에게서 위축성질염이 자주 나타나는 데 질 점막이 얇아지고 혈관분포가 줄어들면서 발생합니다. 보통 질 내 건조증으로 인한 통증을 호소하며 얇아진 점막을 통해 세균들이 더 잘 침투하게 되거나 약한 자극에도 출혈이 일어나게 되는 데 폐경여성에게서 일어나는 부정출혈의 가장 많은 원인을 차지하는 것이 위축성 질염입니다. 질유산균은 장건강 뿐만 아니라 질속에 있는 미생물들의 균형과 산성도를 조절해서 항균, 항염, 항바이러스의 기능을 돕습니다. 즉 외부로부터 들어오는 독소나 병원균의 과증식 억제를 도와주며 산성도 유지를 통해 질내 염증을 막아주어 질 건강에 도움이 될 수 있습니다. 질유산균 복용시 질 분비물과 가려움증이 상당부분 감소됩니다. 갱년기증상이 시작되면 산부인과에 진료받아보세요.</t>
   </si>
   <si>
     <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=434740036&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=25&amp;search_sort=0&amp;spq=0</t>
   </si>
   <si>
-    <t>갱년기 맞는지 궁금해요 타로/별자리</t>
-  </si>
-  <si>
-    <t>저는 올해43세에 아이가 둘인 엄마인데요. 전에도 비슷한 증상을 느꼈는데 요즘들어 식은땀 나듯이 옷이 다 젖을정도로 적셔있고, 불면증도 더 심해지고 아무것도 하기싫은것처럼 무기력해짐을 느낍니다. 그리고, 몸상태도 예전같지도 않고요. 제가 느끼는 증상이 갱년기가 맞는건지 궁금합니다. ㅠ 혹시, 갑상선하고도 연관이 있는건지 궁금합니다. 참 상체 위주로 더웠다 추웠다그래요</t>
-  </si>
-  <si>
-    <t>안녕하세요. 대한의사협회·네이버 지식iN 상담의사 한세열 입니다. 네. 주신 증상들은 갱년기에 초래될 수 있는 흔히 나타나는 증상과 일치합니다. 그리고 나이가 40세 이후에는 조금 빨리 갱년기가 올 수도 있는 것으로 되어 있기도 합니다. 정 걱정이 되시고 불편하시면 참지 마시고 가까운 병원을 찾아 선생님께 도움을 청해 보셔도 좋을 듯하네요. 안녕히 계세요.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=429705231&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=15&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 증상에 여성 호르몬제 복용 타로/별자리</t>
-  </si>
-  <si>
-    <t>저의 어머니가 갱년기 증상이 좀 나타나셨는데 ( 몸이 추웠다 더웠다 하고 땀이 나며, 손이 저리고 이러한 것들 이외에도 여러 증상들 ) 병원에서 호르몬제를 처방받아서 먹어야 할까요?? 호르몬제가 몸에 안 좋다는 얘기도 많이 들어서요 ㅠㅠ</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 박평식 입니다. ---폐경 시 어떤 처방을 받게 되나요? : 크게 봐서는 약물 치료와 비약물 치료로 나눠지는데요. 여기서 약물이란 보통 호르몬 약을 말하구요. 주로 얼굴 쪽에 하루에도 몇 번씩 갑자기 붉어지는, 안면홍조 같은 증상은 여성호르몬 복용 며칠만에 드라마틱하게 개선됩니다. 만약 개선되지 않는다면 호르몬 약을 바꿔 본다든지, 그래도 홍조가 지속될 시에는 갑상선호르몬 이상 등 다른 질환 여부를 확인해야 겠지요. 그런데 지속적인 여성호르몬 투여는 유방과 자궁내막을 자극하여 유방암이나 자궁내막암의 발병 우려가 있습니다. 그래서 자궁이 있는 폐경 여성 분들에겐 여성호르몬에 황체호르몬이 추가된 약이나 다른 성분의 호르몬약을 처방하지요. --- 호르몬약 복용 금기증 및 주의사항은? : 호르몬대체요법을 모든 폐경 여성 분들이 다 할 수 있는 건 아니구요. 기존에 뇌혈관이나 심혈관에 질환이 있으신 분들, 유방암이나 자궁내막암, 또는 중증의 간,담낭질환이 있다든지, 심부 하지정맥류 같은 활동성 혈전증 환자, 또한 이미 치매환자 분들은 복용을 할 수 없습니다. 약의 부작용 등, 더 자세한 것은 직접 산부인과병원에 방문하셔서 진찰 후 상담을 받아 보세요. 감사합니다.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=446922935&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=12&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 치료 타로/별자리</t>
-  </si>
-  <si>
-    <t>안녕하세요 저희 엄마께서 흡연자 이신데, 3달 전에 산부인과에서 검사따로 하지 않고, 엔젤릭 정 호르몬 약만 처방 받고 2달간 드셨습니다. 흡연자는 호르몬제 먹으면 안된다는 걸 알고 바로 중단했어요. 중단 후 잠은 워낙 불규칙 하시고, 자고 일어나시면 땀이 너무 나서 베개가 축축할 정도로 된다고 하셔요. 호르몬제도 못 드시면 어떤걸 해야 갱년기 증상을 완화할 수 있을까요? 산부인과에 가서 검사를 받아야하나요? 보통 흡연 갱년기를 가지고 있는 사람에게 어떤 약을 혹은 어떤 치료를 처방해주시나요? 갱년기 영양제는 호르몬제처럼 효과를 볼 수 있나요?아님 그냥 보조 영양 역할인가요..?</t>
-  </si>
-  <si>
-    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 흡연자 자체가 호르몬 치료의 금기가 아닙니다. 흡연자도 호르몬 요법을 하실 수 있습니다. 잘못알고 계신 겁니다. 안젤릭 드세요!!!!!! 상담 위해서 병원 방문해 주세요~@!!!! 산부인과 전문의에게 갱년기에 대한 제대로 된 진찰을 받음으로서 원인이 무엇인지, 어떻게 개선할지 카운셀링 받는 것이 가장좋은 방법입니다. 최근 평균수명 연장으로 평균 폐경나이 만50세이니까 100세시대면 거의 반백년을 폐경으로 지내야 하죠. 급격하게 바뀌는 신체의 변화로 많은 분들이 당혹스러워하시기도 하고 성생활에도 많은 영향을 끼치게 되는 데요. 안면홍조, 위축성질염, 급뇨, 빈뇨, 요도염 등의 배뇨장애가 발생할 수 있고, 우울감, 흥분, 감정기복, 불안, 신경과민 등의 심리적 변화도 나타나서 제2의 사춘기라고도 하고 골밀도가 급격히 낮아지면서 골다공증이 발생해 일상생활 중 허리나 무릎, 손목관절 등에 통증이 생기고 작은 충격에도 골절이 일어나기 쉬워집니다. 에스트로겐 부족으로 인해 가슴, 목, 얼굴 부위가 붉어지면서 화끈거리는 증상이 나타나고, 심리적인 불안함과 초조함을 동반한 두통과 우울증, 수면장애가 생기기 숴워집니다. 폐경이 되면 감정을 조절하는 세로토닌 호르몬 분비가 남성에 비해 줄어들어 복잡한 감정들을 잘 조절하지 못해서 폐경 이후 오히려 남자들이 조용해지고 여자들이 목소리가 커지는 상황이 발생하기도 합니다. 이 시기에 도움이 되는 영양제는 성요한초, 대두(이소플라본), 붉은 토끼풀(이소플라본), 홉, 달맞이꽃 종자유, 피크노제놀 등이 있습니다. 영양제는 치료제가 아니기 때문에 드라마틱한 효과를 기대하기는 어렵습니다. 또한 복용하면서 1년에 한번은 산부인과진료를 받아 자궁내막이 두꺼워졌는지 초음파로 확인해야합니다. 영양제복용과 함께 생활습관 개선도 이루어져야하는데 금연, 규칙적인 운동, 뜨거운음료, 매운음식, 술, 카페인을 피해주세요. 갱년기 질건조증 증상으로 건조함, 타는 듯한 느낌, 가려움증, 질 불편감, 소변볼 때의 작열감이나 통증, 성교통, 성관계시 점성 출혈 등이 있습니다. 이 질 건조증을 산부인과병원에서 해결 안하시고 과학적으로 증명되지 않은 잘 모르는 건강기능식품들만 드시거나 해서 질 위축이 심해지면 나중에 산부인과 검진을 받을 때 시행하는 초음파 기계나 질경 자체가 안들어가는 경우도 발생할 수 있습니다. 에스트로겐이 부족하게 되면 비뇨생식기계 장기들인 소음순, 대음순, 질입구, 클리토리스, 질, 요도, 방광까지 구조와 기능에 좋지 않은 영향을 미치게 됩니다. 또한 폐경이 되고 저에스트로겐으로 인해 갱년기 증상이나 골밀도감소, 피부탄력감소, 급격한 노화, 질건조 등이 발생하게 되면 바로 산부인과에 오셔서 호르몬 보조요법을 시작하셔야 합니다. 노화가 급격하게 이루지는 것도 막아줍니다. 폐경은 난포기능의 소실로 인한 월경의 영구적인 중지를 의미하며 자연폐경과 유도폐경으로 구분되는 데 일반적으로 겪는 자연폐경은 특별한 병리적, 생리적 원인없이 자연발생적으로 지난 1년동안 무월경 상태가 지속된 경우 폐경이 되었음을 알게 되는 겁니다. 유도폐경은 양측 난소제거수술로 인한 수술적 폐경이나 화학요법이나 방사선치료에 의한 난소기능의 상실로 인한 것입니다. 요즘들어 증가추세로 걱정이 많아진 조기폐경은 조기난소부전이라고 하는 데 40세이전에 폐경이 초래된 경우로 전체여성의 1% 즉 100명중 1명꼴로 발생하는데 원인은 독성, 염색체이상, 또한 자가면역질환을 들 수 있지만 원인불명의 경우도 있습니다. 다른 폐경증상이 나타나기전에 이미 약 40세 전후로 하여 난소기능은 쇠퇴가 시작되어 폐경으로 접근해가는 데 이 시기를 폐경 이행기 또는 갱년기라고 하며 호르몬 변화가 가장 극적으로 일어나는 시기입니다. 그로인해 다양한 월경주기의 변화가 생기가 시작해서 월경의 중단으로 끝맺음 됩니다. 일반적으로 51세에 폐경이 온다고 하며 2003년 논문에는 한국여성의 평균폐경연령은 49.7세입니다. 흡연여성과 자궁절제술의 경우 폐경이 앞당겨집니다. 갱년기 증상의 원인은 난소의 노화로 체내에 흐르는 여성호르몬 감소 및 정신적, 신체적 기능이 저하가 되는 데요. 난소의 기능은 난자 생성하는 생식기능 및 여성호르몬인 에스트로겐과 프로게스테론을 분비합니다. 월경이 종료하는 완경 후 약 1년까지의 기간이 갱년기입니다. 심한경우에는 70대까지도 갱년기증상을 호소하기도 하는 데요. 완경을 기점으로 골밀도가 저하되어 골다공증이 발생하기도 하고 자궁에 생기는 혹덩어리인 자궁근종이나 선근종이 발생하기도 합니다. 갱년기를 맞이하게 되면 여성은 더이상 여성호르몬인 에스트로겐이 나오지 않게 되면서 여러 문제가 발생하게 되는 데요. 그중 하나가 복부비만입니다. 이 복부비만은 당뇨나 고혈압, 심혈관 질환 등을 증가시키는 위험요소이기도 하죠. 폐경여성에게서의 갱년기증상은 충분한 비타민 D의 보충이 질 건강을 지키는 데 도움이 됩니다. 비타민 D는 질상피세포의 분화와 성장을 개선시키고, 질내 산성도 또한 향상시키며, 질 건조증을 감소시킵니다. 질건조증으로 인한 위축성 질염이 반복되고 성관계시 통증을 호소하는 폐경여성들이 호르몬치료에 거부감을 갖고 있기도 한 데 비타민 D를 충분하게 보충하시는 것도 도움이 됩니다. . 갱년기 여성에게서 위축성질염이 자주 나타나는 데 질 점막이 얇아지고 혈관분포가 줄어들면서 발생합니다. 보통 질 내 건조증으로 인한 통증을 호소하며 얇아진 점막을 통해 세균들이 더 잘 침투하게 되거나 약한 자극에도 출혈이 일어나게 되는 데 폐경여성에게서 일어나는 부정출혈의 가장 많은 원인을 차지하는 것이 위축성 질염입니다. 질유산균은 장건강 뿐만 아니라 질속에 있는 미생물들의 균형과 산성도를 조절해서 항균, 항염, 항바이러스의 기능을 돕습니다. 즉 외부로부터 들어오는 독소나 병원균의 과증식 억제를 도와주며 산성도 유지를 통해 질내 염증을 막아주어 질 건강에 도움이 될 수 있습니다. 질유산균 복용시 질 분비물과 가려움증이 상당부분 감소됩니다. 갱년기증상이 시작되면 산부인과에 진료받아보세요.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=445464255&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=1&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 유방 타로/별자리</t>
-  </si>
-  <si>
-    <t>3주전부터 왼쪽 유방 안쪽, 겨드랑이에서 유두방향으로, 문득문득 한번씩 뜨거운 열기? 화끈함 같은 것이 느껴집니다 뭔가 흐르는 것처럼 만져지는 멍울도 없고, 겉으로는 아무 외상 같은 것도 없습니다 통증도 없고.... 나이가 50세입니다 왜 그런건지....갱년기 증상인건지....고견 부탁드립니다~</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #유방통 #유방암 유방암 검진을 받으신 지는 얼마나 되셨나요 ? 멍울 같은 것은 이미 만져지만 매우 커져 있는 것입니다. 갱년기에 유방통증이 있을 수도 있으며, 증상 완화를 위해서 약을 처방받으실 수도 있습니다.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=444173784&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=29&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 질이완증 불감증 해결 방법은? 타로/별자리</t>
-  </si>
-  <si>
-    <t>50대 초반 여성이며 갑자기 생리가 줄어들어 병원가서 문의했더니 폐경이 진행되고 있다고 하네요 없던 갱년기 증세들도 많이 나타나고 성교통에 불감증도 심해지고 있습니다. 최근에는 부부관계에 균열이 생기기도 했네요.. 어디에다 하소연 할때도 없고 심적으로 힘들어 이렇게 지식인에 질문을 올려봅니다 질이완증 질건조증이라는게 질염처럼 만성이 되는 건지? 개선방법은 없는지? 궁금합니다</t>
-  </si>
-  <si>
-    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 김화정 입니다. 저는 여성성형에 있어 수천 건의 수술집도 경험이 있고, 현재 서울 5호선 마곡역 발산역 NC백화점 인근에서 진료를 하고 있는 산부인과 전문의 입니다. 질 건조증에 대한 고민이시군요. 질건조증은 갱년기 장애의 한 증상일 수도 있습니다. 혹시 폐경되신 것이라면 호르몬 치료를 고려해보시기 바랍니다. 아닉 폐경이 아닌 상태라면, 성감저하가 가장 큰 원인이 될 수 있습니다. 여성성감은 파트너와의 교감이 가장 중요합니다. 대화가 가장 중요하고, 충분한 무드가 필요합니다. 그리고 외음부 자체의 이완증이나 애액분비샘에 대한 부분도 진찰을 받아보시기 바랍니다. 질 성형수술이 도움을 드릴 수 있는 부분도 있는데요. 아래는 관련 수술에 대한 자세한 안내를 드리겠습니다. 질 성형수술은 의학적으로 이미 검증이 된 시술부터 아직 검증이 필요한 시술 그리고 효과와 안전성이 입증된 바가 없는 시술까지 다양합니다. 그중 의학적으로 인정이 되는 시술은 질 축소수술 하나뿐 입니다. 질 레이저치료나 질 임플란트 수술은 의학적인 검증이 좀더 필요하고, 질 필러 시술은 효과와 안전성이 입증된 바 없습니다. 아래에는 의학적으로도 보건당국에서도 안전성을 인정한 질 축소성형(이쁜이수술)에 대한 자세한 안내드리겠습니다. 이쁜이수술에 대한 자세한 안내를 드리겠습니다. 이쁜이수술은 두가지 목적으로 보통 문의를 많이 하십니다. 첫째는 질강으로 좁혀주고, 타이트하게 해서 긴장감을 높여주고, 남녀 모두의 성감대에 마찰감을 증대시켜주어 성감 향상을 목적입니다. 둘째, 질강의 확대로 성관계시 혹은 특정 자세에서 질에서 바람빠지는 소리가 나는 경우(일명 '질음'이라합니다.) 혹은 질벽이 약하고 느슨하여 방광과 직장 등 주변조직이 질쪽으로 밀려서 요실금 수술을 받아야하는 정도는 아니지만 경도의 요실금 증세가 있을때 개선을 위한 목적입니다. 대부분 자연분만을 하신 분들은 이 두가지 문제를 다가지고 계신 경우가 많은데, 꼭 자연분만 하신 분들만의 수술은 아닙니다. 질의 손상여부와 상관없이 파트너(남편) 분과 성적 긴장감을 높이기를 원해서 이쁜이수술을 받기를 원하는 분들이 최근에는 더 많은 추세입니다. 이러한 이쁜이 수술을 받고자하는 상담을 해오다 보니, 저희 만의 독특한 진단기준과 방법을 세웠습니다. 그리고 현재 많은 병의원들이 비슷한 기준으로 고객분께 상담 드리는 경우를 종종 보게 됩니다. 수술 후 효과는 다음과 같은 몇가지 변수에 의해서 좌우될 수 있습니다. 1) 질강의 모양 2) 질 근육의 수축력 3) 질 점막주름의 상태 4) 질점막의 무른 정도와 5) 질 주변 지방조직의 분포와 양 각각에 대한 정확한 상태를 진단하는 것이 이쁜이수술 진찰의 시작입니다. 이에 따라 수술의 방법과 목적, 수술 후 효과에 대한 예측을 하고, 정확한 상담을 한 후 수술을 결정할 수 있는 근거를 제시해드립니다. 이쁜이수술은 수술방법에 따라 다음과 같이 분류를 합니다. 1) 질 축소수술 질강의 점막을 박리하여, 질벽을 두텁게 해주면서 질강을 좁혀주는 수술 2) 골반 근육 복원술 분만 손상으로 질강 주변의 근육이 손상된 경우, 질을 효과적으로 수축할 수 있도록 근육을 질강에 가깝게 당겨서 복원해주는 수술 3) 질 점막돌기 복원술 질점막의 돌기는 20대에 가장 발달이 되고, 시간이 흐르면서 밋밋하게 변하게 됩니다. 질 점막에 돌기를 복원하여, 성기의 마찰력을 상승시켜주는 수술입니다.(일명 '지렁이 수술','엠보싱수술'이라 합니다.) 4) 임플란트 질성형 질 주변에 고탄성의 실리콘 재질의 보형물을 넣어 수축력과 무른 질점막을 보완하는 방법입니다. 하지만 수술적으로 모든 문제를 해결하지는 못합니다. 질이 선천적으로 무르거나 근육수축 자체를 못하는 분들은 수술적인 방법으로 효과를 완벽히 볼 수 없습니다. 이러한 경우는 근육 강화를 위한 운동요법과 교육이 필요할 수 있습니다. 이러한 고객의 질의 상태와 문제점을 제대로 알고 시술할 수 있는 의사에게 시술을 받으셔야 이쁜이수술은 성감향상과 골반재건의 의미가 있으며, 효과는 최대가 될 수 있습니다. 수술 시 마취는 세가지 마취를 병행하는데요. 일단, 내시경할때 하는 수면마취로 주무시게 해드리고, 수술 부위 국소마취 그리고, 회음신경을 차단하는 마취까지 해드립니다. 이에 따라 수술 중이나 수술직후 통증은 거의 없습니다. 수술 후 5~6시간 지나면, 마취가 일부 풀리면서 경미한 통증이 있을 수 있으나, 처방해드린 약을 복용하시면 불편이 거의 없습니다. 따라서 수술 후 바로 일상생활이 가능하고, 심지어 수술 다음날 산에 오르기도 합니다. 다만 질 근육이 약해서 근육재건술을 받으시는 경우라면, 약간의 통증이 있을 수 있으며, 이 불편은 먹는 진통제로 좋아질 수 있습니다. 이쁜이수술로 인한 부작용은 위험한 것이 없습니다. 수술에 대한 일반적인 부작용들 출혈, 염증, 마취문재 이외에는 단기적으로는 문제가 발생하지않으며, 수술 후 장기적으로 간혹 너무 좁거나 넓게 되는 경우가 부작용이라면 부작용입니다. 하지만, 대부분 이런 문제가 생기지않도록 처음부터 파트너분의 사이즈를 알고 시술을 해드리기때문에 재수술 가능성의 거의 없습니다. 이쁜이수술 시 앞에서 안내된 모든 수술을 하실 필요는 없습니다. 이들 중 필요한 수술만 받으시면 되고,정확한 것은 진찰을 받아보시면 알 수 있는데요. 직접 방문주시면, 좀더 환자분께 맞는 자세한 진찰과 상담 드리겠습니다. 환자 분의 상태에 맞게 풍부한 경험을 바탕으로 가장 알맞는 수술을 해드릴 것을 약속해드릴 수 있으며, 높은 만족도를 자부합니다. 이쁜이수술에 레이저를 사용하는지 여부에 대한 문의가 많은데요. 저희 산부인과는 레이저와 함께 레이저에 의한 피부 열손상을 막기위한 콜드나이프 절개술을 병행하여 한단계 앞선 기법으로 수술을 하고 있습니다. 콜드나이프란 레이저에 의한 열에 대비되는 개념으로 질 점막 절개단계에서 사용되는 예리한 의료용 메스를 말합니다. 레이저는 피부 아래층의 지혈과 예리한 박피를 위해 사용되는데, 이러한 수술 기법은 질점막에 화상흉터 남기지않고, 디자인대로 정밀한 교정이 가능하게 해줍니다. 다음으로 이쁜이수술과 함께 많이 시술받으시는 양귀비수술(지스팟수술)에 대해서도 간략하게 안내드리겠습니다. 지스팟은 클리토리스(음핵)과 자궁의 에피센터 이후 제3의 성감대로 불리며, 가장 최근에 발견된 부분으로... 질 입구에서 11시 방향으로 3~4cm 지점에 존재하는 성감대 부분을 말합니다. 이것은 전체 인구의 60%정도만이 확인이 되어 존재 자체에 대해서도 아직까지 미스터리한 측면이 있습니다. 지스팟 성형은 이곳에 보형물을 넣어 도드라지게 하여 성감대를 자극해주는 기법을 말하는데, 지스팟을 가지고 있다면, 수술 후 성감이 증진되는 효과를 만끽할 수 있지만, 반대로 지스팟이 발달하지 않는 경우 수술 후 효과를 전혀 볼 수 없을 수 있습니다. 따라서 정확한 진찰과 수술판단이 중요하고, 효과적으로 지스팟을 노출시켜 줄 수 있는 보형물을 삽입하는 것이 수술의 성공을 좌우한다고 할 수 있습니다. 저희의 경우 자가 진피 혹은 실리콘 볼을 삽입하여 효과를 주는데요. 이는 금속 구슬이나 탄소 성분의 보형물에 비해 이탈확률이 적고, 안전한 재질로 밝혀져 있습니다. 지스팟수술 비용은 병의원 따라 천차만별이지만, 보통 30~150만원 정도입니다. 저희는 이쁜이수술과 같이 하는 경우 30만원 정도입니다. 직접 방문주시면, 좀 더 환자분께 맞는 자세한 진찰과 상담 드리겠습니다. 이쁜이수술은 여성성형 중에서 가장 난이도가 높은 수술입니다. 집도의사의 수술에 대한 정확한 이해와 충분한 경험이 없이는 성공하기 어렵습니다. 반드시 제대로 하는 병의원에서 능력이 있는 의사에게 수술을 받으셔야 성공하실 수 있습니다. 반드시 몇 군데 여성성형산부인과에서 상담을 받고 난 뒤에 옥석을 가려서 수술을 결정하시기 바랍니다. 기회가 되신다면 제가 근무하는 산부인과에서도 레이저 이쁜이수술에 대한 상담을 받아보세요. 서울 수도권 특히 강서지역에 사신다면 더 가깝습니다. 이쁜이수술만 중점으로 하시고 수천 건의 수술을 경험한 베테랑 의사에게 직접 수술상담을 받으시고 나서, 수술을 결정하실 수 있습니다. 수술 성공하시길 바라구요. 항상 행복하세요.^^</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=449959361&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=7&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 증상관련 타로/별자리</t>
-  </si>
-  <si>
-    <t>49세 여성입니다. 생리가. 3개월이상 하지않고, 여러가지 갱년기 증상이 있어서 산부인과에서 피검사를 받았습니다. 참고로 3년전에 오른쪽 난소를 제거했고, 엊그제 산부인과 초음파검사에서 왼쪽 난소도 거의 보이지 않는다고 했습니다. 피검사결과 [Web발신] 안녕하세요.센트라스산부인과입니다 검사 결과가 나왔습니다.갱년기호르몬78증가되어있습니다 내원하셔서 결과 상담받으세요. 이렇게 문자가 왔는데, 무슨 내용인지 몰라 질문드립니다</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 문자내용 중 갱년기호르몬이라는 용어가 공식용어는 아니어서 정확한 답변은 어려울듯 합니다. 하지만, 일반적으로 갱년기 증상에 대한 산부인과 피검사라는 것을 고려해 볼때 FSH, 난포자극호르몬을 일컫는 것은 아닌가 추측해 봅니다. 갱년기가 되면 안명홍조, 감정기복의 심화, 불면증등을 비롯하여 삶의 질에 많은 영향을 미치는 증상들이 발생할 수 있으며, 이러한 초기증상외에도 비뇨생식기 위축증 및 골다골증, 치매 등 질병과의 연관성도 높아 적극적으로 조절하시는 것 또한 필요합니다. 결과 상담 잘 받으시길 바랍니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=431238113&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=23&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 증상일까요? 타로/별자리</t>
-  </si>
-  <si>
-    <t>한국나이로 50세이고 아직 생리는 규칙적입니다. 양은 크게 차이는 없는데 갑자기 며칠전부터 몸에 열이 많이 납니다. 다른 증상은 없는데 이게 갱년기 시작일까요?</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 갱년기 증상의 시작은 얼굴홍조, 손발등의 말단으로 열이 오르거나 땀이 나는 등의 체온조절중추의 이상증상으로 나타나기 시작합니다. 이와 동시에 수면장애가 발생하기도 하고 생리주기가 불규칙해지거나 생리양이 줄어드는 등의 증상도 동반될 수 있습니다. 이에 비해 전신 감염 등으로 인한 열이 오르는 경우는 갑작스럽게 더웠다 추웠다 하지 않고 체온계를 이용한 심부열까지 고온으로 측정되므로 갱년기의 증상과 감별을 해 보시길 바랍니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=445859235&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=2&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>인천갱년기검사항목 타로/별자리</t>
-  </si>
-  <si>
-    <t>여성갱년기검사항목으로는 무엇을 받아야하며 꼭 산부인과에서 검사받고 약처방을 받아야하나요?</t>
-  </si>
-  <si>
-    <t>안녕하세요. 대한의사협회·네이버 지식iN 상담의사 전준연 입니다. 갱년기란 페경전의 과도기로서 새리가 불규칙해지고 홍조증 땀 가슴두근거림 수면장애 등의 증상이 나타나기 시작하는 시기입니다 여성호르몬의 감소로 인하여 생기는 증상이므로 여성호르몬을 복용하면 됩니다 여성호르몬치료는 장기 복용이므로 유방과 자궁이나 난소에 여성호르몬에 영향을 받은 혹이 없어야 합니다 또한 간기능이 정상이어야 하며 콜레스테롤이 정상이어야 합니다 그래서 자궁경부암검사 자궁초음파검사 유방암검사 간기능검사 콜레스테롤,중성지방검사를 해서 합격을 해야 합니다</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=435372771&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=9&amp;search_sort=0&amp;spq=0</t>
-  </si>
-  <si>
-    <t>갱년기 여성호르몬제 타로/별자리</t>
-  </si>
-  <si>
-    <t>갱년기로 인해 여성호르몬제를 복용하고 있는데요 약 종류를 바꾸는 과정에서 많이 힘든데 적응기간이라 힘든건지, 약이 안맞아서 힘든건지 모르겠네요ㅠㅠ 약을 바꿔서 먹은지는 4일정도 되었어요 소중한 답변 부탁드려요…!</t>
-  </si>
-  <si>
-    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #갱년기 #갱년기호르몬제 여러 종류의 갱년기 호르몬제마다 효과가 다른고 부작용이 미미하게 다를 수 있습니다. 새로운 약에 적응하는 시간은 최소한 1-2주 가량 고려해 보시기 바랍니다.</t>
-  </si>
-  <si>
-    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=444731652&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=4&amp;search_sort=0&amp;spq=0</t>
+    <t>엄마가 갱년기 치료 타로/별자리</t>
+  </si>
+  <si>
+    <t>엄마가 갱년기가 심하게 찾아오신 것 같습니다...요즘 맨날 저랑 부딪치는데 이것뿐만 아니라 땀이 많이 나셔서 잠을 못 주무시고 얼굴에 홍조도 있으시고,,,걱정돼서 엄마랑 같이 산부인과 가볼까 하는데 산부인과에서 갱년기 치료 해주나요? 어디 산부인과가 갱년기 치료 잘하나요? 참고로 저흰 서울에 거주합니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기치료하는 산부인과 전문의 여의사입니다. 산부인과에서 갱년기 치료를 합니다. 여성호르몬이 부족해지면서 발생하는 증상이기 때문에 여성호르몬을 보충시켜주는 호르몬 치료가 필요해보입니다. 저는 세브란스, 고려대학교, 분당서울대학교 병의원에서 산부인과 및 불임 / 폐경기 내분비학을 전공했습니다. 갱년기 치료를 위해 병의원으로 방문해주시면 자세한 상담 및 치료를 해드리겠습니다. 어머니와 함께 내원해주세요. 항상 건강하시고 행복하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=422923821&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=104&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>어머니 자궁적출 후 갱년기 타로/별자리</t>
+  </si>
+  <si>
+    <t>어머니가 자궁적출하고 몇개월 된거같아요 지금 갱년기인지 신경이 예민해진거같은데 따로 좋은 영양제나 좋은 음식같은거 있을까요</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 문가을 입니다. 자궁 적출 후 생리를 하지는 않지만 난소를 그대로 남겨놓은 상태라면 여성호르몬 분비는 그대로이기때문에 갱년기 증상이 아니실 수도 있습니다. 어머니 연세가 어느정도인지는 모르지만 자궁 적출과는 무관하게 폐경 나이가 다가온 것이라면 갱년기가 겹친것일수도 있고요. 이는 호르몬검사(혈액검사)로 갱년기인지 여부를 확인해볼 수 있습니다. 만약 호르몬 저하에 의한 갱년기 증상이 맞다면 가장 확실한 치료는 호르몬제 복용이겠지만 호르몬제 복용을 원치 않으신다면 시중에 다양한 갱년기 보조제들이 있으니 그중 합리적인 가격 수준에서 구입하시는 것도 고려해보시길 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=415987673&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=181&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>여성 갱년기는 어떤 병원을 가야하나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>산부인과/한의원/정신건강의학과 등 어디로 가야하나요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #성병 #생리 #폐경기 #갱년기 일반적으로 산부인과 또는 내과 /가정의학과를 방문하시면 됩니다. 갱년기/ 폐경기로 인한 우울증, 수면장애, 기분장애 등이 심한 경우에는 신졍정신과를 방문하기도 합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=433248369&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=128&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>산부인과 갱년기 치료 타로/별자리</t>
+  </si>
+  <si>
+    <t>가슴이 두근거리고 잘시간에 잠도 안오는데다 일어나면 식은땀으로 흥건합니다. 아무래도 갱년기 증상같은데 이거 어떻게 해야 할까요? 감정도 왓다갔다 하고 힘든데 산부인과가서 갱년기 검사 받고 호르몬약 복용하면 해결될가요? 산부인과 갱년기 치료법 좀 알려주세요</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기치료하는 산부인과 전문의 여의사입니다. 갱년기 증상일 것으로 보입니다. 갱년기 증상을 방치하면 할수록 이후 호르몬제에 대한 약 반응이 더디게 나타나므로 삶의 질을 방해할 정도의 갱년기 증상이 나타난다면 최대한 빨리 호르몬 치료를 받으실 것을 추천드립니다. 가장 중요한 것은 호르몬 치료입니다. 그러나 자신에게 맞는 호르몬제를 처방받는 것이 중요하므로 진료 및 상담 후에 결정하시는 것이 좋겠습니다. 항상 건강하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=421416772&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=103&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>자궁내막증 수술 후 갱년기 타로/별자리</t>
+  </si>
+  <si>
+    <t>와이프가 작년 여름에 자궁내막증 수술 후 6개월정도 비잔을 복용했습니다 지금은 약은 끊었는데 갱년기 증상이 생깁니다 제일 큰 증상은 갑자기 더워지는 열감입니다 자다가도 너무 더워서 겨울에도 선풍기 틀때가 많았습니다 요새 날씨가 더워지니 더 힘들어하네요 호르몬주사를 권하는 사람도 있는거 같은데 부작용때문에 하고 싶지 않고, 열감 떨어트리는 좋은 음식 추천 받고 싶습니다 검색해보니 석류나 칡즙 나오던데 에스트로겐이 풍부해서 좋다고 합니다. 다만 걱정되는게 해당 음식을 먹고 내막증이 재발할까봐 걱정하더군요 어떤 방법이 좋을지 답변주시면 감사하겠습니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 황선아 입니다. 자궁내막증으로 인한 치료는 크게 수술 + 호르몬 치료의 복합적으로 진행되는데 이는 자궁내막증의 재발 때문입니다. 호르몬 치료 중 주사의 경우는 치료 효과는 가장 좋으나 갱년기 증상이 심하게 나타나는 분들이 간혹 계셔서 비잔 등의 프로게스테론 제제로 조절하시는 분들이 있습니다. 비잔의 경우는 주사 처럼 갱년기 증상이 나오는 치료제는 아닙니다. 따라서 갱년기의 증상이 약치료때문이신지 아니면 자연적으로 빨리 오신건지 확인해 볼 필요가 있습니다. 더더욱 약을 끊은 상태라면, 비잔으로 인한 영향은 거의 없을 것으로 판단 됩니다. 가까운 산부인과를 방문하셔서 난소나이 검사 및 호르몬 검사 등을 진행하셔서 증상에 대한 원인을 어느 정도 살펴 보시고 증상완화를 위한 치료를 진행하시는 것을 추천합니다. 제 답변이 도움이 되었길 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=446379870&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=77&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>50대 중반 여성 갱년기증상 산부인과 타로/별자리</t>
+  </si>
+  <si>
+    <t>50대 중반 여성입니다. 갱년기증상이 너무 심해서 화도 아무때나 나고 홍조, 식은땀, 질 건조함 등 전형적인 증상을 겪고 있습니다. 여성 갱년기증상 개선하려면 산부인과에 방문하면 되는건가요..?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기치료하는 산부인과 전문의 여의사입니다. 네!!! 당연합니다. 방금 전에도 갱년기 증상으로 호르몬제 처방받으러 환자분이 한분 오셨다 가셨네요. 호르몬 치료를 얼른 시작하셔야 합니다. 약 드시면 정말 삶의 질이 달라지실 거에요. 얼른 방문해주세요. 갱년기 치료를 위해 병의원으로 방문해주시면 자세한 상담 및 치료를 해드리겠습니다. 항상 건강하시고 행복하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=426299084&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=62&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>유방암수술 한 여성 갱년기약 명모에 대해 알고 싶습니다 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 송슬기 입니다. 전문의약품을 대신 추천 드립니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=421107205&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=122&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기를 겪고 있는 여성입니다. 갱년기라 질도 건조하고 불편합니다.... 아직 남편과는 관계를 꾸준히 하고 있는데 질이 건조해서 젤을 바르고 하고 있지만 조임력이나 탄력이 떨어집니다....질성형을 갱년기 여성도 할 수 있는지요...수술하면 효과가 있는지.... 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한산부인과의사회-네이버 지식iN 상담의사 정선화 입니다. 강남구 신사동 압구정역 2번출구 인근에 개원하여 소음순, 질성형 등 여성성형 수술하고 피임상담, 부인과, 여성성병, 갱년기치료하는 산부인과 전문의 여의사입니다. 질이 건조해지고 이완이 된다면 복합적인 관리가 필요합니다. 이완에 대해서는 탄력 레이저 및 성형이 필요할 것으로 보이고 질 건조에 대해서는 호르몬 치료 및 질소프 등이 필요합니다. 갱년기라는 것이 참 여성에게서는 힘든 부분인데, 어느 누구나 피해갈 수 없는 것이므로 같이 잘 관리해나간다면 행복한 갱년기를 보낼 수 있을 거에요. 여러분께 두 번째봄을 선사해드리고 싶습니다. 오셔서 질 용적 및 압력을 체크를 해보시고 상담 받아보시면 어떨까 합니다. 나이가 먹거나 출산을 여러번 하거나 폐경, 여러 골반지지 결함에 문제가 있는 선천성 질환이 있을 경우 질 내부가 넓어지게 됩니다. 특히 노화나 출산으로 인해 질강 내부가 넓어지는 것을 예방하기 위해서 케겔 운동을 추천할 수 있습니다. 그 전까지는 성관계시 만족스럽지 않다던가, 질방귀라고 불리는 소리가 나는 경우가 생기기도 합니다. 이를 개선시키는 것이 케겔운동입니다. 하지만, 질 자체가 넓은 경우나 출산 등으로 손상이 되었을 때는 케겔운동만으로 효과를 보기 어려울 수 있어 질성형, 질필러 등을 고려하실 수 있습니다. 질 필러는 얼굴 필러 / 질 성형은 얼굴 성형 수술이랑 비슷하다고 생각하시면 됩니다. 즉, 좀더 영구적인 것을 원하시면 수술, 수술은 무섭고 1년 정도 유지되는 시술로 원하시면 질 필러를 하시면 됩니다. 질 필러는 헐거워진 질 내부를 필러로 엠보를 채워주는 거고, 질 성형은 늘어진 질벽을 좀더 타이트하게 만들어줍니다. 여성에게 예민하고 중요한 부위인 만큼 여성성형을 하는 병의원에서 상담을 받고 결정하시길 바랍니다. 항상 건강하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=421277622&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=113&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 유산균 복용가능한지요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>메노락토 프로바이오틱스(갱년기 유산균) 복용해도 괜찮을까요? 50세 여성, 폐경이전이며 자궁근종이 큰게 몇개 있음. 회사측에서는 전문의와 상의하라네요.. 산부인과 전문의들께 문의드립이다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 원자력병원-네이버 지식iN 상담의사 김문홍 입니다. 유산균 복용은 특별한 해는 없습니다. 드셔도 됩니다. 꼭 드셔야 하는 건 아닙니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=432240002&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=65&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 보조제와 자궁혹 타로/별자리</t>
+  </si>
+  <si>
+    <t>제 나이가 만53세입니다 뚜렷한 갱년기증상은 없는데 3년 전부터 갱년기에 좋다는 호르몬 보조제를 홈쇼핑등등에서 주문해 먹고있는데 자궁에 혹이있어서 5년전에 하이푸 시술을했는데 약을먹으면 자궁에 혹이 커지나요? 아랫배가 많이 나와서 산부인과 가야하는데 시골이라서 병원갈려면 좀 멀리 가야하는데 그리고 산부인과 가기가 쉽지가 않네요ㅠㅠ 갱년기 보조제 먹으면 자궁혹이 커질수있는지 알려주시길 ......부탁드립니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 한상훈 입니다. 약한 보조제는 영향이 별로 없을 것입니다. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=415854831&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=59&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>50세에 갱년기증상과 폐경이 온상태인듯 합니다. 몇일전 자궁암 검사와 초음파 검사후, 난소에 혹이 6cm 라 수술을 권하십니다. 처음엔 혹이 커 타로/별자리</t>
+  </si>
+  <si>
+    <t>50세에 갱년기증상과 폐경이 온상태인듯 합니다. 몇일전 자궁암 검사와 초음파 검사후, 난소에 혹이 6cm 라 수술을 권하십니다. 처음엔 혹이 커서 혹만 떼어낼까 하시다 어차피 폐경이 왔으니 혹이 있는 난소 한쪽을 떼어 내자고 하십니다. 수술하는게 맞는걸까요? ㅠㅠ</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 정연준 입니다. 안녕하세요 산부인과 전문의 정연준입니다. 난소의 혹은 6cm 이면 크기가 크고 혹시나 혹으로 인해 난소가 꼬여 난소 염전이 발생한다면 갑자기 통증이 발생해서 응급수술을 하게되는 경우도 있습니다. 그래서 미리 안전하게 제거하시고 조직검사를 확인해보는것이 좋습니다. 다만, 한쪽 난소 자체를 제거하는 것에 대해 걱정을 하시는 것 같습니다. 이미 폐경이 되셨다면 난소를 제거하는 것이 큰 무리가 되지는 않습니다. 수술도 더 안전하구요. 폐경이 된 것에 대해서는 폐경호르몬치료를 하는 것이 앞으로의 삶에 많은 도움이 됩니다. 유방암이 증가하는 걱정을 많이들 하시지만 사실 유방암의 위험은 매우 경미하게 증가하는데 비해 얻을 수 있는 이득이 많습니다. 골다공증, 치매, 대장암 등이 예방되며 피부노화나 삶의 의욕 면에서도 훨씬 좋습니다. 난소 수술 받으시고 추후 폐경호르몬치료 하는 것에 대해 상담받아보시는 것이 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=449394560&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=196&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기로 열이오르내리는데 산부인과가면 약처방을해주나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 이형근 입니다. 갱년기 증상은 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애 등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질 건조감, 성교통, 질 감염 등의 증상이 나타날 수 있습니다. 이는 규칙적 운동과 호르몬 치료로 완화시킬 수 있습니다. 규칙적인 운동은 근력의 강화 및 골밀도를 증가시켜 골절의 예방에도 도움이 되며 폐경기 이후 생식기 위축 및 성교통, 비뇨생식기 감염 등은 국소적 호르몬 제제의 간헐적 투여로 효과가 있습니다. 여성호르몬을 보충하는 호르몬 치료는 여성호르몬(에스트로겐) 단독으로 사용하게 되면 자궁내막이 두꺼워져 질환의 위험성이 있을 수 있기 때문에 프로게스테론을 투여하여 자궁내막의 증식을 예방하게 됩니다. 또, 호르몬 치료의 부작용으로 유방암의 위험성이 있기 때문에 이와 관련된 질환이나 진단을 받은 게 있는지 확인하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=441218236&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=234&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>여성 갱년기 타로/별자리</t>
+  </si>
+  <si>
+    <t>17살 여고생입니다. 저희 어머니께서 갱년기 증상을 보이시는 것 같아 질문을 올립니다. 제가 중학교 갓 입학했을 때 어머니께서 굉장히 예민하셨는데 매사 의욕이 없고 사소한 일에도 짜증을 내셨어요. 잠시 그러다가 한동안 잠잠했는데, 올해들어 다시 신경을 곤두세우세요. 걸핏하면 내가 왜 이러고 사나, 콱 죽어야겠다는 식으로 말씀하시고 자주 우울해하시면서 가족들한테 짜증을 내십니다. 중학생 땐 어머니께서 그러실 때마다 싸워댔는데 이제는 갱년기 증상이라 생각해서 유하게 넘기려고 노력하고 있어요. 그런데 계속 참고 지나가려니 진짜 정신병 걸릴 것 같고 동생들도 있는 데서 자꾸 부정적으로 말씀하시니 걱정이 됩니다. 우울증이나 조울증 증상으로 보이기도 하는데 상담 받아보자고 제안을 드려도 듣지 않으세요. 1. 갱년기 증상은 보통 몇년동안 지속되나요? 2. 어떻게 해야 어머니께서 조금 더 편하게 갱년기를 넘기실 수 있을까요? 3. 하도 시달리다 보니 저도 굉장히 스트레스를 받고 있는데 위클래스라도 가서 상담을 받아야 할까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 한상훈 입니다. 1. 갱년기 증상은 보통 몇년동안 지속되나요? --&gt; 1~ 5 년정도 입니다. 2. 어떻게 해야 어머니께서 조금 더 편하게 갱년기를 넘기실 수 있을까요? --&gt; 산부인과에서 호르몬 치료 고려해 보세요. 3. 하도 시달리다 보니 저도 굉장히 스트레스를 받고 있는데 위클래스라도 가서 상담을 받아야 할까요? : 호르몬 치료 받으시면 좋아 지실 것입니다. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=419018944&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=127&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 증상 없어도 홀몬제 먹는게 좋을까요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>50세 주부입니다. 22년 8월에 폐경 진단을 받았습니다. 제가 다니는 산부인과 원장님은 증상이 없으면 홀몬제 안 먹어도 된다고 말씀 하시는데 증상이 없어도 홀몬제 복용 하는게 좋다고 말씀 하시는 의사 선생님들도 계신다고 해요 갱년기 증상은 없지만 홀몬제 복용 하는게 좋을까요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 박정원 입니다. 영상 답변에 도움되시길 바랍니다 .</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=426823470&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=79&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>제가 갱년기가 찾아오는 것 같아서 너무 걱정이고, 불안해요. 산부인과에 내원해서 검진도 하고, 관리 및 치료도 받아보려고 하는데요. 산부인과에서 갱년기 관리는 어떻게 해주는지 알 수 있을까요? 그리고 실생활속에서 어떻게 하면 좋은지도 알려주세요.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 이형근 입니다. 갱년기 증상이 나타나는 것 같아 산부인과 내원을 고려 중이시군요. 폐경기는 40대 중반부터 나이가 증가함에 따라 나타나며, 생리가 완전히 없어지는 폐경이 나타난 이후의 약 1년까지를 폐경이행기 또는 갱년기라고 부르며 이 기간은 약 4~7년 정도입니다. 여성의 노화와 더불어 난소의 기능이 저하되고, 배란 및 여성 호르몬 생산이 중단되면서 폐경기 현상이 나타날 수 있습니다. &lt; 여성 갱년기 증상 &gt; 여성의 생애 주기상 여성호르몬의 분비가 저하되는 시기로 폐경(완경)으로 이행하는 시기입니다. 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애 등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질 건조감, 성교통, 질 감염 등의 증상이 나타날 수 있습니다. 여성의 약 20%는 갱년기 증상이 심하게 나타나며 수면장애를 겪기도 합니다. &lt; 여성 갱년기 치료 &gt; 규칙적 운동과 호르몬 치료로 완화시킬 수 있습니다. 규칙적인 운동은 근력의 강화 및 골밀도를 증가시켜 골절의 예방에도 도움이 되며 폐경기 이후 생식기 위축 및 성교통, 비뇨생식기 감염 등은 국소적 호르몬 제제의 간헐적 투여로 효과가 있습니다. 여성호르몬을 보충하는 호르몬 치료는 여성호르몬(에스트로겐) 단독으로 사용하게 되면 자궁내막이 두꺼워져 질환의 위험성이 있을 수 있기 때문에 프로게스테론을 투여하여 자궁내막의 증식을 예방하게 됩니다. 또, 호르몬 치료의 부작용으로 유방암의 위험성이 있기 때문에 이와 관련된 질환이나 진단을 받은 게 있는지 확인하는 것이 중요합니다. 최근에는 폐경기 및 성교통의 질 건조를 치료할 수 있는 질소프가 개발되어 자동 약물 주입장치를 통해 질 내에 약물을 주입하여 질건조를 개선하는 시술적 치료방법이 있습니다. 질 건조로 인해 관계나 생활에 대한 불편함이 있으시다면 그에 대한 치료를 받아보시는 것이 좋습니다. &lt; 질소프 JILL'SOF &gt; 질소프는 V-Needle 사용으로 시술의 시간을 단축시키며 굵기가 얇기 때문에 시술 시 통증을 완화하고 안정적인 시술을 진행하여 주입량, 속도 조절로 일정한 치료 효과를 기대할 수 있습니다. 질소프는 다른 치료와의 차별점으로 일반적으로 가장 많이 사용되는 호르몬 투여보다는 부작용의 위험이 없으며 레이저 시술보다는 비용이 저렴하고 근본적인 원인을 해결할 수 있는 기대효과가 큰 시술법입니다. 산부인과 방문 시 가장 중요한 것은 의료 경험이 많고, 실력이 있는 전문의를 찾아가는 것이 현명하다고 보시면 되는데요. 산부인과 같은 경우 한 번 정도 내원하고, 다음에 다시 찾을 확률이 높은 의료과입니다. 따라서 생리 질환, 성병, 임신, 피임 등 종합적인 검진이 가능하고, 실력과 신뢰감이 뛰어난 의료진을 찾는 것이 좋습니다. 산부인과 내원하셔서 본인의 현재 상태를 확인한 후에 갱년기 진단을 받으셨다면 본인에게 가장 적절한 치료방법 등에 관해서 논의해보시기 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=392522151&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=199&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 유방통증, 유방촬영 타로/별자리</t>
+  </si>
+  <si>
+    <t>현재 53세 갱년기 여성입니다...아직 폐경은 안 되었고, 올해부터 몇달에 한번씩 가끔 생리는 하고있습니다.. 다름이 아니라..올해초부터 가슴이 생리전 증상과 같이 단단하면서 가슴이 아픕니다.. 갱년기 증상으로 유방통증인거 같은데...제가 석회가 있어 주기적으로 유방검진을 받아야 하는데, 유방이 묵직해져 있어서 유방촬영을 하기가 힘든데, 이럴때는 어떻게 해야하는지 알고싶습니다.. 평소에도 유방촬영을 넘 힘들게 하는데, 지금처럼 유방통이 있을때는 너무 겁나네여.. 좋은방법이 없을까요?..아니면 조금 지나면 괜찮아지는지..조금 지난후에 검진받아도 될까요? 참고로 저는 양쪽다 유방통이 있습니다.. 꼭 방법좀 알려주세요~~</t>
+  </si>
+  <si>
+    <t>안녕하세요. 대한의사협회·네이버 지식iN 상담의사 송경은 입니다. 유방통 있을 수 있는데 너무 심하면 감마리놀렌산 영양제가 도움이 됩니다. 유방촬영은 유방이 좀 말랑해졌을 때 하시는게 더 정확한 결과에 도움이 되니 좀 기다려보세요. 유방통은 간헐적으로 1달이상 지속되는 경우도 있지만 , 검사상 이상이 없다면 괜찮으니 참고하십시오.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=451327924&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=270&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 여성호르몬 타로/별자리</t>
+  </si>
+  <si>
+    <t>49세 입니다 관절이 곳곳 다 쑤씨고 그리고 몸 온도에 추웠다 더웠다 바뀌고 건망증이 좀 있는 거 같아요 그리고 요실금,소변이 좀 심해요 여성호르몬제 먹으면. 유방암 때문에 걱정이 됩니다 제 몸에 여성호르몬제 먹는게 좋나요 아니면 여성호르몬 영양제 먹는게 좋을까요? 제대로 된 답변 드리면 채택 바로 드립니다</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 한상훈 입니다. 현재 호르몬 상태에 대한 혈액검사 진행후에 모자랄 경우 호르몬 보충하시면 도움이 되실것입니다. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=428683023&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=679&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>유방 혹과 갱년기 약 타로/별자리</t>
+  </si>
+  <si>
+    <t>저희 엄마께서 갱년기 때문에 고생하시다가 갱년기 약을 복용하고 나서 많이 좋아지셨는데 병원에서 건강검진을 해보니까 유방과 다른 곳들에 혹이 있다고합니다. 유방 통증 같은건 전혀 없으시다고하는데 이 상태로 갱년기약을 계속먹으면 안좋은건가요..? 안드시면 또 고생하게되는데 다른 방법은 없는 건지요ㅠㅠ (광고 신고합니다)</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 송슬기 입니다. 갱년기 약을 드시면 유방 혹과 통증이 심해질 가능성이 있습니다. 갱년기 증상이 심하시다면 약물 치료를 시작 할 수 있으나 그렇지 않는 경우에는 다른 보조 치료를 고려 하고 있습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=357527233&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=603&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>자궁근종 수술 후 여성 갱년기 증상 예방에 대한 문의입니다 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 40대 여성이 3년 전 자궁 근종 수술하였습니다. 중년 여성들은 여성호르몬 감소로 갱년기 증상이 발생함으로 예방 차원에서 건강기능식품 석류를 2달 정도 섭취하고 있으나, 석류는 여성호르몬 활성화로 근종수술한 여성은 오히려 안 좋다고 하는 이야기가 있는데~ 정확한 정보를 알고 싶습니다. 갱년기 예방 건강기능식품 추천 가능하시면 알려주시기 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 최동석입니다. 자궁근종 수술 후 갱년기 증상 예방에 대해 궁금하셔서 문의하셨군요. 갱년기 증상 예방에는 작성자님이 알고 계신 것과 같이 석류가 도움이 될 수 있습니다. 다만 작성자님의 경우에는 자궁근종 수술 병력이 있기에 석류를 섭취하게 되면 오히려 자궁근종 재발을 유발할 수 있기에 섭취를 삼가는 것이 좋습니다. 자궁근종이 있고 갱년기인 여성에게 좋은 식품은 바로 비타민D가 풍부한 음식을 섭취하는 것입니다. 연어, 브로콜리, 달걀노른자, 우유, 치즈 등에 비타민D가 풍부하게 포함이 되어 있으며 30분 정도의 산책 및 외부 활동을 통해 햇볕을 쬐어주는 것이 필요합니다. 자궁근종은 재발률이 높은 편인 질환이기에 정기적으로 검진을 하면서 재발이 되진 않았는지 확인을 해주시길 바라고 균형 있는 영양 섭취를 통해 갱년기 증상 예방에도 도움이 되시길 바라겠습니다. 저의 짧은 답변이 작성자님에게 많은 도움이 되었기를 바라겠습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=389863728&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=769&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>폐경 전에 갱년기 증상이 올 수 있나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>폐경 전에 갱년기 약을 복용해도 되나요?? 저희 어머니께서 밤에 더위때문에 잠을 잘 못자는데 아무래도 갱년기 증상 같아서요 (갱년기 약 광고 댓글 달지 마세요.)</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 이형근 입니다. 여성 갱년기는 여성의 생애 주기상 여성호르몬의 분비가 저하되는 시기로 폐경(완경)으로 이행하는 시기입니다. 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애 등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질 건조감, 성교통, 질 감염 등의 증상이 나타날 수 있습니다. 폐경 전 갱년기 증상은 폐경 전조증상으로 볼 수 있으며, 정확한 것은 산부인과에 진단을 받아봐야 알 수 있습니다. 호르몬제인 전문의약품을 말씀하시는 거라면 산부인과 전문의 처방 아래 복용해 주시기 바랍니다. 산부인과에서 처방해 주는 전문의약품이 아닌 일반 건강보조식품을 말씀하시는 거라면 복용을 통해 갱년기 증상 개선에 도움을 받을 수는 있습니다. 다만 이는 약이 아닌 건강보조식품이므로 올바른 제품을 구입하셔서 복용하시는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=399523583&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=264&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 증상 타로/별자리</t>
+  </si>
+  <si>
+    <t>요즘 엄마께서 조금만 움직여도 숨이 차 하시고 밤에 잠도 잘 못 주무시는데 이게 갱년기 증상이 맞나요?? 불면증은 갱년기 증상이 맞는데 숨이 찬 것도 갱년기 증상 중하나인지 궁금합니다. 또 갱년기 때 석류즙을 먹으면 좋다는 이야기를 들었는데 사드려도 될까요??</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 권소영 입니다. #산부인과 #임신 #피임 #페경 조금만 움직여도 숨이 차거나, 가벼운 운동만을 해도 숨이 찬다면 이는 갱년기에 따른 증상이 아니라 심폐질환의 문제일 수 있습니다. 심장이나 폐의 문제라는 겁니다. 우선은 내과를 방문하여 이상 여부를 검사받아보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=367477360&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=344&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>20대 갱년기 증상 타로/별자리</t>
+  </si>
+  <si>
+    <t>난소 문제 때문에 제거 수술하고 난소가 조금 남아있는데 검사하면 수치는 다 정상이라고 하더라고요. 생리도 주기적으로 하고요. 그런데 가끔씩 참을 수 없는 답답함과 얼굴 화끈거림, 땀이 나고 감정조절도 안되는데 이게 호르몬 문제일 수가 있나요? 아니라면 정신과쪽으로 치료를 받아야 하는지 궁금합니다... 검사하면 난소기능은 다 정상이라고 나와서요.괜찮다가도 가끔씩 이렇게 욱하는 게 올라와서 주변에 미안하고 미치겠어요 ㅜㅜ 화내고 1분있다가 미안하고 한심해서 울다가 또 화내고 난리네요... 정신과 치료는 수술하고 몇달동안 우울증 치료를 받았었어요. 지금은 약도 다 끊었습니다...</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 한상훈 입니다. 호르몬제로 생리주기 조절해 보세요. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=425584347&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=710&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 손저림 타로/별자리</t>
+  </si>
+  <si>
+    <t>저희엄마가 갱년기이신데 세탁소에서바느질을하세요 하루에몇시간식그래서갱년기전에도 아프긴햇는데갱년기이후로저리기까지하시데요 그래서지난번에병원을 찾아갔느데목디스크가눌려서그렇다고들엇어요그리고고칠수있는방법은없다고들었구요 그런데 손저림이(정확히손이아니라팔꿈치쪽위부분이랑 아래부분)디스크때문에만그러나요?정말고칠수없나요?이러다 팔을못쓰시는건아니겠죠? 팔이심하게저리시대요</t>
+  </si>
+  <si>
+    <t>저희엄마가 갱년기이신데 세탁소에서바느질을하세요 하루에몇시간식그래서갱년기전에도 아프긴햇는데갱년기이후로저리기까지하시데요 그래서지난번에병원을 찾아갔느데목디스크가눌려서그렇다고들엇어요그리고고칠수있는방법은없다고들었구요 그런데 손저림이(정확히손이아니라팔꿈치쪽위부분이랑 아래부분)디스크때문에만그러나요?정말고칠수없나요?이러다 팔을못쓰시는건아니겠죠? 팔이심하게저리시대요 원인을 꼽으라면 1. 경추디스크 등으로 인한 신경증 2. 신경포착증후군: 팔의 여러부위에서 신경이 눌리는 경우(nerve entrapment syndrome), 어떤 신경이든 포착될수 있으나 특히, 수근관증후군( : 정중신경이 손목의 수근관에서 눌리는 경우)이 흔하며 이러한 등등의 원인이 있을수 있습니다. 병원에 가보시는 것이 좋을 듯 합니다. 디스크는 MR촬영등으로 알수 있고, 신경포착증후군은 신경전도 검사, 근전도 검사, 이학적 검사 등으로 알수 있습니다. 손의 특정부위가 아니라 전체적으로 저린걸로 봐서 경추성 신경증의 가능성이 높아보이나 정확한 것은 진료를 보셔야 할 것 같습니다. 한가지 때문에 그럴수도 있고 이중으로 문제가 있는경우도 있읍니다. double crushing 이라고 하지요..</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=28188730&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=867&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>월경 증후군과 갱년기 증상이 관계가 있나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>대략 1년 전부터 생리할 때가 되면 어김없이 심한 몸살이 찾아옵니다. 2-3일 전부터 컨디션이 나빠지기 시작해서 시작하는 당일에는 앓아 눕습니다. 생리 기간이 3-4일 정도 되는데, 끝나기 하루 전까지는 맥을 못 출 정도입니다. 폐경이 빨리 찾아오는 사람은 지금 제 나이에서 1-2년 안에 오기도 한다던데, 혹시 지금 이런 증상이 나중에 갱년기 증상의 심화와 관계가 있을까요? 갱년기 증상이 엄청 심하게 오는 사람들도 주변에서 많이 보고 있어서 걱정이 됩니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 최동석입니다. 월경 증후군과 갱년기의 관계에 대해 궁금하셔서 문의하셨군요. 월경 증후군은 월경 전에 정서적, 행동적, 신체적 증상들이 반복적으로 발생하게 되는 것으로 증상으로는 유방통, 몸이 붓는 느낌, 두통 등의 신체적 증상과 함께 기분의 변동, 우울감, 불안, 공격성 등이 심리적인 변화 등이 흔한 증상으로 나타날 수 있습니다. 이는 생리 시작 4~6일 전에 가장 심하게 나타나고 생리 시작 후 수일 이내에 소멸이 됩니다. 생리통은 보통 초경이 시작되는 사춘기 무렵부터 출산 전까지 심하게 느껴진다면 월경 증후군은 출산 이후의 여성에게 증상이 심한 것으로 알려져 있습니다. 조기 폐경은 40세 이전에 폐경이 되는 경우를 말합니다. 작성자님의 경우 글로 보았을 때 정확한 나이를 파악하기는 힘들지만 조기 폐경의 원인으로는 내분비계 문제로 출발이 되어 성호르몬을 분비하는 난소의 빠른 노화로 인한 문제로 볼 수 있습니다. 이는 염색체의 이상, 자가면역질환, 감염 등과 관련이 있으며 편식이나 인스턴트 음식의 과다 섭취, 잘못된 식습관, 과도한 스트레스, 무리한 다이어트 등으로 인하여 인체의 영양과 생체리듬에 부조화가 오게 되면 난소의 노화를 촉진시키는 원인으로 작용하게 됩니다. 조기 폐경의 대표적인 증상으로는 갱년기 3대 증상인 안면홍조, 야간 발한, 불면증이 나타나게 되고 기분의 변화, 질 건조감, 요실금, 성욕 감퇴 등이 발생하게 되고 장기적으로는 심장질환과 골다공증의 발생 가능성도 높아지게 됩니다. 폐경은 난자가 모두 소진이 되어 더 이상의 배란이 이루어지지 않게 되고 결과적으로 난소의 기능이 멈추게 된 것을 폐경이라고 합니다. 그러면서 여성 호르몬이 감소가 되기 때문에 우울증 증상이 생기게 되는데 갱년기 우울증에 관해 보자면 특정한 증상, 경과, 예후 등을 보이기 때문에 일반적인 우울증과는 차이가 있습니다. 심할 경우 극단적인 선택까지 하게 될 수 있기 때문에 주변 가족분들의 보살핌이 중요할 수 있습니다. 갱년기의 경우 주치의와 상의하여 적절한 약제, 용법, 기간의 호르몬 대체 요법은 갱년기 우울증을 치료할 수 있기 때문에 갱년기 우울증도 조기에 발견하여 치료를 하는 것이 치료 경과에 중요합니다. 작성자님의 상태를 정확하게 파악하기 위해서는 산부인과에 방문하셔서 검사를 통해 정확한 원인을 파악하는 것이 좋습니다. 짧은 답변이었지만 많은 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=347355524&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=750&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>폐경이되어야만 갱년기가오나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>생리를 하고있는데 갱년기증세랑 비슷한안면홍조, 조울증등 그리고 운동을 안한지2년쯤됐는데 살이심하게 찌고있습니다..갱년기는 폐경이 되어야만 나타나나요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 차경희 입니다. 갱년기는 임신 가능한 상태에서 불가능한 상태로 이행되는 단계를 의미하는 용어로 폐경 주변기 라는 의미입니다. 평균적으로 40세를 전후로 폐경 이행기를 거쳐서 50세 전후가 되면 폐경에 이르게 됩니다. 갱년기 즉 폐경 주변기는 폐경 전후 몇 년 동안 난소기능저하와 이에 따른 에스트로겐 결핍 현상에 의해 월경불순과 안면홍조, 발한, 우울증, 불면증 등의 기타 폐경 증상이 동반되는 시기입니다. 위와 같은 증상으로 불편감이 지속되신다면 산부인과에서 진료를 받아보시는 것이 좋을 것 같습니다. 답변이 도움이 되셨기를 바랍니다. 갱년기를 정확한 지식으로 미리 예방하고 치료하시기 바랍니다, 도움이 되셨으면 합니다. [갱년기 증상] 생리불순, 안면 홍조, 발한, 성교통, 질염, 방광염, 배뇨통, 급뇨, 집중장애, 불안, 신경과민, 근육통, 관절통 등 *갱년기는 정확한 지식으로 접근하셔야 치료가 가능합니다.* 갱년기는 호르몬의 이상으로 생기는 질병입니다. 인체의 호르몬 기능을 담당하는게 '핵산' 이라는 성분입니다. 우리 몸의 간과 신장에서 핵산이 충분히 잘 생성되면 호르몬계도 정상적입니다. 하지만 나이가 들고 몸이 약화됨에따라 핵산이 현저하게 부족하게 됩니다. 이때 오는 질병이!! 바로 갱년기 라는 것입니다...... 보통 갱년기때 호르몬주사 맞는 이유도 이러한 이유때문이죠~ 될수있다면 핵산이 풍부한 음식을 많이 드셔서 핵산을 충분히 공급받아 갱년기 증상에 도움이 되길 바랍니다. 추가적으로 갱년기는 감정적인 기복이 심해집니다. 긍정적인 마인드를 갖고 스트레스를 받지 않도록 주변인들이 주의한다면 갱년기장애로 오는 우울증을 피할 수 있습니다. * 건강은 빠른 진단과 예방이 최선책입니다. 갱년기증상은 폐경을 전후해서 나타나는 증상으로 안면홍조, 발열감, 심하게 나는 땀,우울증,불면증 등이 정도에 차이는 있지만 모든 여성에게서 생길 수 있는 현상입니다. 폐경이 아직 아니더라도 생길 수 있다는 것이죠. 제 경우에도 안면홍조 같은 증상은 40세 중반에 시작해서 증상이 있다 없다를 반복하고 50세 초반에 폐경이 되고, 폐경이되고 1년후에는 안면홍조와 함께 상체와 얼굴에 심한 발열감과 땀으로 한참 고생을 했답니다. 특히 심한 발열감과 땀이 밤에 더 심해 잠을 제대로 못자고 스트레스와 불면증으로 혈압까지 높아져 거의 6~7개월을 힘들어 했지요. 지금은 증상이 어느정도 완화된 상태로 80%정도의 정상상태라고 할 수 있습니다. 그 방법은 스트레스관리와 운동, 식습관이 중요하다고 할 수 있습니다. 우선은 산부인과를 방문해서 호르몬 검사를 받아보세요. 증상이 너무 심하다면 호르몬요법이나 한의원치료 등의 적극적인 치료를 하는 것이 좋아요. 호르몬요법은 갱년기증상초기에 하는 것이 도움이 된다고 하더군요. 제 경우는 호르몬요법이 적절치 않아 운동과 식이요법, 스트레스관리에 치중을 했습니다. 스트레스는 대부분 심리적인 부분으로 모두 알고 있지만 제 경우는 육체적인 스트레스가 너무 컷더라구요. 급격한 체력손실과 면역력 저하로 갱년기증상이 더 심하게 왔던거 같아요. 특별한 질병이 아니었기에 1개월의 휴가를 내고 약해진 체력보강과 면역력증진을 위해서 한의원 치료를 시작했답니다. 한약과 침치료를 하며 운동은 하루에 30~40분정도의 걷기를 했습니다. 땀날때까지의 운동은 힘들어서 천천히 걷기, 산책 정도의 수준의 약한 운동을 하며, 처음으로 나를 위해 건강식품을 사 보았답니다. 모두가 일반적으로 알고 있는 여성호르몬이 많다는 칡즙과 갱년기우울증에 좋다는 노루궁뎅이버섯생액상입니다. 여성호르몬이 많다는 콩음식을 빼놓지 않고 챙겨먹구요. ﻿﻿ 저는 갱년기증상과 함께 갑자기 혈압이 높아져 혈압과 콜레스테롤도 같이 관리하고 있는 상태입니다. 당연히 콜레스테롤이 높은 음식(튀김음식,단음식,기름기많은음식)을 자제하고 해조류(다시마, 김,미역...)나 버섯류(표고버섯,노루궁뎅이버섯...)등을 자주 섭취하고 있습니다. 노루궁뎅이버섯은 면역력과 갱년기우울증, 혈압관리에 도움이 됩니다. 그리고 무엇보다 중요한 것은 스트레스를 잘 조절하는 것입니다. 스트레스는 갱년기증상뿐만이 아니라 건강의 기본이 되는 면역력도 약하게 하기 때문에 스트레스를 잘 관리해야 합니다. 예전에는 감기가 만병의 근원이라고 했지만 요즘에는 스트레스가 만병의 근원이라고 할 만큼 사회적으로도 심각한 수준이라고 할 수 있습니다. 어쩌면 스트레스를 잘 조절하는 것이 최상의 건강을 유지하는 방법이라고 할 수 있습니다. 또 하나 갱년기증상의 치료는 가족의 관심과 배려가 아주 중요합니다. 혼자 해결하려 하지 마시고 병원에도 가 보시고,가족들의 도움도 받도록 하세요. 건강도 부(富)처럼 본인의 의지와 노력, 가족의 사랑이 절대적으로 필요하다고 생각합니다. 폐경이란 난소에서 여성호르몬(에스트로겐)의 분비가 중지된 상태로 자각증상은 생리가 나오지 않는 것으로 알 수 있습니다. 자궁을 적출하여 생리가 없는 상태에서는 난소를 남겨두었다면 난소에서 지속적으로 호르몬이 분비되기 때문에 호르몬 검사를 해야 폐경인지 아닌지를 알 수 있습니다. (1) 폐경기의 진단 폐경기의 각종 증상이나 신체적 변화들이 느껴지는 경우, 혹은 생리가 멈춘 후 1년 이상이 경과한 경우 폐경을 의심할 수 있습니다. 폐경이 의심되는 경우에는 병원을 방문하여 호르몬 검사를 실시하여 확진을 하게 되며, 환자분의 상태에 따라 검사를 실시하게 됩니다. 폐경기에 실시하는 검사 자궁경부암 검사 초음파 검사 골밀도 검사 골대사 검사(혈액검사) 간기능검사, 빈혈검사, 신장검사 기타(상태에 따라 비만도 검사, 심전도 검사, 근력검사, 모발 영양검사 등) (2) 폐경기의 증상 폐경 후 감소하는 여성호르몬(에스트로겐)에 의해 여러가지 증상과 신체적 변화가 나타나게 되며, 폐경 전에는 드물던 각종 질환들이 증가하게 됩니다. 1) 폐경의 초기 증상 ; 안면홍조(얼굴 화끈거림) ; 불안 ; 불면증 ; 우울증 2) 폐경의 중기에 느끼는 신체적 변화 ; 질 건조감 ; 질 분비물 감소로 인한 성교통 ; 요실금 ; 피부 위축과 탄력감소 ; 질이나 외음부의 위축, 질염 3) 폐경 후기에 증가하는 질환 ; 골다공증 ; 치매 ; 심혈관계 질환(심근경색, 협심증, 중풍) ; 대장암 (3) 폐경기 치료란 폐경 후 신체내에서 감소하는 여성호르몬(에스트로겐)을 외부에서 약으로 보충해 주는 것을 폐경기 치료, 혹은 폐경기 호르몬 대체요법이라고 합니다. 현재 호르몬 약은 여러종류가 개발되어 있고 투여방법도 다양하기 때문에 환자분 개개인의 상태에 가장 적합한 약을 선택하여 투여할 수 있습니다. (4) 호르몬 치료에 대한 흔한 질문들 1) 호르몬 치료를 모든 사람이 꼭 받아야 되는가. 안면홍조나 식은땀, 불면증 등 급성 폐경기 증상이 나타나는 경우에는 3-6개월 정도 단기간 투여 후 지속적인 투여여부를 결정하시면 됩니다. 급성 폐경기 증상이 없더라도 요실금이나 분비물 감소로 인한 성생활 장애, 골밀도 감소 등이 있는 경우에는 호르몬 치료를 하시는 것이 좋습니다. 2) 호르몬 치료를 받으면 어떤 좋은 점이 있나. 일단 폐경으로 인해 생겨난 여러 증상과 신체적인 변화가 없어집니다. 안면홍조 ; 수일에서 수주만 투여해도 증상이 사라짐. 질 건조감, 우울증,불면증,요실금 등 ; 3-6개월 정도의 투여로 호전됨. 골다공증이나 치매 예방은 물론 폐경 후 여성의 가장 큰 사망원인인 심혈관계 질환의 발생을 50% 까지 감소시킵니다. 3) 폐경이 된지 오래되었는데 지금 시작하면 너무 늦지 않은가. 사실 호르몬 대체요법은 생리가 있더라도 폐경기 증상이 나타나거나, 증상이 없어도 폐경 후 곧 실시하는 것이 가장 바람직하고 효과도 좋습니다. 하지만 아무리 늦은 나이에 시작하더라도 결코 늦은 것이 아닙니다. (5) 호르몬 치료의 방법 크게 생리를 하는 방법과 생리를 안하는 방법으로 나눌 수 있습니다. 투여방법에 따라 먹는 방법, 파스처럼 붙이는 방법, 질정으로 투여하는 방법, 피하에 호르몬 분비 캡슐을 심는 방법, 주사로 맞는 방법 등이 있습니다. 투여방법이나 종류의 선택은 환자분의 선호도, 피검사 결과, 과거에 앓았던 질환이나 현재 앓고 있는 질환, 투여중인 약물 등등에 따라 조절하게 됩니다. (6) 생리를 하는 것과 안하는 약은 차이가 있는가. 생리를 하는 약과 안하는 약, 먹는 약과 붙이는 약의 약효 차이는 없습니다. (7) 호르몬 대체요법을 시작한 후 유방통이 생겼는데 유방암이 아닐까. 호르몬이 유방조직에 영향을 주기 때문에 유방이 전보다 아프게 느껴지는 현상이 생길 수 있습니다. 또한 폐경 전에 생리통이 있던 경우, 호르몬 치료를 시작하면서 다시 생리통이 생길 수도 있습니다. 이런 증상들은 호르몬이 정상수치로 돌아오면서 생길 수 있는 자연스러운 증상입니다. (8) 페경이행기의 호르몬 치료 ; 폐경이행기란 완전히 폐경이 되기 전의 시기를 말하는 것으로 이 시기에는 생리가 불규칙하게 변하고 대량의 부정기 자궁출혈(생리때가 아닌데 출혈이 있는 경우)이 생기기도 하는 시기입니다. ; 이 시기는 폐경기와는 또 다른 시기로 폐경기 호르몬 대체요법과 다른 약제를 사용하여 호르몬 치료를 하게 됩니다. ; 치료의 목적은 부정기 출혈이나 예기치 못한 임신을 막고 골밀도 감소, 폐경기 증상의 예방을 위해 실시하게 됩니다. ; 주로 저용량 경구피임약이나 황체호르몬 제제(프로게스테론 제제)를 사용하여 치료를 하게 되며 정기적으로 피검사를 실시하여 폐경기 호르몬 약제로 바꾸어 주게 됩니다. ; 경구피임제 사용에는 피임이나 골다공증 예방 외에도 다음과 같은 여러가지 잇점이 있습니다. 자궁내막암과 난소암의 발생율 감소 자궁내막증 감소 자궁근종의 크기 감소 양성 유방질환 발생율 감소 류마티스 관절염의 증상 완화 동맥경화증 감소 난소낭종의 발생율 감소 (9)각종 질환과 호르몬 대체요법의 관계 1) 유방암 ; 현재 유방암이 있는 경우 호르몬 치료는 하지 않는게 좋습니다. ; 유방암 발생은 호르몬 치료의 기간과 관련이 있습니다. 5년 이하의 경우 발생위험도가 증가하지 않으나 5년 이상의 경우 위험도가 증가할 수 있습니다. 12-15년 이상 받는 경우 유방암 발생 위험도가 1.4배 증가합니다. ; 호르몬 치료를 하는 경우 유방암 검사를 정기적으로 받기 때문에 오히려 암을 조기에 발견할 수 있는 장점이 있습니다. ; 유방암 가족력이 있는 경우 발생율이 더 증가하기 때문에 다른 사람보다 5년 먼저 검진을 시작하는 것이 좋습니다. 2) 자궁내막암 ; 여성호르몬을 단독으로 사용하는 경우 발생위험도가 2-8배 정도 증가하지만 황체호르몬과 병용하는 경우에는 위험도가 증가하지 않으며 오히려 감소한다는 연구보고도 있습니다. 3) 자궁내막암이나 유방암의 과거력 ; 에스트로겐 투여의 금기증이 아닙니다. 4) 자궁근종 및 선종 ; 호르몬 치료의 금기증이 아닙니다. ; 다만 선종이 심하거나 자궁내막에 점막하 근종이 있는 경우 불규칙한 출혈을 일으킬 수 있습니다. ; 폐경 후 6개월이 지났는데도 자궁근종이나 선종이 크기가 감소하지 않거나 커지는 경우에는 근종적출이나 자궁적출 등의 치료방법을 고려하는 것이 좋습니다. 5) 난소암, 자궁경부암 ; 난소암 발생에 대한 보호작용이 있는 것으로 생각되고 있습니다. ; 자궁경부암에 대해서는 아무런 영향을 주지 않으므로 안심하고 사용해도 됩니다. 6) 대장암, 직장암 ;호르몬 대체요법은 대장암의 상대적 발생위험도를 1에서 0.7-0.8 로 낮추며, 발생빈도를 50% 까지 낮추어 줍니다. 7) 갑상선 질환 ; 과거, 혹은 현재 갑상선 질환이 있는 경우 골다공증의 위험도가 더 높기 때문에 호르몬 대체요법이 필요합니다. 8) 간질환 ;간질환의 발생과는 연관이 없는 것으로 알려져 있습니다. ; 투여 전 피검사에서 간기능 수치가 좋지 않았던 여성은 투여를 연기하거나 경피요법을 사용하는 것이 좋습니다. ; 만성적인 간질환이 있는 경우에도 경피적인 방법으로 투여할 수 있습니다. 9) 고 콜레스테롤혈증 중성지방 수치는 호르몬 대체요법의 투여방법을 결정짓는 아주 중요한 요소이므로 반드시 호르몬 투여전에 검사를 하는 것이 좋습니다. 10) 고혈압 ; 호르몬 치료는 고혈압에 별다른 영향을 주지 않습니다. ; 그러나 경구 복용 시 소수의 환자에서 혈압이 증가하는 경우가 있으므로 호르몬 치료 시작 후 3주 가량은 혈압을 주의해서 관찰하는 것이 좋습니다. 11) 당뇨 ; 당뇨 환자들은 심혈관계 질환의 발생 위험도가 증가하는데, 호르몬 대체요법이 그 위험도를 감소시켜 줍니다. 12) 시력감퇴 ; 에스트로겐 대체요법은 노령화로 인한 망막변성의 발생을 감소시킵니다. ; 기타 폐경기와 관련된 안과적 증상인 시력감퇴와 안구건조감의 증상도 호전시킬 수 있습니다. 13) 치아손실 ; 치아 손실이나 여성호르몬 감소로 인한 구강 점막의 건조와 위축, 잦은 염증, 폐경 후 목소리 변화 등도 호전됩니다. (10) 호르몬 대체요법의 부작용 ; 약 10% 정도에서 나타날 수 있습니다. ; 대부분의 부작용은 수개월간 사용하면 점차적으로 사라지는 경우가 많습니다. 오심, 담즙결석, 체내수분양 증가, 두통, 생리양 감소, 다모증, 담즙정체, 체중증가, 편두통, 비정상적인 출혈, 불안,우울, 피곤함, 목소리 변성, 복부 팽만감, 다리동통, 유방통, 성욕감퇴, 여드름,식용증가 등 ; 부작용 발생 시 병원을 방문하여 적절한 조치를 받으시는게 좋습니다. (11) 폐경기 호르몬 대체요법 시 실시하는 검사 1) 기본 검사 ; 호르몬 검사와 금기성 질환에 대한 문진 실시 ; 혈압측정 ; 자궁경부암 검사 ; 유방암 검사 ; 피검사--- 간기능, 신장기능, 콜레스테롤 등 검사 ; 골밀도 측정 2) 추적 검사 ; 기본 검사 항목을 필요에 따라 6개월-1년 간격으로 실시합니다. 이상 간단히 답변을 드렸는데 궁금증을 해소하는데 도움이 되었다면 기쁘겠습니다. 아니요... 갱년기는 폐경을 전후로 비교적 긴시간 나타납니다. 갱년기때 건강을 잘 챙겨주면 갱년기가 지난다음에도 건강하지만 그때 잘 못챙겨주면 골다공증과 기타 여러가지 합병증들이 나타날 수 있습니다. 자세한 사항들은 위의 답변에 아주 잘 달아주셨네요... 갱년기에 소문난 '풀무원 로젠빈수' 추천해드려요. 다른 제품들도 좋지만 이건 10분 드시면 8~9분은 효과가 납니다. 가격보다는 효과가 중요하지요? 더 자세한 사항은 네이버검색창에 '풀무원나라' 치면 제품 알수 있어요... 그럼 그 기간에 건강 잘 챙기셔서 갱년기 후에도 건강 잘 유지하세요.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=158536058&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=829&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>엄마가 5년정도 생리를 거의 매일 하다 시피 하시면서 길게는 3달씩을 거의 매일 양 많게 하시다가 이제는 안 하세요. 특별한 주기 없이 매일 많은 양을 하혈하셨어요. 갱년기에 생리 양이 많아 지기도 한다고 알고 있기는 했는데 엄마의 경우 좀 심한 편이 아닌가 싶어서요. 혹시 무슨 문제가 있을 수도 있나요? 병원에 가시기는 싫어하셔서요. 알려주시면 감사합니다. 그리고 오늘 조금 무거운 거 드실 때 갑자기 식은 땀이 나면서 손이 떨리셨다고 하더라고요. 이건 무슨 증상인가요? 현재 고혈압 약 복용 중이십니다.</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 한상훈 입니다. 갱년기 근처의 출혈 변화는 자궁 초음파확인이 필요해 보입니다. 갱년기 증상인지도 같이 상담 받으시는게 좋겠습니다. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=368282999&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=543&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기가 왔다는건 폐경이 왔단 말인가요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 상담의 이형근 입니다. 생리가 완전히 없어지는 폐경이 나타난 이후의 약 1년까지를 폐경이행기 또는 갱년기라고 부르며 이 기간은 약 4~7년 정도입니다. 갱년기는 여성의 생애 주기상 여성호르몬의 분비가 저하되는 시기로 폐경(완경)으로 이행하는 시기입니다. 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애 등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질 건조감, 성교통, 질 감염 등의 증상이 나타날 수 있습니다. 자세한 사항은 산부인과에 내원하셔서 전문의에게 상담 및 진단을 받아보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=411686869&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=364&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>자궁근종 과 갱년기음식의 관계 타로/별자리</t>
+  </si>
+  <si>
+    <t>자궁근종에는 여성호르몬이 많은 음식이 안좋다고 들었어요. 베리류, 석류, 콩, 아마씨,유제품 이런거요. 여성호르몬이 이걸 커지게 할수있다구요. 근데 갱년기증상이 있으면서 자궁근종이 있을때는 어떻게 해야해야하나요? 어짜피 갱년기로 여성호르몬이 많이 부족한 상태이니까 갱년기에 좋은 음식을 먹어도 상관없지 않나요? 아니면 그게 근종의 크기나 변화에 그래도 영향을 주나요? 그러면.. 갱년기를 잘 극복하는방법은.. 수술밖에 없나요?ㅠㅠ</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 이재성 입니다. 자궁근종과 갱년기에 관하여 문의를 주셨군요. 자궁근종은 여성호르몬에 반응하여 자라는 종양으로 여성호르몬과 관계된 식품이나 약물을 드실 경우에는 주기적으로 초음파 검사를 하면서 지켜보셔야 합니다. 자궁근종의 근치적인 치료후에 갱년기에 도움되는 식품이나 약물을 드셔도 된답니다. 자궁근종 제거를 위해서는 수술적인 요법이 있으며 비수술적인 하이푸 치료로도 있습니다. 하이푸시술은 체외에서 방출된 초음파를 돋보기처럼 한점에 집중하여 목표하는 지점의 온도를 상승시켜 근종세포를 파괴하는 치료방법 이며 장점은 전신마취를 하지 않고 2 ~ 3일 후 일상생활 복귀가 빠른 장점이 있습니다. 하이푸시술 치료효과 높이려면 자궁근종의 형태과 위치를 정확하게 파악해야 치료효과를 높일 수 있습니다. 높은 치료효과를 보시려면 정확한 진단이 가능한 MRI촬영은 기본으로 받으셨을때 더 좋은 결과를 얻을 수 있습니다. 가장 중요한 것은 의료진의 풍부한 경험과 판단이 매우 중요합니다. 더 자세한 내용은 전문의와 상담 받아보시길 바랍니다. 문의에 도움이 되셨기를 바랍니다. 감사합니다. 갱년기 증상은 다양하기 때문에 대처하기 어렵기도 하죠. 여러증세까지 같이 겹쳐서 걱정이 많으시겠어요.. 그래서 정확한 지식으로 접근해야 개선할 수 있습니다. 정확한 지식으로 접근해야 건강이 회복될 수 있습니다. 하이푸라는 시술로 안전하게 치료를 하실 수 있습니다. 비수술치료이기 때문에 너무걱정안하셔도 될것같습니다. ※ 인터넷 상담은 정확한 검사자료를 바탕으로 하지않은 것이므로 참고만 해주시기바랍니다 안녕하세요 ^^* 한방으로 자궁근종 등을 27년째 진료하고 있는 한의학박사 김택교수입니다. [문] 갱년기증상이 있으면서 자궁근종이 있을때는 어떻게 해야해야하나요? ~ 한방치료를 통해서 자궁근종을 치료하면서 갱년기 증상의 동시치료가 가능합니다 [문] 어짜피 갱년기로 여성호르몬이 많이 부족한 상태이니까 갱년기에 좋은 음식을 먹어도 상관없지 않나요? 아니면 그게 근종의 크기나 변화에 그래도 영향을 주나요? ~ 안됩니다. 석류나 여성호르몬제를 드시면 자궁근종을 크게 하면서 출혈등을 더 심하게 악화시킵니다 한방치료가 동시에 치료가 가능하고요 다음 음식들도 피해주세요</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=255186211&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=742&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기증상에 갑짝이 추워따가 갑작이 더워지는거 갱년기증산 맞나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥 네이버 지식 iN 산부인과 상담의 성영모입니다. 급격한 신체 온도 변화는 갱년기 증상의 하나로 볼수 있습니다. 하지만 그 외갱년기 증상에는 생리불순, 안면홍조, 발한, 신경과민 등 다양한 증상이 있으며, 1년 가까이 생리가 없을 때 폐경으로 진단할 수 있습니다. 병원에 내원하여 부인과초음파 검사와 혈액 검사 (난포 자극 호르몬 검사 등)을 통해 갱년기 여부를 확인하실수 있습니다. 감사합니다. 네, 갱년기 증상 중의 하나입니다 그 외에도 우울증, 식은땀, 의욕상실, 짜증 등 다양한 증상으로 나타납니다 갱년기 증상에 도움되는 건강기능식품으로 파마넥스사에서 나오는 천연 생약제인 '에스테라2' 가 좋습니다 "에스테라 2" 는 칼슘, 마그네슘, 비타민 D등 뼈의 형성에 도움을 주는 성분 이외에도 회화나무추출물, 석류추출물, 브로콜리 추출물 등을 함유하여 갱년기건강에 도움을 주는 제품입니다. 더 자세한 것은 아래 네임카드 주소 의 파마넥스 공식할인몰을 참고하세요^^ 갱년기 증상은 보통 우울증,근육통, 몸살기, 무기력증으로 나타납니다. 어떤 질환이든 한 가지가 아닌 여러 가지 질환이 함께 동반될 수 있기 때문에 가까운 산부인과에 내원하셔서 갱년기검사, 부인암검사 그 외 필요로 하는 검사를 받아보시길 권해드립니다 안녕하세요. 한의학 박사 이의준 교수입니다. 대개 갱년기 증상은 40대 후반에서 50대에 많이 나타나게 됩니다. 갱년기 증상은 매우 다양하며 사람마다 차이가 많이 납니다. 일반적으로 많이 호소하는 갱년기 증상으로는 안면홍조, 불면증, 갱년기 우울증(불안, 공포, 치매, 인지장애), 관절통, 어깨결림, 부정출혈, 요실금, 심혈관계 기능저하, 빈뇨, 골다공증, 피부건조, 질 견조감, 폐경, 성욕 저하, 노안, 손발저림 등이 있습니다. 갱년기 증상이 나타나는 주 원인은 여성호르몬의 감소와 관련이 있습니다. 갱년기가 되면 여성호르몬 양이 급감하고 그에 따라 몸의 면역 시스템이 바뀌게 됩니다. 이때 염증 관련 면역물질이 많이 분비되는데, 이 면역물질이 뇌의 체온중추를 자극하고 열을 발생시켜 화끈거리는 증상을 일으킵니다. 따라서 현재 호소하시는 증상은 갱년기 증상으로 볼 수 있습니다. 한방적인 관점에서 보았을 때 현재 호소하시는 증상은 체내의 혈액과 진액이 소진되어 나타나는 음허(陰虛), 곧 음액(陰液)이 부족하여 손,발,가슴에 열이 나는 것으로 특히 오후 시간에 열이 오르는 것이 특징입니다. 갱년기 증상은 한방치료로 좋은 효과를 볼 수 있습니다. 현재 가지고 있는 증상을 방치할 경우 다른 갱년기 증상이 더 나타날 수 있으므로 빠른 시일 내에 치료하시는 것이 좋습니다. 부디 갱년기를 지혜롭게 이겨내시고 주어진 인생을 활기차고 행복하게 지내시길 바랍니다. 감사합니다. 적어주신 내용으로 봐서는 갱년기 증상일 수 있사온데 갱년기인지 정확한 것은 산부인과 가셔서 검사 한 번 받아보시기 바랍니다. 연령으로 봐서는 갱년기 대비하시는 것이 좋겠습니다. 갱년기 증상 등 갱년기에 대해 살펴보겠습니다. 건강에 도움되셨으면 좋겠네요. 여성들에게 나타나는 갱년기 증상으로 폐경이 가장 우선이며 혈관 및 신경장애로 인해 얼굴, 목, 가슴이 화끈해지고 땀이 나는 작열감이 주로 발생합니다. 또 신경과민, 흥분, 불안, 두통, 현기증, 우울증 식욕부진, 위장장애 등이 나타나기도 합니다. 남성들의 경우 심한 피로감과 무력증이 찾아오며 성욕과 성기능, 기억력, 집중력이 감퇴됩니다. 이와 함께 근육의 힘이 약해져 팔과 다리는 점차 가늘어지지만 체지방이 복부로 몰려 배가 볼록 나오거나 사람에 따라서는 대머리가 되기도 합니다. 여성 갱년기가 찾아오는 원인은 여성호르몬이 부족해서 생기는 것임을 잘 아실 듯 싶어요. 그래서 갱년기 영양제를 살펴보면 식물성 여성호르몬(에스트로겐)이 함유된 식품들을 원료로 해서 만든 것들이 많습니다. 효과 보신 분들도 꽤 계시더라구요. 그리고 감마리놀렌산이 들어 있는 식품(달맞이씨오일)도 갱년기에 좋은 식품이겠습니다. 갱년기에 좋은 음식으로 많이 알려진 식품으로는 칡뿌리생즙, 달맞이씨오일(기름), 국산백수오, 산당귀, 겨울가시홍화씨, 석류, 대두(콩) 등이 있습니다. 딱히 나쁜 음식은 없사오나 술, 담배, 인스턴트 식품 등은 자제하시는 것이 좋겠습니다. 이 중 가장 추천해드리고 싶은 것은 '칡뿌리생즙과 국산달맞이씨오일, 국산백수오' 등 입니다. 저희 친지분들과 어머님께서도 칡뿌리생즙,달맞이씨오일 등을 매일 드시는데 갱년기뿐 아니라 건강에 여러모로 도움되고 있거든요.(칡뿌리생즙 업체 소개해달라는 분들이 계시는데 네이버 지식인 정책상 상호는 알려드리지 못하는 점 양해 바랍니다. 칡뿌리생즙 등을 검색하시기 바랍니다.) 주변분들께도 선물을 했는데 모두 좋아해서 추천합니다. 국산토종 겨울가시홍화씨도 좋은데 갱년기, 특히 골다공증이나 관절염 등 뼈질환에 더욱 좋습니다. 여유되신다면 겨울가시홍화씨환도 괜찮구요. 달맞이씨오일 또한 갱년기에 좋은 식품으로 알려져 있는데 이는 필수지방산인 감마리놀렌산이 갱년기에 도움된다고 하더라구요. 또한 국산백수오, 참당귀 등은 여성에게 매우 좋은 식품으로 알려져 있습니다.(칡뿌리생즙 등과 함께 드시면 더욱 좋겠네요.) 왜 국산이 좋은가하면은요, 신토불이라는 말이 있습니다. 인간은 환경에 적응되어 살고 있습니다. 똑같은 식물, 동물이라도 각 나라마다 환경이 다르기에 성장과정과 성분 등에서도 차이가 나겠습니다. 요즘 우리나라 사람들(특히 아이들)이 서구음식을 먹어서 병이 많이 늘어난다고 합니다. 이는 우리 몸에는 우리 땅에서 난 것이 제일 좋을 것인데 체질에 잘 맞지 않는 서양음식 섭취로 인해 질병이 늘어나는 것이겠지요. 추가로 말씀드리자면 재배산 보다는 아무래도 자연산이 좋을 것입니다. 재배산 중에서도 저농약보다는 무농약, 무농약보다는 유기농법으로 재배한 것이 좋겠지요. 유기농법보다는 자연 농법이 좋겠습니다. 자연 농법이라면 쉽게 말해 장뇌삼을 떠오르면 되겠지요. 무엇보다 자연상태에서 야생적으로 자란 것이 가장 좋습니다.(농약, 화학비료 등 걱정이 없고 맑은 공기와 좋은 물, 산의 정기를 머금었기에 품질면에서 가장 좋습니다. 인삼과 산삼을 비교했을 때 산삼이 비교할 수 없을 만큼 좋은 품질입니다. 그렇기에 그만큼 값이 비싸겠지요.) 달맞이씨오일(기름)도 우리 땅에서 자연적으로 야생상태로 자란 달맞이씨로 해서 만든 것이 개인적으로는 제일 좋지 않나 생각합니다. 참 그리고 달맞이씨오일(기름)도 일종의 기름이온데 환으로 만든 제품은 어차피 물로 먹어야 하는데 기름성분이 물로 합쳐진다면 어떨까 싶네요. 제 생각으로는 액체로 된 달맞이씨오일을 그대로 드시는게 흡수율도 좋고 건강에도 좋다고 생각합니다.(달맞이씨오일 등을 드실 때는 가급적 물을 드시지 않는게 좋을 것입니다.) 아래는 갱년기(폐경기)에 관한 내용을 나름 알아봤는데 도움되셨으면 좋겠습니다. --------------------------------------------------------------------------------------- 갱년기는 누구나 피할 수 없는 것이지만 찾아오는 방법이나 그 증상의 정도는 천차만별이다. 그럼 이러한 차이는 어디에서 오는 것일까? 첫 번째는 자율신경의안정도. 갱년기 증상의 대부분이 자율신경의 실조에 의해 일어나는 것이므로 체질적으로 자율신경이 불안정한 사람일수록 그 증상이 심하고 오래 간다. 기분전환을 잘 하지 못하고 작은 일도 크게 고민하는 사람, 신경질적이고 자기중심적인 사람 등이 장애를 일으키기 쉽다. 이와 같은 사람들은 몸의 작은 변화에도 민감하게 되고 불면, 초조, 불안 등 정신적인 증상을 동반하는 경우도 많다. 두번째는 생활습관이다. 즉 갱년기는 '인생의 끝'이 아니라 이를 계기로 ‘제2의 인생'을 살아가려는 마음가짐과 생활태도가 중요하다. 따라서 규칙적인 운동이나 자신의 능력을 살려 일을 갖거나 취미생활로 적극적인 삶을 살아가려는 사람들은 갱년기를 그리 혹독하게 겪지 않는다. 갱년기는 신체 여기저기에서 노화의 징조가 나타나 육체적인 면에서 볼 땐 불안정한 시기이기도 하지만 한편으로는 자신만의 삶을 즐길 수 있는 멋진 터닝포인트가 될 수 있다는 점을 잊지 말아야한다. [갱년기에 좋은 운동이나 음식] 1. 운동 갱년기 증상을 예방하고 치료하는데 도움되는 운동으로는 때와 장소를 가리지않고 손쉽게 할 수 있으며 인체의 순환기능을 향상시키는 심폐지구력 운동과 전신을 사용해 일정 시간동안 리듬을 유지하며 지속할 수 있는 유산소성 운동이 제격. 예를 들면 맨손체조, 유연체조, 산보, 걷기, 등산, 자전거 타기, 노젓기, 골프, 수영 등이 적당하며 동시에 스트레칭 체조나 요가 등을 수시로 반복하면 더 큰 효과를 볼 수 있다. 굳이 운동을 않더라도 본인이 좋아하는 운동을 관전함으로써 정신적 긴장을 완화시키고 스트레스를 푸는 것도 좋은 방법이다. 운동시간은 강도에 따라 15~45분 정도를 본운동 시간으로 하고 점차 익숙해지면 1회 운동시간이 최소 30분 이상 되도록 한다. 평소 운동 경험이 없거나 체력수준이 낮은 사람, 만성질환의 위험이 높은 사람의 경우, 운동으로 인한 상해를 예방하기 위해 처음에는 낮은 강도에서 시작해 점차 운동 강도를 높여 가는 것이 좋다 운동빈도도 매일 해야 한다는 강박관념을 버리고 격일이나 일주일에 3회 정도로 시작해 점차 주당 5회 이상으로 늘여 가는 것이 바람직하며, 스트레칭 체조는 언제라도 여유 있는 시간에 즐거운 마음으로 반복해 보도록한다.(출처 : 보건소) 2. 음식(식품) 식물성에스트로겐이나 칼슘성분이 많은 음식이 좋다.. 식물성에스트로겐이 가장 많은 식품으로는 칡이며, 그 외 콩(대두), 석류 등이 좋을 것이다. 칼슘이 많은 식품으로는 홍화씨, 멸치, 우유, 연어 등일 것이다.. 그외에도 수많은 식품(달맞이꽃씨오일 등)들이 있으나 이정도면 충분할 것이다. 아래 내용은 어디서 퍼온 것인데 참고하셨으면 합니다. 요즘 갱년기, 골다공증 등으로 고생하시는 분들이 많으신 거 같은데, 그분들에게 도움이 되었으면 하는 바람입니다. 갱년기, 폐경기 등에 칡이 좋다고 합니다. 제 어머님도 도움되었답니다. 칡에는 식물성에스트로겐이 대두보다 30배, 석류보다 625배나 많다네요..아마 칡에 가장 많이 들어있을 거예요. 미녀는 석류를 좋아해라기 보다 칡을 좋아해가 맞지 않나 싶습니다. 골다공증에는 칡과 함께 홍화씨가 좋습니다. 뼈에 관련된 질환(골다공증, 골절 등)에 홍화씨 만한게 없으니까요.. 제가 알기로는 홍화씨엔 칼슘과 함께 백금성분이 들어 있습니다. 그게 뼈에 좋다네요. 우리가 가정에서 칼슘(멸치, 우유 등) 섭취를 하지만 왜 골다공증등이 생길까요.. 그건 우리 몸에서 칼슘 흡수가 잘 안된다네요.. 칡은 칼슘흡수를 도와주고 뼈속에서 칼슘이 방출되지 않도록 도와주는 성분이 있어서 칼슘음식(홍화씨, 멸치, 우유)등과 함께 드시면 골다공증에 아주 좋다고 하더라구요 이 중 몇가지에 대해 말씀드릴게요. &lt;칡뿌리생즙&gt; 1)갱년기 및 폐경기 - 칡뿌리생즙에는 식물성 에스트로겐이 석류의 625배, 대두의 30배나 많기 때문에 폐경기및 갱년기치료에 효과적입니다.(산후조리에도 좋습니다.) 2) 고혈압 및 당뇨병 - 식이섬유와 사포닌이 풍부한 칡뿌리생즙은 심장병, 고혈압, 당뇨, 성인병, 암 예방에 효과적입니다 또한 성장 호르몬도 풍부하여 어린아이들에게 많은 도움을 줍니다. 3) 골다공증 - 칡뿌리생즙의 다이제드인이 골다공증을 예방하는데 매우 효과적입니다. 그러므로 칡뿌리생즙을 홍화씨, 달걀,우유, 멸치,연어등과 함께 드시면 인체에서 칼슘이 흡수되는 것을 도와주기 때문에 골다공증 치료에 매우 좋습니다. 4) 만성 변비 치료 식이섬유가 풍부하여 만성 변비 치료에 탁월한 효능이 있습니다. 5) 간기능 강화및 숙취해소 - 카테인이 풍부한 칡뿌리생즙은 간기능을 활발하게 하여 간을 건강하게 만들어 줍니다. 동의보감에 따르면, 칡뿌리생즙은 간기능 강화 및 숙취해소에 효과가 뛰어나다고 합니다. 6) 노화방지 - 신진대사를 촉진시키는 칡뿌리생즙은 체력을 유지시켜주고 노화예방에 탁월한 효능이 있습니다. 7) 중금속 분해 및 배출 - 포리페놀 성분이 함유된 칡즙은 중금속을 인체로부터 배출해 주는 효능이 있습니다. 요즘 대기오염,특히 황사가 일어날때 중금속에 쉽게 노출될 수가 있는데 평상시에도 칡뿌리생즙을 드시면 중금속 중독을 예방하실 수 있습니다.(먼지 등이 발생할 수 있는 산업현장에서 일하시는 분들이 드시면 좋습니다.) - 청정지역으로서 게르마늄이 풍부하며 비옥한 토양과 맥반석 암반수의 수질을 자랑하는 경남함양 지리산 일대에서 캔 야생 칡뿌리는 좋은 조건을 갖춘 칡뿌리라고 할 수 있기에, 개인적으로 방송에서도 몇번 소개된 지리산 함양의 칡뿌리생즙을 이용하는데 추천하고 싶은 식품입니다. 아래는 kbs 비타민에 나온 내용 중 일부 요약해서 말씀드리겠습니다. &lt;&lt; NEW 위대한 밥상! young 茶 시리즈!&gt;&gt; ♦ 심장을 젊어지게 하는 방법! 심장을 젊어지게 하려면, 심장의 혈액순환을 원활하게 하고, 심근 수축력을 활발하게 유지 하는데 도움이 되는 영양소와 심장근육을 튼튼하게 하는 단백질 식품, 혈관벽을 건강하게 해줄 항산화영양소가 든 식품을 자주 섭취하는 것이 좋다. 또한 혈압이 높으면 심장에서 혈액을 내보내기 힘들기 때문에 혈압을 낮출 수 있도록 싱겁게 먹는 식습관이 무엇보다 중요하다. 여기에 심근 손상을 막아주는 식품까지 챙겨 먹는다면, 심장을 더욱 젊고 건강하게 만들 수 있다. ▷ 어떻게 칡이 심장을 젊어지게 하는데 도움이 될까? 칡에는 이소플라본의 일종인 프에라린이라는 생리활성물질이 들어있다. 프에라린은 항산화효능이 뛰어난 물질로 심근 손상을 막아 심장을 보호하고, 혈관을 이완시켜 혈액순환을 도우며, 혈중 LDL-콜레스테롤 수치를 낮추는 역할을 한다. 특히 심근경색 상태의 심장조직에서 새로운 혈관을 만들도록 하여 심장병 치료에도 도움이 된다. 결국, 심장을 젊어지게 하는데 칡이 많은 도움이 되는 것이다. ▷ 칡은 즙이나 차로 많이 이용하지만... 냉면이나 전을 만드는 칡전분이나 칡가루도 있다. 칡을 이렇게 이용해서 먹는 것도 도움이 될까? 칡 전분은 칡을 물과 함께 갈아서 전분만 가라앉힌 것이다. 즉 탄수화물 성분이 주로 들어 있고, 생리활성물질은 상대적으로 적은 양 들어있다. 또 칡가루는 칡을 그대로 갈은 것이어서 생리활성물질은 모두 들어있지만, 식이섬유소가 많아서 흡수율은 조금 낮은 편이다. 그렇지만 칡즙이 기호에 맞지 않는 경우에는 칡전분이나 칡가루를 다양한 요리에 활용해서 즐기는 것도 좋은 방법이다. &lt; 자료출처 : KBS비타민 &gt; --------------------------------------------------------------------------------- 요즘 석류.콩 등 여성호르몬(에스트로겐)과 유사한 물질이 들어 있다는 식품들이 대박이다. 폐경기 여성이 호르몬제 대신 식물성 에스트로겐이 든 식품을 먹으면 얼굴이 화끈거리고 밤에 잠이 오지 않는 이른바 갱년기증후군을 완화시킬 수 있다는 믿음 때문이다. 이런 면에서 칡은 숨은 진주다. 칡가루엔 식물성 에스트로겐인 다이드제인(이소플라본의 일종)이 ㎏당 6.3g이나 들어 있기 때문이다. 울산대 식품영양학과 최석영 교수는 식물성 에스트로겐이 가장 많이 든 식품으로 칡을 꼽는다. 칡엔 식물성 에스트로겐이 콩의 열배나 들어 있고, 석류는 아예 비교대상도 되지 않는다는 것이다.(석류의 625배 : kbs '싱싱일요일' 방영) 따라서 중년 여성이 칡을 즐기면 폐경을 지연시키고 골다공증을 예방하는 효과를 얻을 수 있다. 칡은 또 예부터 숙취 제거에 사용돼 왔다. 동의보감에도 "주독을 풀어주고 입안이 마르고 갈증 나는 것을 멎게 한다"고 기술돼 있다. 최근엔 칡뿌리(갈근)가 알코올 섭취를 억제하는 효과가 있는 것으로 밝혀졌다.흰쥐를 이용한 실험에선 칡 추출물이 음주 뒤의 숙취 유발 물질인 아세트알데히드의 분해를 촉진한다는 사실이 확인됐다(영남대 식품공학과 조수열 교수). 이를 근거로 술 자리에 가기 전에 칡뿌리생즙. 칡차를 마시거나 칡뿌리 가루(갈분)를 먹어 알코올 분해효소를 미리 준비해두는 것이 조 교수식 건강 음주법이다. 술 자리에선 밥 대신 칡 국수를 주문하는 것도 방법이다. 숙취와 갈증을 덜어주는 칡차는 칡뿌리(30g)와 꿀, 그리고 약간의 물만 준비하면 집에서도 쉽게 만들 수 있다. 먼저 깨끗이 씻은 칡뿌리를 적당한 크기로 썬 뒤 절구에 넣고 찧는다. 그리고 면 보자기로 싸서 즙을 짜낸다. 이때 건더기는 건져 내고 즙만 따라내 꿀을 타서 마시면 된다. 칡뿌리생즙은 약이 아닌 우리나라의 전통 식품으로서 꾸준하게 섭취하신다면 건강에 도움되는 좋은 식품이라 할 수 있겠습니다. &lt;달맞이씨오일&gt; 아래는 달맞이씨오일 효능에 관한 내용이온데 참고하시기 바랍니다. -혈행개선 혈중 콜레스테롤 및 중성지방의 수준을 낮추어 혈전을 방지하며 혈액순환을 촉진. 노화예방 면역체계를 강화하고 혈관에 혈전을 생기지 못하게 하는 프로스타글란딘의 생성을 촉진하여 노화예방에 기여. -갱년기여성, 갱년기 장애 및 여성성들의 생리통 경감 및 호르몬 조절을 통한 생리불순 개선 월경전조증을 나타내는 여성에게는 필수지방산의 함량이 낮게 나타나는데, 감마리놀렌산에서 유도된 프로스타글란딘은 필수지방산의 레벨을 정상적으로 유지시키며 호르몬의 변화를 안정화시키는 작용을 하여 월경전조증을 완화시켜줌. -피부건강 유지(건선피부, 아토피성피부, 습진, 알러지 등 피부염개선) 달맞이씨오일에 함유되어 있는 리놀렌닉산은 피부 세포로 흡수되어서, 피부노화와 건조를 방지하면서 피부에 영양과 활력을 오랜 기간 동안 공급해 줌.(액체로 된 달맞이꽃씨유를 섭취하면서 동시에 피부에 발라주면 효과가 좋을 것이다.) -비만증예방 지방조직을 자극하여 연소시킴으로서 비만을 방지하는데 도움. -콜레스테롤 개선작용 달맞이꽃씨유를 장기복용할 경우 고지혈증 환자의 콜레스테롤치가 저하되며, 특히 유익한 HDL콜레스테롤에는 영향을 주지 않고 몸에 해로운 LDL 콜레스테롤의 저하에만 작용. -기관지 천식환자나 비염 등 알레르기에 도움 -골다공증에 도움 -임신, 수유시 모자 건강에 유용 -&gt; 태아발달에 도움이 되며, 임신성 고혈압 예방효과 -음주를 많이 하는 사람에게도 효과 -어린이 건강: 과동증(Hyperactivity)에 효과 - 주위가 산만한 아이 ▶앞서 말씀드렸듯이 달맞이씨오일(기름) 드실 때 이왕이면 100프로짜리 액체로 된 달맞이씨오일을 구하는게 좋을 듯 싶습니다. 그리고 우리 몸에는 우리 식품이 좋듯이 국산 자연산 달맞이꽃씨로 짠 기름이 더욱 좋을 것입니다. 국산 중에서도 청정지역 지리산 쪽이 수질도 좋고, 토양, 공기 등이 좋아서 품질면에서 좋지 않을까 싶네요. 아무쪼록 좋은 국산달맞이씨오일 구하셔서 건강 관리 잘하셨으면 좋겠습니다. &lt;국산백수오&gt; - 백수오 중에서도 수입산 보다는 국산 백수오가 좋으며 자연산백수오가 재배산 보다 효과는 좋을 것입니다. 아무쪼록 재배산이든 자연산(야생)이든 국산토종백수오 구하셔서 드시면 좋겠습니다. * 이상 여성 갱년기에 좋은 음식에 관해 살펴보았습니다. 상기 음식들은 약이 아니기에 가정에서 챙기셔서 식품으로서 꾸준히 섭취하시면 건강에 여러모로 도움되시리라 생각합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=167728846&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=778&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>저희엄마 갱년기 맞나요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>저희 엄마가 지금 39세인데요... 요즘따라서 잠도 잘 못주무시고, 감정기복이 완전히 심해요... 저는 이제 중학교올라가는데 완전 공부스트레스에 엄마 비위에 마춰서 몇시간째 공부하면서 스트레스와 전쟁을.... 갱년기는 40대 중후반에 나타나는걸로 알고있는데, 40대도 안되었는데 이럴수가 있나요? 만약 갱년기 의심증상이면 거기에 좋은 약좀 강추부탁드려요~~</t>
+  </si>
+  <si>
+    <t>안녕하세요. 네이버 지식인/하이닥 산부인과 상담을 맡고 있는 전문의 심상인 입니다. 말씀하신 내용으로 볼 때 갱년기 증세 가능성이 있습니다. 하지만 정확한 것은 진찰을 해봐야 합니다. 완전한 폐경이 아니더라도 폐경기에 가까워지는 시기에 여러가지 증세가 나타날 수 있습니다. 폐경이란 난소에서 여성호르몬(에스트로겐)의 분비가 중지된 상태로 자각증상은 생리가 나오지 않는 것으로 알 수 있습니다. 자궁을 적출하여 생리가 없는 상태에서는 난소를 남겨두었다면 난소에서 지속적으로 호르몬이 분비되기 때문에 호르몬 검사를 해야 폐경인지 아닌지를 알 수 있습니다. (1) 폐경기(갱년기)의 진단 폐경기의 각종 증상이나 신체적 변화들이 느껴지는 경우, 혹은 생리가 멈춘 후 1년 이상이 경과한 경우 폐경을 의심할 수 있습니다. 폐경이 의심되는 경우에는 병원을 방문하여 호르몬 검사를 실시하여 확진을 하게 되며, 환자분의 상태에 따라 검사를 실시하게 됩니다. 폐경기(갱년기)에 실시하는 검사 자궁경부암 검사 초음파 검사 골밀도 검사 골대사 검사(혈액검사) 간기능검사, 빈혈검사, 신장검사 기타(상태에 따라 비만도 검사, 심전도 검사, 근력검사, 모발 영양검사 등) (2) 폐경기(갱년기)의 증상 폐경 후 감소하는 여성호르몬(에스트로겐)에 의해 여러가지 증상과 신체적 변화가 나타나게 되며, 폐경 전에는 드물던 각종 질환들이 증가하게 됩니다. 1) 폐경의 초기 증상 ; 안면홍조(얼굴 화끈거림) ; 불안 ; 불면증 ; 우울증 2) 폐경의 중기에 느끼는 신체적 변화 ; 질 건조감 ; 질 분비물 감소로 인한 성교통 ; 요실금 ; 피부 위축과 탄력감소 ; 질이나 외음부의 위축, 질염 3) 폐경 후기에 증가하는 질환 ; 골다공증 ; 치매 ; 심혈관계 질환(심근경색, 협심증, 중풍) ; 대장암 (3) 폐경기(갱년기) 치료란 폐경 후 신체내에서 감소하는 여성호르몬(에스트로겐)을 외부에서 약으로 보충해 주는 것을 폐경기 치료, 혹은 폐경기 호르몬 대체요법이라고 합니다. 현재 호르몬 약은 여러종류가 개발되어 있고 투여방법도 다양하기 때문에 환자분 개개인의 상태에 가장 적합한 약을 선택하여 투여할 수 있습니다. (4) 호르몬 치료에 대한 흔한 질문들 1) 호르몬 치료를 모든 사람이 꼭 받아야 되는가. 안면홍조나 식은땀, 불면증 등 급성 폐경기 증상이 나타나는 경우에는 3-6개월 정도 단기간 투여 후 지속적인 투여여부를 결정하시면 됩니다. 급성 폐경기 증상이 없더라도 요실금이나 분비물 감소로 인한 성생활 장애, 골밀도 감소 등이 있는 경우에는 호르몬 치료를 하시는 것이 좋습니다. 2) 호르몬 치료를 받으면 어떤 좋은 점이 있나. 일단 폐경으로 인해 생겨난 여러 증상과 신체적인 변화가 없어집니다. 안면홍조 ; 수일에서 수주만 투여해도 증상이 사라짐. 질 건조감, 우울증,불면증,요실금 등 ; 3-6개월 정도의 투여로 호전됨. 골다공증이나 치매 예방은 물론 폐경 후 여성의 가장 큰 사망원인인 심혈관계 질환의 발생을 50% 까지 감소시킵니다. 3) 폐경이 된지 오래되었는데 지금 시작하면 너무 늦지 않은가. 사실 호르몬 대체요법은 생리가 있더라도 폐경기 증상이 나타나거나, 증상이 없어도 폐경 후 곧 실시하는 것이 가장 바람직하고 효과도 좋습니다. 하지만 아무리 늦은 나이에 시작하더라도 결코 늦은 것이 아닙니다. (5) 호르몬 치료의 방법 크게 생리를 하는 방법과 생리를 안하는 방법으로 나눌 수 있습니다. 투여방법에 따라 먹는 방법, 파스처럼 붙이는 방법, 질정으로 투여하는 방법, 피하에 호르몬 분비 캡슐을 심는 방법, 주사로 맞는 방법 등이 있습니다. 투여방법이나 종류의 선택은 환자분의 선호도, 피검사 결과, 과거에 앓았던 질환이나 현재 앓고 있는 질환, 투여중인 약물 등등에 따라 조절하게 됩니다. (6) 생리를 하는 것과 안하는 약은 차이가 있는가. 생리를 하는 약과 안하는 약, 먹는 약과 붙이는 약의 약효 차이는 없습니다. (7) 호르몬 대체요법을 시작한 후 유방통이 생겼는데 유방암이 아닐까. 호르몬이 유방조직에 영향을 주기 때문에 유방이 전보다 아프게 느껴지는 현상이 생길 수 있습니다. 또한 폐경 전에 생리통이 있던 경우, 호르몬 치료를 시작하면서 다시 생리통이 생길 수도 있습니다. 이런 증상들은 호르몬이 정상수치로 돌아오면서 생길 수 있는 자연스러운 증상입니다. (8) 페경이행기의 호르몬 치료 ; 폐경이행기란 완전히 폐경이 되기 전의 시기를 말하는 것으로 이 시기에는 생리가 불규칙하게 변하고 대량의 부정기 자궁출혈(생리때가 아닌데 출혈이 있는 경우)이 생기기도 하는 시기입니다. ; 이 시기는 폐경기와는 또 다른 시기로 폐경기 호르몬 대체요법과 다른 약제를 사용하여 호르몬 치료를 하게 됩니다. ; 치료의 목적은 부정기 출혈이나 예기치 못한 임신을 막고 골밀도 감소, 폐경기 증상의 예방을 위해 실시하게 됩니다. ; 주로 저용량 경구피임약이나 황체호르몬 제제(프로게스테론 제제)를 사용하여 치료를 하게 되며 정기적으로 피검사를 실시하여 폐경기 호르몬 약제로 바꾸어 주게 됩니다. ; 경구피임제 사용에는 피임이나 골다공증 예방 외에도 다음과 같은 여러가지 잇점이 있습니다. 자궁내막암과 난소암의 발생율 감소 자궁내막증 감소 자궁근종의 크기 감소 양성 유방질환 발생율 감소 류마티스 관절염의 증상 완화 동맥경화증 감소 난소낭종의 발생율 감소 (9)각종 질환과 호르몬 대체요법의 관계 1) 유방암 ; 현재 유방암이 있는 경우 호르몬 치료는 하지 않는게 좋습니다. ; 유방암 발생은 호르몬 치료의 기간과 관련이 있습니다. 5년 이하의 경우 발생위험도가 증가하지 않으나 5년 이상의 경우 위험도가 증가할 수 있습니다. 12-15년 이상 받는 경우 유방암 발생 위험도가 1.4배 증가합니다. ; 호르몬 치료를 하는 경우 유방암 검사를 정기적으로 받기 때문에 오히려 암을 조기에 발견할 수 있는 장점이 있습니다. ; 유방암 가족력이 있는 경우 발생율이 더 증가하기 때문에 다른 사람보다 5년 먼저 검진을 시작하는 것이 좋습니다. 2) 자궁내막암 ; 여성호르몬을 단독으로 사용하는 경우 발생위험도가 2-8배 정도 증가하지만 황체호르몬과 병용하는 경우에는 위험도가 증가하지 않으며 오히려 감소한다는 연구보고도 있습니다. 3) 자궁내막암이나 유방암의 과거력 ; 에스트로겐 투여의 금기증이 아닙니다. 4) 자궁근종 및 선종 ; 호르몬 치료의 금기증이 아닙니다. ; 다만 선종이 심하거나 자궁내막에 점막하 근종이 있는 경우 불규칙한 출혈을 일으킬 수 있습니다. ; 폐경 후 6개월이 지났는데도 자궁근종이나 선종이 크기가 감소하지 않거나 커지는 경우에는 근종적출이나 자궁적출 등의 치료방법을 고려하는 것이 좋습니다. 5) 난소암, 자궁경부암 ; 난소암 발생에 대한 보호작용이 있는 것으로 생각되고 있습니다. ; 자궁경부암에 대해서는 아무런 영향을 주지 않으므로 안심하고 사용해도 됩니다. 6) 대장암, 직장암 ;호르몬 대체요법은 대장암의 상대적 발생위험도를 1에서 0.7-0.8 로 낮추며, 발생빈도를 50% 까지 낮추어 줍니다. 7) 갑상선 질환 ; 과거, 혹은 현재 갑상선 질환이 있는 경우 골다공증의 위험도가 더 높기 때문에 호르몬 대체요법이 필요합니다. 8) 간질환 ;간질환의 발생과는 연관이 없는 것으로 알려져 있습니다. ; 투여 전 피검사에서 간기능 수치가 좋지 않았던 여성은 투여를 연기하거나 경피요법을 사용하는 것이 좋습니다. ; 만성적인 간질환이 있는 경우에도 경피적인 방법으로 투여할 수 있습니다. 9) 고 콜레스테롤혈증 중성지방 수치는 호르몬 대체요법의 투여방법을 결정짓는 아주 중요한 요소이므로 반드시 호르몬 투여전에 검사를 하는 것이 좋습니다. 10) 고혈압 ; 호르몬 치료는 고혈압에 별다른 영향을 주지 않습니다. ; 그러나 경구 복용 시 소수의 환자에서 혈압이 증가하는 경우가 있으므로 호르몬 치료 시작 후 3주 가량은 혈압을 주의해서 관찰하는 것이 좋습니다. 11) 당뇨 ; 당뇨 환자들은 심혈관계 질환의 발생 위험도가 증가하는데, 호르몬 대체요법이 그 위험도를 감소시켜 줍니다. 12) 시력감퇴 ; 에스트로겐 대체요법은 노령화로 인한 망막변성의 발생을 감소시킵니다. ; 기타 폐경기와 관련된 안과적 증상인 시력감퇴와 안구건조감의 증상도 호전시킬 수 있습니다. 13) 치아손실 ; 치아 손실이나 여성호르몬 감소로 인한 구강 점막의 건조와 위축, 잦은 염증, 폐경 후 목소리 변화 등도 호전됩니다. (10) 호르몬 대체요법의 부작용 ; 약 10% 정도에서 나타날 수 있습니다. ; 대부분의 부작용은 수개월간 사용하면 점차적으로 사라지는 경우가 많습니다. 오심, 담즙결석, 체내수분양 증가, 두통, 생리양 감소, 다모증, 담즙정체, 체중증가, 편두통, 비정상적인 출혈, 불안,우울, 피곤함, 목소리 변성, 복부 팽만감, 다리동통, 유방통, 성욕감퇴, 여드름,식용증가 등 ; 부작용 발생 시 병원을 방문하여 적절한 조치를 받으시는게 좋습니다. (11) 폐경기 호르몬 대체요법 시 실시하는 검사 1) 기본 검사 ; 호르몬 검사와 금기성 질환에 대한 문진 실시 ; 혈압측정 ; 자궁경부암 검사 ; 유방암 검사 ; 피검사--- 간기능, 신장기능, 콜레스테롤 등 검사 ; 골밀도 측정 2) 추적 검사 ; 기본 검사 항목을 필요에 따라 6개월-1년 간격으로 실시합니다. 이상 저의 답변으로 궁금증을 해소하는데 도움이 되었다면 기쁘겠습니다. 님의 고통을 조금은 이해합니다. 하지만 이번이 좋은기회가 될 수 있겠네요 효자노릇말이예요. 님의 말씀처럼 갱년기는 폐경기 전후로 45세~55세쯤 나타나는게 보통입니다. 더 정확한 증상이 어떤것인지 궁금하네요. 안면홍조나 소화불량, 우울증, 건망증 등등 조금 심한증상이 어떤것인지 말씀이 없어서 갱년기라 판단하기 어렵네요. 그냥 일시적인 스트레스성 질환인지.... 갱년기는 여성호르몬의 불균형으로 발생합니다. 거의 대부분의 여성들은 그냥 지나가기도 하지만 심할경우 우울증이나 골다공증같은 질병으로 좋지않은 상황까지 가게 됩니다. 님의 어머님께서는 증세나 나이로 봐도 그다지 걱정할 시기는 아닌것 같네요 다만 모든 병은 예방이 가장 좋은 방법입니다. 요즘 갱년기 영양제가 시중에 많이 나와 있습니다. 잘 알아보시고 어머님께 말씀해 주세요. 님의 고민에 도움이 되었으면 좋겠네요 먼저, 갱년기 여부를 판단하기 위해서는 체내 호르몬 불균형 여부를 타액(침)속의 활성 호르몬 농도를 검사해 볼 필요가 있습니다. 환경 호르몬 등의 영향으로 의외로 이른 시기(30대 중반)에도 갱년기가 올 수 잇는 것으로 보고되어 있습니다. 감정이 기복이 심한 원인 중의 하난가 체내 에스트로겐 호르몬의 우세현상 때문일 수도 있습니다. 이럴 경우 생리시에도 통증이 유발될 가능성이 있을 것 같은데... 일단, 프로게스테론 호르몬의 분비가 부족할 경우라면, 피부에 바르는 천연 프로게스테론 크림을 사용하시면 좋은 효과를 기대하실 수 있습니다. 갱년기 장애(폐경)은 40대 후반~50대 초반의 여성에게서 일어나는 증상을 말하는데, 일반적으로 갱년기가 되면 난소의 기능이 쇠퇴하여 여성생리의 상징이라고 할 수 있는 월경이 폐지되고 신체적, 생리적, 정신적으로 여성의 몸에 변화가 일어나며, 여러가지 증상이 나타납니다. 그러나 요새는 20~30대의 스트레스와 규칙적이지 못한 식습관으로 갱년기 증상이 발생하는 사례가 종종 있다고 합니다. 월경불순, 안면홍조, 불면증, 정신적인 장애로 생기는 불안, 초조, 심계, 우울증, 이상성감증, 등등의 증세가 있는데 아래의 자가 진단법을 통해서 알아볼 수 있습니다.(대략적으로 70점이상이면 갱년기증상 을 의심해야 합니다) 갱년기 증상은 20~30대에서도 스트레스와 규칙적이지 못한 식단으로 여성호르몬이 불균형해지면 일어날 수 있습니다. 이러한 갱년기 증상은 미리미리 예방하는것이 가장 중요합니다! 갱년기에는 생식주기가 정상이고 월경이 정상적으로 분비 될 때는 주기마다 호르몬들의 뇌의 시상하부의 명령에 따라 적정한 호르몬을 분비해서 주기를 조정하는데 갱년기에 이르는 원인은 확실하게 밝혀지지 않았으나 분비되는 호르몬의 양이 많거나 줄게 되면서 사춘기 이후에 호르몬의 양이 큰 폭으로 변하는 시기를 경험하게 됩니다. 그래서 갱년기에 접어들면 여러 불편한 증상들이 동반되는데 갱년기 이전 생식주기에 따라 정상적으로 분비되던 호르몬분비에 불균형이 생겨서 불면증과, 안면홍조, 발한, 기분저하, 우울증, 골다공증 같은 증상들이 생깁니다. 이런 증상을 늘 그래왔던 것처럼..많이들 참고 불편함을 감수하시려고 하는데 갱년기의 증상이 다른 사람이 느껴질 정도로 불편하게 나타난다면 비단 갱년기의 문제만이 아닌 전체적인 건강상태와 더불어 복합적인 이유로 증상이 나타난다고도 할 수 있습니다. 갱년기이후 폐경이 된 상태로 30년 정도를 더 살아가야하는 여성의 삶에서 볼 때..불편한 것을 그때그때 고치고 여성 자신의 우아하고 건강한 중년을 위해서 노력과 투자를 아끼지 않아야 한다고 생각합니다. 관리와 치료여하에 따라 얼마든지 증상을 완화시킬 수 있으니 어머님을 모시고 여성전문 한의원에 내원하시어 갱년기질환과 어머님의 건강까지 전문적인 치료를 받으실 수 있도록 하셨으면 합니다. 좀더 궁금하신 사항은 제가 여성질환을 연구하고 있는 한의사라 블로그를 운영하고 있는데 제 지식인네임카드에 있는 블로그를 방문하셔서 방명록에 비공개로 질문을 남겨주심 성실하게 답변드리도록 하겠습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=125971022&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=846&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>50대 주부입이다...자궁근종이 2개있어요...폐경 인것 같아요....갱년기 증상이 심해서 석류즙 먹고 싶은데 먹어도 될까요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식iN 산부인과 상담의 한상훈 입니다. 네 정기적으로 근종 크기 확인하면서 드셔 보세요. 도움이 되셨기를 바랍니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=405234666&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=918&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>저희어머니가 갱년기신가요?? 타로/별자리</t>
+  </si>
+  <si>
+    <t>저희어머니께서 올해 51세 되십니다 헌데 요즘들어서 갑자기 더웠다 추웠다하시고 더울땐 땀도 막나고 하시나봅니다 그냥 앉아만계셔도 그러셔서 왜그러신지 알고싶네요 갱년기같다고 하시는데 갱년기를 자세히 아는것도아니라서요... 만약 갱년기라면 혹은아니라도 이런증상을 치료할수있는 약이나 치료좀 자세히알려주세요 부탁드립니다 폐경여부는 잘모릅니다</t>
+  </si>
+  <si>
+    <t>안녕하세요1 대한의사협회 산부인과 전문의 정화경입니다. 말씀하시는 증상은 전형적인 갱년기 증상입니다. 병원을 방문하셔서 호르몬상태를 체크해보시고, 처방을 통해 증상을 완화시킬 수 있습니다. 안녕하세요..갱년기는 여성의 생리가 완전하게 멈추는 폐경이 되기전과 후의 어느 일정한 기간을 말합니다. 폐경이라는 생리가 끊기는 현상은 갑자기 나타나는 것은 아니고 그 전후로 바뀐 생식호르몬에 몸이 적응하는 기간을 갖는데 이른바 이것을 갱년기라고 합니다. 한국여성은 평균 50세를 전후로 폐경을 맞고 있습니다. 그래서 현재 어머님의 연령상 갱년기시기이신 것 같고 더웠다,추웠다 하는 증상도 갱년기의 대표증상이 맞기는 합니다. 다만 갱년기는 병이라기 보다는 노화로 인한 자연스런 현상이므로 따로 치료가 필요하지는 않지만 갱년기의 여성호르몬의 변화 뿐 아니라 그동안 일생동안 어떠한 건강관리를 해왔느냐에 따라 갱년기증상의 개인차가 심한 것은 사실입니다. 따라서 갱년기 증상이 견디기 힘들정도로 느껴진다면 갱년기전문한의원을 통한 갱년기치료를 받아보시는것도 권해 드립니다. 요즘에는 갱년기전문 한의원을 통해 갱년기증상과 함께 그동안 살면서 불균형화된 건강까지 챙기 시는 여성분들이 많으십니다. 그저 지나가는 일이니 참으세요‘ 라는 것 보다는 적극적으로 건강한 노후를 위해 준비해 보시는 것이 어떨까 합니다. 전화상담이라도 해보시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=109376083&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=934&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 증상인가요? 타로/별자리</t>
+  </si>
+  <si>
+    <t>제나이 50인데요 몇일전부터 몸에서 열이후근났다 말았다하고 월경도 몇달걸렸다하곤합니다 갱년기같은데 병원가서진찰하고 호로몬을 먹으라는데 먹는게날까요?안좋다는 말도 많아서요?</t>
+  </si>
+  <si>
+    <t>안녕하세요. 하이닥-네이버 지식 iN 산부인과 상담의 이형근 입니다. 폐경기는 40대 중반부터 나이가 증가함에 따라 나타나며 생리가 완전히 없어지는 폐경이 나타난 이후의 약 1년까지를 폐경이행기 또는 갱년기라고 부르며 이 기간은 약 4~7년 정도 입니다. 여성의 노화와 더불어 난소의 기능이 저하되고 배란 및 여성 호르몬 생산이 중단되면서 폐경기 현상이 나타날수 있습니다. 갱년기의 가장 흔한 증상은 여성호르몬 결핍으로 생리가 불규칙해지고, 안면홍조, 발한, 피로감, 우울감, 기억력 장애등이 동반되기도 합니다. 또한 여성호르몬 결핍으로 비뇨생식계 위축에 따른 질건조감, 성교통, 질 감염등의 증상이 나타날수 있습니다. 여성의 약 20%는 갱년기 증상이 심하게 나타나며 수면장애를 겪기도 합니다. 폐경기 증상은 규칙적 운동과 호르몬 치료로 완화시킬수 있습니다. 규칙적인 운동은 근력의 강화 및 골밀도를 증가시켜 골절의 예방에도 도움이 되며 폐경기 이후 생식기 위축 및 성교통, 비뇨생식기 감염등은 국소적 호르몬 제제의 간헐적 투여로 효과가 있습니다. 폐경은 여성의 자연스러운 신체의 변화과정이므로 전문의와 상담후 호르몬 치료및 관리를 하시기 바랍니다. 답변이 도움이 되셨으면 합니다. 감사합니다. 여성 갱년기가 찾아오는 원인은 여성호르몬이 부족해서 생기는 것임을 잘 아실 듯 싶어요. 그래서 갱년기 영양제를 살펴보면 식물성 여성호르몬(에스트로겐)이 함유된 식품들을 원료로 해서 만든 것들이 많습니다. 효과 보신 분들도 꽤 계시더라구요. 그리고 감마리놀렌산이 들어 있는 식품(달맞이씨오일)도 갱년기에 좋은 식품이겠습니다. 갱년기에 좋은 음식으로 많이 알려진 식품으로는 칡뿌리생즙, 달맞이씨오일(기름), 국산백수오, 산당귀, 겨울가시홍화씨, 석류, 대두(콩) 등이 있습니다. 딱히 나쁜 음식은 없사오나 술, 담배, 인스턴트 식품 등은 자제하시는 것이 좋겠습니다. 이 중 가장 추천해드리고 싶은 것은 '칡뿌리생즙과 국산달맞이씨오일, 국산백수오' 등 입니다. 저희 친지분들과 어머님께서도 칡뿌리생즙,달맞이씨오일 등을 매일 드시는데 갱년기뿐 아니라 건강에 여러모로 도움되고 있거든요.(칡뿌리생즙 업체 소개해달라는 분들이 계시는데 네이버 지식인 정책상 상호는 알려드리지 못하는 점 양해 바랍니다. 칡뿌리생즙 등을 검색하시기 바랍니다.) 주변분들께도 선물을 했는데 모두 좋아해서 추천합니다. 국산토종 겨울가시홍화씨도 좋은데 갱년기, 특히 골다공증이나 관절염 등 뼈질환에 더욱 좋습니다. 여유되신다면 겨울가시홍화씨환도 괜찮구요. 달맞이씨오일 또한 갱년기에 좋은 식품으로 알려져 있는데 이는 필수지방산인 감마리놀렌산이 갱년기에 도움된다고 하더라구요. 또한 국산백수오, 참당귀 등은 여성에게 매우 좋은 식품으로 알려져 있습니다.(칡뿌리생즙 등과 함께 드시면 더욱 좋겠네요.) 왜 국산이 좋은가하면은요, 신토불이라는 말이 있습니다. 인간은 환경에 적응되어 살고 있습니다. 똑같은 식물, 동물이라도 각 나라마다 환경이 다르기에 성장과정과 성분 등에서도 차이가 나겠습니다. 요즘 우리나라 사람들(특히 아이들)이 서구음식을 먹어서 병이 많이 늘어난다고 합니다. 이는 우리 몸에는 우리 땅에서 난 것이 제일 좋을 것인데 체질에 잘 맞지 않는 서양음식 섭취로 인해 질병이 늘어나는 것이겠지요. 추가로 말씀드리자면 재배산 보다는 아무래도 자연산이 좋을 것입니다. 재배산 중에서도 저농약보다는 무농약, 무농약보다는 유기농법으로 재배한 것이 좋겠지요. 유기농법보다는 자연 농법이 좋겠습니다. 자연 농법이라면 쉽게 말해 장뇌삼을 떠오르면 되겠지요. 무엇보다 자연상태에서 야생적으로 자란 것이 가장 좋습니다.(농약, 화학비료 등 걱정이 없고 맑은 공기와 좋은 물, 산의 정기를 머금었기에 품질면에서 가장 좋습니다. 인삼과 산삼을 비교했을 때 산삼이 비교할 수 없을 만큼 좋은 품질입니다. 그렇기에 그만큼 값이 비싸겠지요.) 달맞이씨오일(기름)도 우리 땅에서 자연적으로 야생상태로 자란 달맞이씨로 해서 만든 것이 개인적으로는 제일 좋지 않나 생각합니다. 참 그리고 달맞이씨오일(기름)도 일종의 기름이온데 환으로 만든 제품은 어차피 물로 먹어야 하는데 기름성분이 물로 합쳐진다면 어떨까 싶네요. 제 생각으로는 액체로 된 달맞이씨오일을 그대로 드시는게 흡수율도 좋고 건강에도 좋다고 생각합니다.(달맞이씨오일 등을 드실 때는 가급적 물을 드시지 않는게 좋을 것입니다.) 아래는 갱년기(폐경기)에 관한 내용을 나름 알아봤는데 도움되셨으면 좋겠습니다. --------------------------------------------------------------------------------------- 갱년기는 누구나 피할 수 없는 것이지만 찾아오는 방법이나 그 증상의 정도는 천차만별이다. 그럼 이러한 차이는 어디에서 오는 것일까? 첫 번째는 자율신경의안정도. 갱년기 증상의 대부분이 자율신경의 실조에 의해 일어나는 것이므로 체질적으로 자율신경이 불안정한 사람일수록 그 증상이 심하고 오래 간다. 기분전환을 잘 하지 못하고 작은 일도 크게 고민하는 사람, 신경질적이고 자기중심적인 사람 등이 장애를 일으키기 쉽다. 이와 같은 사람들은 몸의 작은 변화에도 민감하게 되고 불면, 초조, 불안 등 정신적인 증상을 동반하는 경우도 많다. 두번째는 생활습관이다. 즉 갱년기는 '인생의 끝'이 아니라 이를 계기로 ‘제2의 인생'을 살아가려는 마음가짐과 생활태도가 중요하다. 따라서 규칙적인 운동이나 자신의 능력을 살려 일을 갖거나 취미생활로 적극적인 삶을 살아가려는 사람들은 갱년기를 그리 혹독하게 겪지 않는다. 갱년기는 신체 여기저기에서 노화의 징조가 나타나 육체적인 면에서 볼 땐 불안정한 시기이기도 하지만 한편으로는 자신만의 삶을 즐길 수 있는 멋진 터닝포인트가 될 수 있다는 점을 잊지 말아야한다. [갱년기에 좋은 운동이나 음식] 1. 운동 갱년기 증상을 예방하고 치료하는데 도움되는 운동으로는 때와 장소를 가리지않고 손쉽게 할 수 있으며 인체의 순환기능을 향상시키는 심폐지구력 운동과 전신을 사용해 일정 시간동안 리듬을 유지하며 지속할 수 있는 유산소성 운동이 제격. 예를 들면 맨손체조, 유연체조, 산보, 걷기, 등산, 자전거 타기, 노젓기, 골프, 수영 등이 적당하며 동시에 스트레칭 체조나 요가 등을 수시로 반복하면 더 큰 효과를 볼 수 있다. 굳이 운동을 않더라도 본인이 좋아하는 운동을 관전함으로써 정신적 긴장을 완화시키고 스트레스를 푸는 것도 좋은 방법이다. 운동시간은 강도에 따라 15~45분 정도를 본운동 시간으로 하고 점차 익숙해지면 1회 운동시간이 최소 30분 이상 되도록 한다. 평소 운동 경험이 없거나 체력수준이 낮은 사람, 만성질환의 위험이 높은 사람의 경우, 운동으로 인한 상해를 예방하기 위해 처음에는 낮은 강도에서 시작해 점차 운동 강도를 높여 가는 것이 좋다 운동빈도도 매일 해야 한다는 강박관념을 버리고 격일이나 일주일에 3회 정도로 시작해 점차 주당 5회 이상으로 늘여 가는 것이 바람직하며, 스트레칭 체조는 언제라도 여유 있는 시간에 즐거운 마음으로 반복해 보도록한다.(출처 : 보건소) 2. 음식(식품) 식물성에스트로겐이나 칼슘성분이 많은 음식이 좋다.. 식물성에스트로겐이 가장 많은 식품으로는 칡이며, 그 외 콩(대두), 석류 등이 좋을 것이다. 칼슘이 많은 식품으로는 홍화씨, 멸치, 우유, 연어 등일 것이다.. 그외에도 수많은 식품(달맞이꽃씨오일 등)들이 있으나 이정도면 충분할 것이다. 아래 내용은 어디서 퍼온 것인데 참고하셨으면 합니다. 요즘 갱년기, 골다공증 등으로 고생하시는 분들이 많으신 거 같은데, 그분들에게 도움이 되었으면 하는 바람입니다. 갱년기, 폐경기 등에 칡이 좋다고 합니다. 제 어머님도 도움되었답니다. 칡에는 식물성에스트로겐이 대두보다 30배, 석류보다 625배나 많다네요..아마 칡에 가장 많이 들어있을 거예요. 미녀는 석류를 좋아해라기 보다 칡을 좋아해가 맞지 않나 싶습니다. 골다공증에는 칡과 함께 홍화씨가 좋습니다. 뼈에 관련된 질환(골다공증, 골절 등)에 홍화씨 만한게 없으니까요.. 제가 알기로는 홍화씨엔 칼슘과 함께 백금성분이 들어 있습니다. 그게 뼈에 좋다네요. 우리가 가정에서 칼슘(멸치, 우유 등) 섭취를 하지만 왜 골다공증등이 생길까요.. 그건 우리 몸에서 칼슘 흡수가 잘 안된다네요.. 칡은 칼슘흡수를 도와주고 뼈속에서 칼슘이 방출되지 않도록 도와주는 성분이 있어서 칼슘음식(홍화씨, 멸치, 우유)등과 함께 드시면 골다공증에 아주 좋다고 하더라구요 이 중 몇가지에 대해 말씀드릴게요. &lt;칡뿌리생즙&gt; 1)갱년기 및 폐경기 - 칡뿌리생즙에는 식물성 에스트로겐이 석류의 625배, 대두의 30배나 많기 때문에 폐경기및 갱년기치료에 효과적입니다.(산후조리에도 좋습니다.) 2) 고혈압 및 당뇨병 - 식이섬유와 사포닌이 풍부한 칡뿌리생즙은 심장병, 고혈압, 당뇨, 성인병, 암 예방에 효과적입니다 또한 성장 호르몬도 풍부하여 어린아이들에게 많은 도움을 줍니다. 3) 골다공증 - 칡뿌리생즙의 다이제드인이 골다공증을 예방하는데 매우 효과적입니다. 그러므로 칡뿌리생즙을 홍화씨, 달걀,우유, 멸치,연어등과 함께 드시면 인체에서 칼슘이 흡수되는 것을 도와주기 때문에 골다공증 치료에 매우 좋습니다. 4) 만성 변비 치료 식이섬유가 풍부하여 만성 변비 치료에 탁월한 효능이 있습니다. 5) 간기능 강화및 숙취해소 - 카테인이 풍부한 칡뿌리생즙은 간기능을 활발하게 하여 간을 건강하게 만들어 줍니다. 동의보감에 따르면, 칡뿌리생즙은 간기능 강화 및 숙취해소에 효과가 뛰어나다고 합니다. 6) 노화방지 - 신진대사를 촉진시키는 칡뿌리생즙은 체력을 유지시켜주고 노화예방에 탁월한 효능이 있습니다. 7) 중금속 분해 및 배출 - 포리페놀 성분이 함유된 칡즙은 중금속을 인체로부터 배출해 주는 효능이 있습니다. 요즘 대기오염,특히 황사가 일어날때 중금속에 쉽게 노출될 수가 있는데 평상시에도 칡뿌리생즙을 드시면 중금속 중독을 예방하실 수 있습니다.(먼지 등이 발생할 수 있는 산업현장에서 일하시는 분들이 드시면 좋습니다.) - 청정지역으로서 게르마늄이 풍부하며 비옥한 토양과 맥반석 암반수의 수질을 자랑하는 경남함양 지리산 일대에서 캔 야생 칡뿌리는 좋은 조건을 갖춘 칡뿌리라고 할 수 있기에, 개인적으로 방송에서도 몇번 소개된 지리산 함양의 칡뿌리생즙을 이용하는데 추천하고 싶은 식품입니다. 아래는 kbs 비타민에 나온 내용 중 일부 요약해서 말씀드리겠습니다. &lt;&lt; NEW 위대한 밥상! young 茶 시리즈!&gt;&gt; ♦ 심장을 젊어지게 하는 방법! 심장을 젊어지게 하려면, 심장의 혈액순환을 원활하게 하고, 심근 수축력을 활발하게 유지 하는데 도움이 되는 영양소와 심장근육을 튼튼하게 하는 단백질 식품, 혈관벽을 건강하게 해줄 항산화영양소가 든 식품을 자주 섭취하는 것이 좋다. 또한 혈압이 높으면 심장에서 혈액을 내보내기 힘들기 때문에 혈압을 낮출 수 있도록 싱겁게 먹는 식습관이 무엇보다 중요하다. 여기에 심근 손상을 막아주는 식품까지 챙겨 먹는다면, 심장을 더욱 젊고 건강하게 만들 수 있다. ▷ 어떻게 칡이 심장을 젊어지게 하는데 도움이 될까? 칡에는 이소플라본의 일종인 프에라린이라는 생리활성물질이 들어있다. 프에라린은 항산화효능이 뛰어난 물질로 심근 손상을 막아 심장을 보호하고, 혈관을 이완시켜 혈액순환을 도우며, 혈중 LDL-콜레스테롤 수치를 낮추는 역할을 한다. 특히 심근경색 상태의 심장조직에서 새로운 혈관을 만들도록 하여 심장병 치료에도 도움이 된다. 결국, 심장을 젊어지게 하는데 칡이 많은 도움이 되는 것이다. ▷ 칡은 즙이나 차로 많이 이용하지만... 냉면이나 전을 만드는 칡전분이나 칡가루도 있다. 칡을 이렇게 이용해서 먹는 것도 도움이 될까? 칡 전분은 칡을 물과 함께 갈아서 전분만 가라앉힌 것이다. 즉 탄수화물 성분이 주로 들어 있고, 생리활성물질은 상대적으로 적은 양 들어있다. 또 칡가루는 칡을 그대로 갈은 것이어서 생리활성물질은 모두 들어있지만, 식이섬유소가 많아서 흡수율은 조금 낮은 편이다. 그렇지만 칡즙이 기호에 맞지 않는 경우에는 칡전분이나 칡가루를 다양한 요리에 활용해서 즐기는 것도 좋은 방법이다. &lt; 자료출처 : KBS비타민 &gt; --------------------------------------------------------------------------------- 요즘 석류.콩 등 여성호르몬(에스트로겐)과 유사한 물질이 들어 있다는 식품들이 대박이다. 폐경기 여성이 호르몬제 대신 식물성 에스트로겐이 든 식품을 먹으면 얼굴이 화끈거리고 밤에 잠이 오지 않는 이른바 갱년기증후군을 완화시킬 수 있다는 믿음 때문이다. 이런 면에서 칡은 숨은 진주다. 칡가루엔 식물성 에스트로겐인 다이드제인(이소플라본의 일종)이 ㎏당 6.3g이나 들어 있기 때문이다. 울산대 식품영양학과 최석영 교수는 식물성 에스트로겐이 가장 많이 든 식품으로 칡을 꼽는다. 칡엔 식물성 에스트로겐이 콩의 열배나 들어 있고, 석류는 아예 비교대상도 되지 않는다는 것이다.(석류의 625배 : kbs '싱싱일요일' 방영) 따라서 중년 여성이 칡을 즐기면 폐경을 지연시키고 골다공증을 예방하는 효과를 얻을 수 있다. 칡은 또 예부터 숙취 제거에 사용돼 왔다. 동의보감에도 "주독을 풀어주고 입안이 마르고 갈증 나는 것을 멎게 한다"고 기술돼 있다. 최근엔 칡뿌리(갈근)가 알코올 섭취를 억제하는 효과가 있는 것으로 밝혀졌다.흰쥐를 이용한 실험에선 칡 추출물이 음주 뒤의 숙취 유발 물질인 아세트알데히드의 분해를 촉진한다는 사실이 확인됐다(영남대 식품공학과 조수열 교수). 이를 근거로 술 자리에 가기 전에 칡뿌리생즙. 칡차를 마시거나 칡뿌리 가루(갈분)를 먹어 알코올 분해효소를 미리 준비해두는 것이 조 교수식 건강 음주법이다. 술 자리에선 밥 대신 칡 국수를 주문하는 것도 방법이다. 숙취와 갈증을 덜어주는 칡차는 칡뿌리(30g)와 꿀, 그리고 약간의 물만 준비하면 집에서도 쉽게 만들 수 있다. 먼저 깨끗이 씻은 칡뿌리를 적당한 크기로 썬 뒤 절구에 넣고 찧는다. 그리고 면 보자기로 싸서 즙을 짜낸다. 이때 건더기는 건져 내고 즙만 따라내 꿀을 타서 마시면 된다. 칡뿌리생즙은 약이 아닌 우리나라의 전통 식품으로서 꾸준하게 섭취하신다면 건강에 도움되는 좋은 식품이라 할 수 있겠습니다. &lt;달맞이씨오일&gt; 아래는 달맞이씨오일 효능에 관한 내용이온데 참고하시기 바랍니다. -혈행개선 혈중 콜레스테롤 및 중성지방의 수준을 낮추어 혈전을 방지하며 혈액순환을 촉진. 노화예방 면역체계를 강화하고 혈관에 혈전을 생기지 못하게 하는 프로스타글란딘의 생성을 촉진하여 노화예방에 기여. -갱년기여성, 갱년기 장애 및 여성성들의 생리통 경감 및 호르몬 조절을 통한 생리불순 개선 월경전조증을 나타내는 여성에게는 필수지방산의 함량이 낮게 나타나는데, 감마리놀렌산에서 유도된 프로스타글란딘은 필수지방산의 레벨을 정상적으로 유지시키며 호르몬의 변화를 안정화시키는 작용을 하여 월경전조증을 완화시켜줌. -피부건강 유지(건선피부, 아토피성피부, 습진, 알러지 등 피부염개선) 달맞이씨오일에 함유되어 있는 리놀렌닉산은 피부 세포로 흡수되어서, 피부노화와 건조를 방지하면서 피부에 영양과 활력을 오랜 기간 동안 공급해 줌.(액체로 된 달맞이꽃씨유를 섭취하면서 동시에 피부에 발라주면 효과가 좋을 것이다.) -비만증예방 지방조직을 자극하여 연소시킴으로서 비만을 방지하는데 도움. -콜레스테롤 개선작용 달맞이꽃씨유를 장기복용할 경우 고지혈증 환자의 콜레스테롤치가 저하되며, 특히 유익한 HDL콜레스테롤에는 영향을 주지 않고 몸에 해로운 LDL 콜레스테롤의 저하에만 작용. -기관지 천식환자나 비염 등 알레르기에 도움 -골다공증에 도움 -임신, 수유시 모자 건강에 유용 -&gt; 태아발달에 도움이 되며, 임신성 고혈압 예방효과 -음주를 많이 하는 사람에게도 효과 -어린이 건강: 과동증(Hyperactivity)에 효과 - 주위가 산만한 아이 ▶앞서 말씀드렸듯이 달맞이씨오일(기름) 드실 때 이왕이면 100프로짜리 액체로 된 달맞이씨오일을 구하는게 좋을 듯 싶습니다. 그리고 우리 몸에는 우리 식품이 좋듯이 국산 자연산 달맞이꽃씨로 짠 기름이 더욱 좋을 것입니다. 국산 중에서도 청정지역 지리산 쪽이 수질도 좋고, 토양, 공기 등이 좋아서 품질면에서 좋지 않을까 싶네요. 아무쪼록 좋은 국산달맞이씨오일 구하셔서 건강 관리 잘하셨으면 좋겠습니다. &lt;국산백수오&gt; - 백수오 중에서도 수입산 보다는 국산 백수오가 좋으며 자연산백수오가 재배산 보다 효과는 좋을 것입니다. 아무쪼록 재배산이든 자연산(야생)이든 국산토종백수오 구하셔서 드시면 좋겠습니다. * 이상 여성 갱년기에 좋은 음식에 관해 살펴보았습니다. 상기 음식들은 약이 아니기에 가정에서 챙기셔서 식품으로서 꾸준히 섭취하시면 건강에 여러모로 도움되시리라 생각합니다. &lt;질문&gt; 제나이 50인데요 몇일전부터 몸에서 열이후근났다 말았다하고 월경도 몇달걸렸다하곤합니다 갱년기같은데 병원가서진찰하고 호로몬을 먹으라는데 먹는게날까요?안좋다는 말도 많아서요? &lt;답변&gt; 여성이 나이가 들면서 난소가 노화되어 기능이 떨어지면 배란 및 여성호르몬의 생산이 더 이상 이루어지지 않는데, 이로 인해 나타나는 현상이 바로 폐경이죠. 대개 1년간 생리가 없을 때 폐경으로 진단합니다. 이러한 변화는 대개 40대 중후반에서 시작되어 점진적으로 진행되는데, 이때부터 생리가 완전히 없어지는 폐경이 나타난 이후의 약 1년까지를 폐경이행기, 더 흔히는 갱년기라고 하며 그 기간은 평균 4~7년 정도입니다. 갱년기에 가장 흔하게 나타나는 증상은 생리가 불규칙해집니다. 또한 여성호르몬 결핍에 의한 증상이 나타나는데, 우리나라 여성의 50% 정도는 급성 여성호르몬 결핍 증상(안면홍조, 발한 등)을 경험하는 것으로 알려져 있어요. 그리고 약 20%에 해당하는 여성들은 갱년기 증상이 좀 더 심하게 나타나는데, 안면홍조와 함께 피로감, 불안감, 우울, 기억력 장애 등이 동반되기도 하고, 주로 밤에 증상이 나타나는 경우에는 수면 장애를 겪기도 한다고 합니다. 그외에 질염, 방광염, 배뇨통, 급뇨, 피부 건조와 위축, 근육통, 관절통, 골다공증까지 유발된다고 하니, 정말 호르몬 밸런스의 중요성을 다시 한번 생각하게 합니다. 연구기관에 의한 정보에 의하면 급성 여성호르몬 결핍 증상은 폐경 약 1~2년 전부터 시작되어 폐경 후 3~5년간 지속된다고 합니다. 현재 갱년기 후유증의 치료로 가장 많이 쓰이고 보편화된 방법은 여성호르몬인 에스트로겐을 주입하는 치료법이 있습니다. 그러나 여성호르몬인 에스트로겐 투여법은 혈액속의 호르몬수치를 증가시켜 유방암, 자궁내막암, 고혈압, 심혈관질환을 만들 가능성이 있다고 하여 효율성에 비해 안정성이 많이 떨어지고 있지요. 아주대학교 가정의학과 이득주교수는 식물성 에스트로겐인 백수오추출물을 섭취후 약 일주일 후면 갱년기 후유증의 50%이상이 개선되며, 장기복용시 골다공증, 동맥경화증, 고지혈증같은 질환을 개선시키는 특징이 있어 백수오추출물 투여법은 각종 암의 위험성이 큰 호르몬 투여법보다는 안정적이고 효과적이라 설명합니다. 백수오추출물(식물성 에스트로겐) 투여법은 여성호르몬 에스트로겐 투여법보다 효율이 뛰어나며, 각종 암유발 같은 부작용이 없는 점들을 높게 평가받아 한국식약청은 물론 미국의 FDA, 캐나다의 NPN 등에서 그 약효를 검증받고 세계인들의 갱년기 후유증 치료 대처법으로 자리잡고 있는 고마운 토종 한국 허브입니다. 백수오추출물도 에스트로겐과 마찬가지로 혈액을 타고 각 세포에 침투해 체질을 개선시키는 치료법이기에 혈액순환을 도와주는 당귀와 끊겨진 혈맥을 이어주는 속단과 같이 복용하면 그 효과가 배가 됩니다. 에코다이어트의 헬씨우먼 에스트로지는 이런 백수오, 속단, 당귀의 복합추출물로서 벌써 갱년기 후유증환자 분들에게 많은 도움을 드리고 있습니다. 일주일 정도만 복용했을뿐인데, 갱년기후유증의 대표적인 증상인 안면홍조, 피로감, 불안감, 우울, 기억력 장애, 근육통, 수면장애등이 아예 없어지거나, 현저히 떨어졌다며 감사의 연락을 받을 때마다 에코다이어트의 헬씨우먼 에스트로지의 효과에 매번 놀라고 감사하고 있습니다^^ 제가 드린 정보들 잘 활용하셔서 갱년기 후유증 이겨내세요~~ ps. 3월 3일에 sbs에서 방송된 [백수오의 재발견]에서 백수오추출물을 섭취후 갱년기증상이 개선되는 실험결과가 많이 나왔죠*^^* 이왕이면 방송프로그램에 나왔던 제품을 드시는게 더 신뢰성이 가겠지요? 방송마지막에 나오는 캡슐로 된 건강기능식품이 헬씨우먼 에스트로지입니다^^ 갱년기 후유증 에코다이어트의 헬씨우먼 에스트로지로 한방에 날려 버리세요*^^* 네임카드를 클릭하면 갱년기와 백수오에 관한 정보를 더 볼 수있습니다. 갱년기에 대해 질문을 해주셧는데요. 호르몬은 부작용도 있기 때문에 전문의에 정확한 진단에 따라 시행해야 하며 되도록 갱년기에 좋은 음식과 운동 등을 통해서 예방하고 증상을 호전하는 것이 필요합니다. 갱년기 여성은 여성호르몬 분비가 감소하기 때문에 뼈 건강에 중요한 칼슘을 충분히 보충해야 한다. 칼슘은 유제품, 말린 생선 등 어패류, 시금치, 다시마, 브로콜리, 두부 등에 많이 함유되어 있다. 칼슘의 체내 흡수율을 높이려면 비타민 D를 함께 섭취하는 것이 좋은데, 비타민 D는 햇볕을 쬐면 피부에서 생성되기도 하지만 낙농제품이나 등푸른 생선 등을 통해서도 얻을 수 있다. 갱년기와 함께 오는 우울증과 불면증 등을 해소하는데 좋은 영양소는 트립토판이다. 우유에 많이 들어있는 트립토판은 숙면을 돕고 우울감을 덜어주는 역할을 한다. 갱년기 여성이 불면증에 시달린다면 우유, 견과류, 닭고기 등 트립토판이 풍부한 식품들과 복합 탄수화물을 함께 섭취하는 것이 좋다. 갱년기를 정확한 지식으로 미리 예방하고 치료하시기 바랍니다, 단순히 약품에만 의존해서는 회복할 수 없습니다. 갱년기 증상 치료에 도움이 되셨으면 합니다. [갱년기 증상] 생리불순, 안면 홍조, 발한, 성교통, 질염, 방광염, 배뇨통, 급뇨, 집중장애, 불안, 신경과민, 근육통, 관절통 등 *갱년기는 정확한 지식으로 접근하셔야 치료가 가능합니다.* 갱년기는 호르몬의 이상으로 생기는 질병입니다. 인체의 호르몬 기능을 담당하는게 '핵산' 이라는 성분입니다. 우리 몸의 간과 신장에서 핵산이 충분히 잘 생성되면 호르몬계도 정상적입니다. 하지만 나이가 들고 몸이 약화됨에따라 핵산이 현저하게 부족하게 됩니다. 이때 오는 질병이!! 바로 갱년기 라는 것입니다...... 보통 갱년기때 호르몬주사 맞는 이유도 이러한 이유때문이죠~ 될수있다면 핵산이 풍부한 음식을 많이 드셔서 핵산을 충분히 공급받아 갱년기 증상에 도움이 되길 바랍니다. 추가적으로 갱년기는 감정적인 기복이 심해집니다. 긍정적인 마인드를 갖고 스트레스를 받지 않도록 주변인들이 주의한다면 갱년기장애로 오는 우울증을 피할 수 있습니다. * 건강은 정확한 지식으로 올바른 식생활 및 생활습관을 개선하실때 회복할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=171067017&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=937&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>갱년기 약에 대해서 질문합니다. 엮인 질문이란? Beta 타로/별자리</t>
+  </si>
+  <si>
+    <t>저희 어머니께서 이제 갱년기 증상이 오셨습니다. 그래서 제가 약국에서 약을 사다드렸는데 주변에서 갱년기 약은 의사와 상의한 뒤에 먹어야 된다고 해서 질문합니다. 약국에서 산 약을 그냥 약사가 처방해준대로 먹어도 됩니까? 아니면 의사와 상의한 뒤에 먹어야 되는지 궁금합니다. 그리고 약에 써져 있는 주의사항을 읽어보니 부작용이 있을 수 도 있다고 하는데 흔한 일인지도 궁금하고요. 약국에서 산 약은 종근당에서 나온 프라민큐 입니다. 꼭 알려주세요^ ^</t>
+  </si>
+  <si>
+    <t>안녕하세요. 네이버 지식인/하이닥 산부인과 상담을 맡고 있는 전문의 심상인 입니다. 약국에서 처방전 없이 구입하셨다면 전문의약품은 아닙니다. 그리고 모든 약은 자신의 몸 상태에 맞는 적절한 처방이 필요합니다. 병원에서 진찰 후 적절함 처방을 받으시는게 좋습니다. 폐경이란 난소에서 여성호르몬(에스트로겐)의 분비가 중지된 상태로 자각증상은 생리가 나오지 않는 것으로 알 수 있습니다. 자궁을 적출하여 생리가 없는 상태에서는 난소를 남겨두었다면 난소에서 지속적으로 호르몬이 분비되기 때문에 호르몬 검사를 해야 폐경인지 아닌지를 알 수 있습니다. (1) 폐경기(갱년기)의 진단 폐경기의 각종 증상이나 신체적 변화들이 느껴지는 경우, 혹은 생리가 멈춘 후 1년 이상이 경과한 경우 폐경을 의심할 수 있습니다. 폐경이 의심되는 경우에는 병원을 방문하여 호르몬 검사를 실시하여 확진을 하게 되며, 환자분의 상태에 따라 검사를 실시하게 됩니다. 폐경기(갱년기)에 실시하는 검사 자궁경부암 검사 초음파 검사 골밀도 검사 골대사 검사(혈액검사) 간기능검사, 빈혈검사, 신장검사 기타(상태에 따라 비만도 검사, 심전도 검사, 근력검사, 모발 영양검사 등) (2) 폐경기(갱년기)의 증상 폐경 후 감소하는 여성호르몬(에스트로겐)에 의해 여러가지 증상과 신체적 변화가 나타나게 되며, 폐경 전에는 드물던 각종 질환들이 증가하게 됩니다. 1) 폐경(갱년기)의 초기 증상 ; 안면홍조(얼굴 화끈거림) ; 불안 ; 불면증 ; 우울증 2) 폐경(갱년기)의 중기에 느끼는 신체적 변화 ; 질 건조감 ; 질 분비물 감소로 인한 성교통 ; 요실금 ; 피부 위축과 탄력감소 ; 질이나 외음부의 위축, 질염 3) 폐경(갱년기) 후기에 증가하는 질환 ; 골다공증 ; 치매 ; 심혈관계 질환(심근경색, 협심증, 중풍) ; 대장암 (3) 폐경기(갱년기) 치료란 폐경 후 신체내에서 감소하는 여성호르몬(에스트로겐)을 외부에서 약으로 보충해 주는 것을 폐경기 치료, 혹은 폐경기 호르몬 대체요법이라고 합니다. 현재 호르몬 약은 여러종류가 개발되어 있고 투여방법도 다양하기 때문에 환자분 개개인의 상태에 가장 적합한 약을 선택하여 투여할 수 있습니다. (4) 호르몬 치료에 대한 흔한 질문들 1) 호르몬 치료를 모든 사람이 꼭 받아야 되는가. 안면홍조나 식은땀, 불면증 등 급성 폐경기 증상이 나타나는 경우에는 3-6개월 정도 단기간 투여 후 지속적인 투여여부를 결정하시면 됩니다. 급성 폐경기 증상이 없더라도 요실금이나 분비물 감소로 인한 성생활 장애, 골밀도 감소 등이 있는 경우에는 호르몬 치료를 하시는 것이 좋습니다. 2) 호르몬 치료를 받으면 어떤 좋은 점이 있나. 일단 폐경으로 인해 생겨난 여러 증상과 신체적인 변화가 없어집니다. 안면홍조 ; 수일에서 수주만 투여해도 증상이 사라짐. 질 건조감, 우울증,불면증,요실금 등 ; 3-6개월 정도의 투여로 호전됨. 골다공증이나 치매 예방은 물론 폐경 후 여성의 가장 큰 사망원인인 심혈관계 질환의 발생을 50% 까지 감소시킵니다. 3) 폐경이 된지 오래되었는데 지금 시작하면 너무 늦지 않은가. 사실 호르몬 대체요법은 생리가 있더라도 폐경기 증상이 나타나거나, 증상이 없어도 폐경 후 곧 실시하는 것이 가장 바람직하고 효과도 좋습니다. 하지만 아무리 늦은 나이에 시작하더라도 결코 늦은 것이 아닙니다. (5) 호르몬 치료의 방법 크게 생리를 하는 방법과 생리를 안하는 방법으로 나눌 수 있습니다. 투여방법에 따라 먹는 방법, 파스처럼 붙이는 방법, 질정으로 투여하는 방법, 피하에 호르몬 분비 캡슐을 심는 방법, 주사로 맞는 방법 등이 있습니다. 투여방법이나 종류의 선택은 환자분의 선호도, 피검사 결과, 과거에 앓았던 질환이나 현재 앓고 있는 질환, 투여중인 약물 등등에 따라 조절하게 됩니다. (6) 생리를 하는 것과 안하는 약은 차이가 있는가. 생리를 하는 약과 안하는 약, 먹는 약과 붙이는 약의 약효 차이는 없습니다. (7) 호르몬 대체요법을 시작한 후 유방통이 생겼는데 유방암이 아닐까. 호르몬이 유방조직에 영향을 주기 때문에 유방이 전보다 아프게 느껴지는 현상이 생길 수 있습니다. 또한 폐경 전에 생리통이 있던 경우, 호르몬 치료를 시작하면서 다시 생리통이 생길 수도 있습니다. 이런 증상들은 호르몬이 정상수치로 돌아오면서 생길 수 있는 자연스러운 증상입니다. (8) 페경이행기의 호르몬 치료 ; 폐경이행기란 완전히 폐경이 되기 전의 시기를 말하는 것으로 이 시기에는 생리가 불규칙하게 변하고 대량의 부정기 자궁출혈(생리때가 아닌데 출혈이 있는 경우)이 생기기도 하는 시기입니다. ; 이 시기는 폐경기와는 또 다른 시기로 폐경기 호르몬 대체요법과 다른 약제를 사용하여 호르몬 치료를 하게 됩니다. ; 치료의 목적은 부정기 출혈이나 예기치 못한 임신을 막고 골밀도 감소, 폐경기 증상의 예방을 위해 실시하게 됩니다. ; 주로 저용량 경구피임약이나 황체호르몬 제제(프로게스테론 제제)를 사용하여 치료를 하게 되며 정기적으로 피검사를 실시하여 폐경기 호르몬 약제로 바꾸어 주게 됩니다. ; 경구피임제 사용에는 피임이나 골다공증 예방 외에도 다음과 같은 여러가지 잇점이 있습니다. 자궁내막암과 난소암의 발생율 감소 자궁내막증 감소 자궁근종의 크기 감소 양성 유방질환 발생율 감소 류마티스 관절염의 증상 완화 동맥경화증 감소 난소낭종의 발생율 감소 (9)각종 질환과 호르몬 대체요법의 관계 1) 유방암 ; 현재 유방암이 있는 경우 호르몬 치료는 하지 않는게 좋습니다. ; 유방암 발생은 호르몬 치료의 기간과 관련이 있습니다. 5년 이하의 경우 발생위험도가 증가하지 않으나 5년 이상의 경우 위험도가 증가할 수 있습니다. 12-15년 이상 받는 경우 유방암 발생 위험도가 1.4배 증가합니다. ; 호르몬 치료를 하는 경우 유방암 검사를 정기적으로 받기 때문에 오히려 암을 조기에 발견할 수 있는 장점이 있습니다. ; 유방암 가족력이 있는 경우 발생율이 더 증가하기 때문에 다른 사람보다 5년 먼저 검진을 시작하는 것이 좋습니다. 2) 자궁내막암 ; 여성호르몬을 단독으로 사용하는 경우 발생위험도가 2-8배 정도 증가하지만 황체호르몬과 병용하는 경우에는 위험도가 증가하지 않으며 오히려 감소한다는 연구보고도 있습니다. 3) 자궁내막암이나 유방암의 과거력 ; 에스트로겐 투여의 금기증이 아닙니다. 4) 자궁근종 및 선종 ; 호르몬 치료의 금기증이 아닙니다. ; 다만 선종이 심하거나 자궁내막에 점막하 근종이 있는 경우 불규칙한 출혈을 일으킬 수 있습니다. ; 폐경 후 6개월이 지났는데도 자궁근종이나 선종이 크기가 감소하지 않거나 커지는 경우에는 근종적출이나 자궁적출 등의 치료방법을 고려하는 것이 좋습니다. 5) 난소암, 자궁경부암 ; 난소암 발생에 대한 보호작용이 있는 것으로 생각되고 있습니다. ; 자궁경부암에 대해서는 아무런 영향을 주지 않으므로 안심하고 사용해도 됩니다. 6) 대장암, 직장암 ;호르몬 대체요법은 대장암의 상대적 발생위험도를 1에서 0.7-0.8 로 낮추며, 발생빈도를 50% 까지 낮추어 줍니다. 7) 갑상선 질환 ; 과거, 혹은 현재 갑상선 질환이 있는 경우 골다공증의 위험도가 더 높기 때문에 호르몬 대체요법이 필요합니다. 8) 간질환 ;간질환의 발생과는 연관이 없는 것으로 알려져 있습니다. ; 투여 전 피검사에서 간기능 수치가 좋지 않았던 여성은 투여를 연기하거나 경피요법을 사용하는 것이 좋습니다. ; 만성적인 간질환이 있는 경우에도 경피적인 방법으로 투여할 수 있습니다. 9) 고 콜레스테롤혈증 중성지방 수치는 호르몬 대체요법의 투여방법을 결정짓는 아주 중요한 요소이므로 반드시 호르몬 투여전에 검사를 하는 것이 좋습니다. 10) 고혈압 ; 호르몬 치료는 고혈압에 별다른 영향을 주지 않습니다. ; 그러나 경구 복용 시 소수의 환자에서 혈압이 증가하는 경우가 있으므로 호르몬 치료 시작 후 3주 가량은 혈압을 주의해서 관찰하는 것이 좋습니다. 11) 당뇨 ; 당뇨 환자들은 심혈관계 질환의 발생 위험도가 증가하는데, 호르몬 대체요법이 그 위험도를 감소시켜 줍니다. 12) 시력감퇴 ; 에스트로겐 대체요법은 노령화로 인한 망막변성의 발생을 감소시킵니다. ; 기타 폐경기와 관련된 안과적 증상인 시력감퇴와 안구건조감의 증상도 호전시킬 수 있습니다. 13) 치아손실 ; 치아 손실이나 여성호르몬 감소로 인한 구강 점막의 건조와 위축, 잦은 염증, 폐경 후 목소리 변화 등도 호전됩니다. (10) 호르몬 대체요법의 부작용 ; 약 10% 정도에서 나타날 수 있습니다. ; 대부분의 부작용은 수개월간 사용하면 점차적으로 사라지는 경우가 많습니다. 오심, 담즙결석, 체내수분양 증가, 두통, 생리양 감소, 다모증, 담즙정체, 체중증가, 편두통, 비정상적인 출혈, 불안,우울, 피곤함, 목소리 변성, 복부 팽만감, 다리동통, 유방통, 성욕감퇴, 여드름,식용증가 등 ; 부작용 발생 시 병원을 방문하여 적절한 조치를 받으시는게 좋습니다. (11) 폐경기 호르몬 대체요법 시 실시하는 검사 1) 기본 검사 ; 호르몬 검사와 금기성 질환에 대한 문진 실시 ; 혈압측정 ; 자궁경부암 검사 ; 유방암 검사 ; 피검사--- 간기능, 신장기능, 콜레스테롤 등 검사 ; 골밀도 측정 2) 추적 검사 ; 기본 검사 항목을 필요에 따라 6개월-1년 간격으로 실시합니다. 이상 저의 답변으로 궁금증을 해소하는데 도움이 되었다면 기쁘겠습니다. 네 갱년기 증상을 완화시키는 약은 산부인과 의사 처방을 받아서 드셔야 합니다. 갱년기라고 함을 폐경 전 여성 호르몬이 줄어들면서 생기는 증상이라서 줄어드는 여성 호르몬 대체제이니까요. 즉 신체 내에서 나오지 않는 여성 호르몬을 약으로 보충하는거니까 조심해서 복용해야 합니다. 여성 호르몬에 너무 오래 노출되면-늦은 나이까지- 여성암(유방암 등)에 걸린 확율도 높아집니다. 그리고 이런 약을 먹을 때는 정기적으로 피검사도 해야 하고요. 그러니까 산부인과 의사한테 처방 받고 약을 드셔야죠.</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=125803566&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=907&amp;search_sort=0&amp;spq=0</t>
+  </si>
+  <si>
+    <t>엄마의 갱년기 엮인 질문이란? Beta 타로/별자리</t>
+  </si>
+  <si>
+    <t>요즘 엄마께서 갱년기가 찾아왔는지 게속 저만 보면 소리르 높이고 때리고 악쓰면서 혼내요 글짓을 보면 죽는것을 보고싶냐고 확 소리치고싶어요 그것덕분에 두오빠는 죽으려고 달려들다가 막아고요 지금2년째 엄마께서 갱년기를 맞이해요 지금 저도 몸상태가 안좋고 이런 하니 죽고 싶고 참 이런 저런 상황에 놓입니다 도대체 갱년기는 3개월이나 6개월이면 사라지다는데 왜 안사라지고 저만 오빠한테 받은 스트레스를 저한테 풀고 있어서 저도 참 힘들어요 엄마의 갱년기좀 없애는 방법을 알려주세요 부탁입니다 저도 이제 힘들다고요</t>
+  </si>
+  <si>
+    <t>안녕하세요. 의협-네이버 상담의사 가정의학과 전문의 이상훈 입니다. 어머님의 갱년기 때문에 많이 힘드신가 봅니다. 여성은 갱년기가 되면 우울해지고, 짜증도 쉽게 내고, 감정적으로 불안해지기 쉽습니다. 시간이 지나면 좋아지기는 하지만, 오랫동안 고생하는 분들도 많습니다. 어머님의 경우 증상이 심하신 편이 아닐까 싶습니다. 가까운 갱년기 클리닉을 방문하셔서, 정확한 진찰과 도움을 받으시기 바랍니다. (보통 가정의학과나 산부인과에 개설되어 있습니다.) 불안증이나 우울 증상이 심하시다면, 추가적으로 정신건강의학과 진료를 받으시는 것도 도움이 될 수 있습니다. 잘 치료 받으시기를 빕니다. 감사합니다. 갱년기에 우울증이 온신것 같은데요.. 님 그거 상당히 심각한거예요. 빨리 엄마랑 산부인과나 여성전문병원엘 가보세요. 가시면 호르몬검사랑 심리검사 하거든요. 갱년기약도 처방해주면 드시고요. 우울증은 잘못하면 갱년기에 큰일 나거든요. 먼저 힘들더라도 옆에서 이해하고 주말에 같이 시간보내면서 우울증없도록 해주셔야 할거예요. * 갱년기에 관한 보고서 &gt;&gt; http://www.ourbrother.kr/ab-76163 갱년기 이여개는 생활수칙이랑, 여러가지 음식들 자료 잇거든요. 이것두 참고해서 읽어보시구요. 지금 님도 많이 힘들겟지만... 제일 힘든건 어머니니깐... 님이 옆에서 많이 챙겨드리세요.. 힘내시구요...화이팅~!! 갱년기검사에 관련되어 성공적인 홍보 광고를 하고 싶으신 분들 갱년기검사 마케팅! 저렴한 비용으로 안내해드리곘습니다. 갱년기검사아래 네임카드를 눌러주세요 네임카드의 주소를 확인하세요. 네임카드 안보일시에는 아래도된 표시를 눌으시면 확인이 가능합니다.↘↘ 갱년기를 정확한 지식으로 미리 예방하고 치료하시기 바랍니다, 도움이 되셨으면 합니다. [갱년기 증상] 생리불순, 안면 홍조, 발한, 성교통, 질염, 방광염, 배뇨통, 급뇨, 집중장애, 불안, 신경과민, 근육통, 관절통 등 *갱년기는 정확한 지식으로 접근하셔야 치료가 가능합니다.* 갱년기는 호르몬의 이상으로 생기는 질병입니다. 인체의 호르몬 기능을 담당하는게 '핵산' 이라는 성분입니다. 우리 몸의 간과 신장에서 핵산이 충분히 잘 생성되면 호르몬계도 정상적입니다. 하지만 나이가 들고 몸이 약화됨에따라 핵산이 현저하게 부족하게 됩니다. 이때 오는 질병이!! 바로 갱년기 라는 것입니다...... 보통 갱년기때 호르몬주사 맞는 이유도 이러한 이유때문이죠~ 될수있다면 핵산이 풍부한 음식을 많이 드셔서 핵산을 충분히 공급받아 갱년기 증상에 도움이 되길 바랍니다. 추가적으로 갱년기는 감정적인 기복이 심해집니다. 긍정적인 마인드를 갖고 스트레스를 받지 않도록 주변인들이 주의한다면 갱년기장애로 오는 우울증을 피할 수 있습니다. * 건강은 정확한 지식으로 올바른 식생활 및 생활습관을 개선하실때 회복할 수 있습니다. 갱년기를 잘보내야 노후에 편하다고 합니다 저도 어머니가 갱년기로 고생하실때 처음에는 몰랐거든요 남자이고 또 가족중에 여자가 없다보니 갱년기가 뭐인지도 솔직히 몰랐습니다 얼굴에 홍조가 뛰고 몸에서 열이나도 그냥 감기인줄 알았는데 병원에가서야 의사선생님한테 듣고서 깜짝 놀랐습니니다 병원에 꽤 오랜동안 다녀도 차도가 없어서 갱년기에 좋다는 칡.대추등을 먹어봤는데도 효과를 많이 보지를 못했고 골다공증이 있다고 하시더라구요 우울증도 오시고 정말 무섭더라구요 회사동료에게 말하니 달팽이진액을 한번 드셔보시게 하라고 하더라구요 달팽이에 콘드로이친이란 성분이 여성호르몬 역할을 하고 칼슘이많아 골다공증에 효과를 본다고 동료 어머님도 효과많이 봤다고 해서 조금 가격은있었지만 구매해서 드렸는데 그렇게 좋아하실수가 없더라구요 왜 이제서야 제가 어머니한테 했는지 죄송스러운 맘도 있고 또 다행히 드시고 효과를 보셔서 3개월쯤 드시고 병원에 다시 골밀도 측정을 할때는 정상수치가 나왔더라구요 이 기회로 지금은 어머니랑 같이 걷기운동도 같이하고 대화도 많이 나누고 있습니다 한번쯤 달팽이진액 드셔보시게 해도 좋을것 같네요</t>
+  </si>
+  <si>
+    <t>https://kin.naver.com/qna/detail.naver?d1id=7&amp;dirId=7011404&amp;docId=161183880&amp;qb=6rCx64WE6riw&amp;enc=utf8&amp;section=kin.qna&amp;rank=951&amp;search_sort=0&amp;spq=0</t>
   </si>
 </sst>
 </file>
@@ -201,10 +651,10 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="145.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="153.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="145.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="146.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -392,6 +842,686 @@
       </c>
       <c r="E11" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
